--- a/outs/strips1.xlsx
+++ b/outs/strips1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="258">
   <si>
     <t>image</t>
   </si>
@@ -67,742 +67,727 @@
     <t>offset_microns</t>
   </si>
   <si>
-    <t>['S088_999_999_999']</t>
-  </si>
-  <si>
-    <t>['S017_010_009_001', 'S027_003_011_002', 'S034_004_012_999', 'S042_014_999_999', 'S049_006_015_005', 'S059_017_016_007', 'S066_018_999_008']</t>
-  </si>
-  <si>
-    <t>['S015_020_030_019', 'S028_022_032_021', 'S043_024_999_013', 'S056_026_025_999', 'S069_028_038_027', 'S089_999_999_999']</t>
-  </si>
-  <si>
-    <t>['S010_999_041_029', 'S018_031_999_999', 'S039_034_033_023', 'S053_036_047_035', 'S063_049_048_037', 'S076_051_050_039']</t>
-  </si>
-  <si>
-    <t>['S005_053_052_040', 'S024_043_055_042', 'S035_045_999_044', 'S045_059_058_046', 'S070_999_063_999']</t>
-  </si>
-  <si>
-    <t>['S007_999_067_999', 'S011_054_999_999', 'S029_072_071_056', 'S050_075_074_999', 'S060_061_076_060', 'S064_062_999_999', 'S081_065_079_064', 'S082_080_999_999', 'S087_999_999_999']</t>
-  </si>
-  <si>
-    <t>['S002_082_081_066', 'S012_084_083_068', 'S019_070_999_999', 'S020_999_999_069', 'S036_073_087_999', 'S061_091_090_076', 'S071_078_092_077', 'S077_999_093_999']</t>
-  </si>
-  <si>
-    <t>['S001_999_096_999', 'S026_086_999_085', 'S044_104_103_088', 'S054_999_105_089', 'S084_999_999_094', 'S086_111_110_095']</t>
-  </si>
-  <si>
-    <t>['S003_113_112_097', 'S006_114_113_098', 'S016_999_999_099', 'S021_116_115_100', 'S030_102_117_101', 'S040_119_118_999', 'S065_107_122_106', 'S078_109_124_108', 'S085_126_999_125']</t>
-  </si>
-  <si>
-    <t>['S004_128_141_127', 'S031_132_146_131', 'S051_999_134_120', 'S057_136_135_121', 'S072_138_137_123', 'S083_140_155_139', 'S090_999_999_999']</t>
-  </si>
-  <si>
-    <t>['S008_142_999_999', 'S013_999_143_129', 'S022_045_144_130', 'S041_148_147_133', 'S062_151_165_150', 'S074_153_999_152', 'S079_154_999_999']</t>
-  </si>
-  <si>
-    <t>['S009_157_156_999', 'S025_159_171_158', 'S037_161_173_160', 'S046_163_999_999', 'S052_999_163_149', 'S055_176_175_164', 'S067_178_177_166', 'S075_179_999_167', 'S080_168_999_999']</t>
-  </si>
-  <si>
-    <t>['S014_170_180_169', 'S032_999_999_172', 'S047_999_999_174', 'S073_189_999_999', 'S092_999_999_999']</t>
-  </si>
-  <si>
-    <t>['S023_191_190_181', 'S033_183_192_182', 'S038_184_193_999', 'S048_195_194_185', 'S058_187_196_186', 'S068_198_197_188']</t>
-  </si>
-  <si>
-    <t>['S091_999_999_999']</t>
-  </si>
-  <si>
-    <t>['1099']</t>
-  </si>
-  <si>
-    <t>['2000', '1560', '1561', '2440', '1561', '2000', '2000']</t>
-  </si>
-  <si>
-    <t>['4198', '4198', '3319', '3318', '4198', '3528']</t>
-  </si>
-  <si>
-    <t>['5516', '4637', '4637', '5516', '5956', '5957']</t>
-  </si>
-  <si>
-    <t>['7274', '6835', '6835', '7274', '6837']</t>
-  </si>
-  <si>
-    <t>['8593', '8153', '8597', '8590', '8153', '7714', '8153', '8590', '8801']</t>
-  </si>
-  <si>
-    <t>['9911', '9911', '9032', '9913', '9472', '9912', '9472', '9472']</t>
-  </si>
-  <si>
-    <t>['11230', '10790', '11229', '10790', '10790', '11229']</t>
-  </si>
-  <si>
-    <t>['12546', '12546', '12108', '12548', '12109', '12546', '12108', '12108', '13429']</t>
-  </si>
-  <si>
-    <t>['14745', '14745', '13864', '13866', '13866', '14745', '14104']</t>
-  </si>
-  <si>
-    <t>['15625', '15185', '15185', '15182', '16065', '16065', '15625']</t>
-  </si>
-  <si>
-    <t>['16503', '17382', '17382', '16943', '16502', '17822', '17825', '17822', '16503']</t>
-  </si>
-  <si>
-    <t>['18702', '19141', '18701', '19141', '18494']</t>
-  </si>
-  <si>
-    <t>['20458', '20019', '20021', '20458', '20019', '20458']</t>
-  </si>
-  <si>
-    <t>['21361']</t>
-  </si>
-  <si>
-    <t>['15918']</t>
-  </si>
-  <si>
-    <t>['18712', '16421', '14906', '13321', '11861', '9578', '8055']</t>
-  </si>
-  <si>
-    <t>['19473', '16428', '13383', '10341', '7294', '6133']</t>
-  </si>
-  <si>
-    <t>['20234', '18712', '14144', '11100', '8816', '5774']</t>
-  </si>
-  <si>
-    <t>['21757', '17951', '14906', '12623', '7297']</t>
-  </si>
-  <si>
-    <t>['20995', '20234', '16433', '11861', '9578', '8754', '5010', '4250', '23678']</t>
-  </si>
-  <si>
-    <t>['23279', '20235', '18650', '18713', '14906', '9576', '7294', '5772']</t>
-  </si>
-  <si>
-    <t>['24040', '17189', '13383', '11100', '3488', '2725']</t>
-  </si>
-  <si>
-    <t>['23280', '21755', '19473', '18712', '16429', '14146', '8816', '5772', '3489']</t>
-  </si>
-  <si>
-    <t>['22518', '16428', '11864', '10339', '7294', '4249', '3339']</t>
-  </si>
-  <si>
-    <t>['20933', '20235', '18713', '14142', '9579', '6536', '5709']</t>
-  </si>
-  <si>
-    <t>['20995', '17951', '14906', '12560', '11859', '11100', '8054', '6533', '5772']</t>
-  </si>
-  <si>
-    <t>['20238', '16426', '12622', '7292', '20891']</t>
-  </si>
-  <si>
-    <t>['18712', '16428', '14907', '12621', '10339', '8054']</t>
-  </si>
-  <si>
-    <t>['10337']</t>
-  </si>
-  <si>
-    <t>[359]</t>
-  </si>
-  <si>
-    <t>[360, 363, 383, 361, 366, 368, 370]</t>
-  </si>
-  <si>
-    <t>[358, 358, 364, 366, 368, 371]</t>
-  </si>
-  <si>
-    <t>[359, 359, 360, 363, 367, 369]</t>
-  </si>
-  <si>
-    <t>[351, 361, 361, 364, 366]</t>
-  </si>
-  <si>
-    <t>[360, 360, 357, 369, 369, 384, 371, 370, 354]</t>
-  </si>
-  <si>
-    <t>[356, 357, 358, 356, 358, 364, 366, 367]</t>
-  </si>
-  <si>
-    <t>[358, 360, 364, 362, 370, 371]</t>
-  </si>
-  <si>
-    <t>[359, 361, 362, 363, 361, 365, 369, 371, 370]</t>
-  </si>
-  <si>
-    <t>[359, 357, 368, 367, 369, 371, 369]</t>
-  </si>
-  <si>
-    <t>[356, 361, 361, 367, 368, 369, 334]</t>
-  </si>
-  <si>
-    <t>[362, 366, 368, 363, 367, 370, 372, 372, 371]</t>
-  </si>
-  <si>
-    <t>[364, 365, 368, 370, 365]</t>
-  </si>
-  <si>
-    <t>[368, 365, 364, 368, 366, 372]</t>
-  </si>
-  <si>
-    <t>[370]</t>
-  </si>
-  <si>
-    <t>[341]</t>
-  </si>
-  <si>
-    <t>[358, 350, 317, 319, 319, 309, 303]</t>
-  </si>
-  <si>
-    <t>[369, 343, 325, 310, 295, 290]</t>
-  </si>
-  <si>
-    <t>[370, 358, 329, 311, 298, 283]</t>
-  </si>
-  <si>
-    <t>[380, 353, 332, 319, 286]</t>
-  </si>
-  <si>
-    <t>[374, 369, 338, 311, 299, 271, 276, 269, 401]</t>
-  </si>
-  <si>
-    <t>[393, 366, 329, 356, 331, 303, 288, 278]</t>
-  </si>
-  <si>
-    <t>[401, 347, 320, 304, 262, 258]</t>
-  </si>
-  <si>
-    <t>[394, 380, 362, 356, 339, 326, 291, 274, 260]</t>
-  </si>
-  <si>
-    <t>[385, 328, 309, 302, 283, 267, 259]</t>
-  </si>
-  <si>
-    <t>[363, 362, 353, 325, 295, 277, 260]</t>
-  </si>
-  <si>
-    <t>[369, 345, 325, 304, 307, 305, 291, 282, 276]</t>
-  </si>
-  <si>
-    <t>[360, 338, 308, 289, 370]</t>
-  </si>
-  <si>
-    <t>[346, 332, 322, 312, 296, 292]</t>
-  </si>
-  <si>
-    <t>[304]</t>
-  </si>
-  <si>
-    <t>[225]</t>
-  </si>
-  <si>
-    <t>[355, 358, 358, 281, 361, 363, 364]</t>
-  </si>
-  <si>
-    <t>[357, 353, 360, 363, 360, 302]</t>
-  </si>
-  <si>
-    <t>[354, 357, 354, 359, 362, 364]</t>
-  </si>
-  <si>
-    <t>[353, 358, 357, 359, 360]</t>
-  </si>
-  <si>
-    <t>[353, 354, 352, 361, 362, 476, 365, 367, 291]</t>
-  </si>
-  <si>
-    <t>[352, 353, 536, 352, 353, 359, 361, 362]</t>
-  </si>
-  <si>
-    <t>[352, 354, 357, 357, 363, 366]</t>
-  </si>
-  <si>
-    <t>[357, 356, 357, 357, 355, 359, 361, 363, 365]</t>
-  </si>
-  <si>
-    <t>[354, 355, 359, 360, 363, 364, 425]</t>
-  </si>
-  <si>
-    <t>[188, 356, 354, 360, 360, 363, 193]</t>
-  </si>
-  <si>
-    <t>[357, 360, 361, 518, 358, 363, 364, 366, 366]</t>
-  </si>
-  <si>
-    <t>[360, 357, 361, 363, 421]</t>
-  </si>
-  <si>
-    <t>[361, 359, 357, 362, 361, 365]</t>
-  </si>
-  <si>
-    <t>[488]</t>
-  </si>
-  <si>
-    <t>[329]</t>
-  </si>
-  <si>
-    <t>[330, 332, 325, 472, 319, 317, 317]</t>
-  </si>
-  <si>
-    <t>[333, 325, 322, 317, 309, 203]</t>
-  </si>
-  <si>
-    <t>[339, 334, 320, 314, 311, 306]</t>
-  </si>
-  <si>
-    <t>[342, 324, 320, 313, 301]</t>
-  </si>
-  <si>
-    <t>[339, 332, 317, 311, 309, 177, 300, 301, 471]</t>
-  </si>
-  <si>
-    <t>[346, 334, 376, 324, 316, 311, 305, 302]</t>
-  </si>
-  <si>
-    <t>[360, 321, 315, 309, 289, 288]</t>
-  </si>
-  <si>
-    <t>[350, 340, 325, 326, 318, 313, 305, 300, 289]</t>
-  </si>
-  <si>
-    <t>[342, 317, 304, 306, 299, 291, 180]</t>
-  </si>
-  <si>
-    <t>[279, 324, 324, 315, 303, 296, 266]</t>
-  </si>
-  <si>
-    <t>[328, 316, 311, 316, 307, 307, 306, 300, 300]</t>
-  </si>
-  <si>
-    <t>[320, 312, 310, 308, 439]</t>
-  </si>
-  <si>
-    <t>[318, 311, 308, 307, 307, 307]</t>
-  </si>
-  <si>
-    <t>[309]</t>
-  </si>
-  <si>
-    <t>[1085]</t>
-  </si>
-  <si>
-    <t>[1987, 1550, 1571, 2428, 1554, 1995, 1997]</t>
-  </si>
-  <si>
-    <t>[4183, 4183, 3310, 3311, 4193, 3526]</t>
-  </si>
-  <si>
-    <t>[5502, 4623, 4624, 5506, 5950, 5953]</t>
-  </si>
-  <si>
-    <t>[7252, 6823, 6823, 7265, 6830]</t>
-  </si>
-  <si>
-    <t>[8580, 8140, 8581, 8586, 8149, 7725, 8151, 8587, 8782]</t>
-  </si>
-  <si>
-    <t>[9894, 9895, 9017, 9896, 9457, 9903, 9465, 9466]</t>
-  </si>
-  <si>
-    <t>[11215, 10777, 11220, 10779, 10787, 11227]</t>
-  </si>
-  <si>
-    <t>[12532, 12534, 12097, 12538, 12097, 12538, 12104, 12106, 13426]</t>
-  </si>
-  <si>
-    <t>[14731, 14729, 13859, 13860, 13862, 14743, 14100]</t>
-  </si>
-  <si>
-    <t>[15608, 15173, 15173, 15176, 16060, 16061, 15586]</t>
-  </si>
-  <si>
-    <t>[16492, 17375, 17377, 16933, 16496, 17819, 17824, 17821, 16501]</t>
-  </si>
-  <si>
-    <t>[18693, 19133, 18696, 19138, 18486]</t>
-  </si>
-  <si>
-    <t>[20453, 20011, 20012, 20453, 20012, 20457]</t>
-  </si>
-  <si>
-    <t>[21358]</t>
-  </si>
-  <si>
-    <t>[15886]</t>
-  </si>
-  <si>
-    <t>[18697, 16398, 14850, 13267, 11807, 9514, 7985]</t>
-  </si>
-  <si>
-    <t>[19469, 16398, 13335, 10278, 7216, 6050]</t>
-  </si>
-  <si>
-    <t>[20231, 18697, 14100, 11038, 8741, 5684]</t>
-  </si>
-  <si>
-    <t>[21764, 17931, 14865, 12569, 7210]</t>
-  </si>
-  <si>
-    <t>[20996, 20230, 16398, 11799, 9504, 8652, 4913, 4146, 23706]</t>
-  </si>
-  <si>
-    <t>[23299, 20228, 18606, 18696, 14864, 9506, 7209, 5677]</t>
-  </si>
-  <si>
-    <t>[24068, 17163, 13330, 11031, 3377, 2610]</t>
-  </si>
-  <si>
-    <t>[23301, 21762, 19462, 18695, 16395, 14099, 8734, 5673, 3376]</t>
-  </si>
-  <si>
-    <t>[22530, 16383, 11800, 10268, 7204, 4143, 3225]</t>
-  </si>
-  <si>
-    <t>[20923, 20224, 18693, 14094, 9501, 6440, 5596]</t>
-  </si>
-  <si>
-    <t>[20991, 17923, 14858, 12491, 11793, 11032, 7972, 6442, 5675]</t>
-  </si>
-  <si>
-    <t>[20225, 16391, 12557, 7208, 20888]</t>
-  </si>
-  <si>
-    <t>[18685, 16387, 14856, 12560, 10262, 7973]</t>
-  </si>
-  <si>
-    <t>[10268]</t>
-  </si>
-  <si>
-    <t>[951]</t>
-  </si>
-  <si>
-    <t>[1982, 1545, 1546, 2348, 1549, 1990, 1991]</t>
-  </si>
-  <si>
-    <t>[4182, 4178, 3306, 3308, 4185, 3457]</t>
-  </si>
-  <si>
-    <t>[5497, 4621, 4618, 5502, 5945, 5948]</t>
-  </si>
-  <si>
-    <t>[7254, 6820, 6819, 7260, 6824]</t>
-  </si>
-  <si>
-    <t>[8573, 8134, 8576, 8578, 8142, 7817, 8145, 8584, 8719]</t>
-  </si>
-  <si>
-    <t>[9890, 9891, 9195, 9892, 9452, 9898, 9460, 9461]</t>
-  </si>
-  <si>
-    <t>[11209, 10771, 11213, 10774, 10780, 11222]</t>
-  </si>
-  <si>
-    <t>[12530, 12529, 12092, 12532, 12091, 12532, 12096, 12098, 13421]</t>
-  </si>
-  <si>
-    <t>[14726, 14727, 13850, 13853, 13856, 14736, 14156]</t>
-  </si>
-  <si>
-    <t>[15440, 15168, 15166, 15169, 16052, 16055, 15445]</t>
-  </si>
-  <si>
-    <t>[16487, 17369, 17370, 17088, 16487, 17812, 17816, 17815, 16496]</t>
-  </si>
-  <si>
-    <t>[18689, 19125, 18689, 19131, 18542]</t>
-  </si>
-  <si>
-    <t>[20446, 20005, 20005, 20447, 20007, 20450]</t>
-  </si>
-  <si>
-    <t>[21476]</t>
-  </si>
-  <si>
-    <t>[15874]</t>
-  </si>
-  <si>
-    <t>[18669, 16380, 14858, 13420, 11807, 9522, 7999]</t>
-  </si>
-  <si>
-    <t>[19433, 16380, 13332, 10285, 7230, 5963]</t>
-  </si>
-  <si>
-    <t>[20200, 18673, 14091, 11041, 8754, 5707]</t>
-  </si>
-  <si>
-    <t>[21726, 17902, 14853, 12563, 7225]</t>
-  </si>
-  <si>
-    <t>[20961, 20193, 16377, 11799, 9514, 8558, 4937, 4178, 23776]</t>
-  </si>
-  <si>
-    <t>[23252, 20196, 18653, 18664, 14849, 9514, 7226, 5701]</t>
-  </si>
-  <si>
-    <t>[24027, 17137, 13325, 11036, 3404, 2640]</t>
-  </si>
-  <si>
-    <t>[23257, 21722, 19425, 18665, 16374, 14086, 8748, 5699, 3405]</t>
-  </si>
-  <si>
-    <t>[22487, 16372, 11795, 10272, 7220, 4167, 3146]</t>
-  </si>
-  <si>
-    <t>[20839, 20186, 18664, 14084, 9509, 6459, 5602]</t>
-  </si>
-  <si>
-    <t>[20950, 17894, 14844, 12503, 11793, 11034, 7987, 6460, 5699]</t>
-  </si>
-  <si>
-    <t>[20185, 16365, 12559, 7227, 20957]</t>
-  </si>
-  <si>
-    <t>[18657, 16366, 14842, 12555, 10273, 7988]</t>
-  </si>
-  <si>
-    <t>[10273]</t>
-  </si>
-  <si>
-    <t>[-11.0]</t>
-  </si>
-  <si>
-    <t>[-4.0, -7.0, -7.0, 0.0, -7.0, -4.0, -4.0]</t>
-  </si>
-  <si>
-    <t>[13.0, 13.0, 7.0, 7.0, 14.0, 8.0]</t>
-  </si>
-  <si>
-    <t>[24.0, 17.0, 17.0, 24.0, 27.0, 27.0]</t>
-  </si>
-  <si>
-    <t>[38.0, 34.0, 34.0, 38.0, 34.0]</t>
-  </si>
-  <si>
-    <t>[48.0, 45.0, 48.0, 48.0, 45.0, 42.0, 45.0, 48.0, 50.0]</t>
-  </si>
-  <si>
-    <t>[59.0, 59.0, 52.0, 59.0, 55.0, 59.0, 55.0, 55.0]</t>
-  </si>
-  <si>
-    <t>[69.0, 66.0, 69.0, 66.0, 66.0, 69.0]</t>
-  </si>
-  <si>
-    <t>[80.0, 80.0, 76.0, 80.0, 76.0, 80.0, 76.0, 76.0, 87.0]</t>
-  </si>
-  <si>
-    <t>[97.0, 97.0, 90.0, 90.0, 90.0, 97.0, 92.0]</t>
-  </si>
-  <si>
-    <t>[104.0, 101.0, 101.0, 101.0, 108.0, 108.0, 104.0]</t>
-  </si>
-  <si>
-    <t>[111.0, 118.0, 118.0, 115.0, 111.0, 122.0, 122.0, 122.0, 111.0]</t>
-  </si>
-  <si>
-    <t>[129.0, 132.0, 129.0, 132.0, 127.0]</t>
-  </si>
-  <si>
-    <t>[143.0, 139.0, 139.0, 143.0, 139.0, 143.0]</t>
-  </si>
-  <si>
-    <t>[150.0]</t>
-  </si>
-  <si>
-    <t>[20.0]</t>
-  </si>
-  <si>
-    <t>[43.0, 24.0, 12.0, 0.0, -12.0, -30.0, -42.0]</t>
-  </si>
-  <si>
-    <t>[49.0, 24.0, 0.0, -24.0, -49.0, -58.0]</t>
-  </si>
-  <si>
-    <t>[55.0, 43.0, 6.0, -18.0, -36.0, -61.0]</t>
-  </si>
-  <si>
-    <t>[67.0, 37.0, 12.0, -6.0, -49.0]</t>
-  </si>
-  <si>
-    <t>[61.0, 55.0, 24.0, -12.0, -30.0, -37.0, -67.0, -73.0, 82.0]</t>
-  </si>
-  <si>
-    <t>[79.0, 55.0, 42.0, 43.0, 12.0, -30.0, -49.0, -61.0]</t>
-  </si>
-  <si>
-    <t>[85.0, 30.0, 0.0, -18.0, -79.0, -85.0]</t>
-  </si>
-  <si>
-    <t>[79.0, 67.0, 49.0, 43.0, 24.0, 6.0, -36.0, -61.0, -79.0]</t>
-  </si>
-  <si>
-    <t>[73.0, 24.0, -12.0, -24.0, -49.0, -73.0, -80.0]</t>
-  </si>
-  <si>
-    <t>[60.0, 55.0, 43.0, 6.0, -30.0, -55.0, -61.0]</t>
-  </si>
-  <si>
-    <t>[61.0, 36.0, 12.0, -7.0, -12.0, -18.0, -43.0, -55.0, -61.0]</t>
-  </si>
-  <si>
-    <t>[55.0, 24.0, -6.0, -49.0, 60.0]</t>
-  </si>
-  <si>
-    <t>[43.0, 24.0, 12.0, -6.0, -24.0, -43.0]</t>
-  </si>
-  <si>
-    <t>[-24.0]</t>
-  </si>
-  <si>
-    <t>[-12.0]</t>
-  </si>
-  <si>
-    <t>[-4.0, -8.0, -8.0, -1.0, -7.0, -4.0, -4.0]</t>
-  </si>
-  <si>
-    <t>[13.0, 13.0, 6.0, 6.0, 13.0, 8.0]</t>
-  </si>
-  <si>
-    <t>[48.0, 45.0, 48.0, 48.0, 45.0, 42.0, 45.0, 48.0, 49.0]</t>
-  </si>
-  <si>
-    <t>[59.0, 59.0, 53.0, 59.0, 55.0, 59.0, 55.0, 55.0]</t>
-  </si>
-  <si>
-    <t>[97.0, 97.0, 90.0, 90.0, 90.0, 97.0, 93.0]</t>
-  </si>
-  <si>
-    <t>[103.0, 101.0, 101.0, 101.0, 108.0, 108.0, 103.0]</t>
-  </si>
-  <si>
-    <t>[111.0, 118.0, 118.0, 116.0, 111.0, 122.0, 122.0, 122.0, 111.0]</t>
-  </si>
-  <si>
-    <t>[151.0]</t>
-  </si>
-  <si>
-    <t>[42.0, 24.0, 12.0, 1.0, -12.0, -30.0, -42.0]</t>
-  </si>
-  <si>
-    <t>[48.0, 24.0, 0.0, -24.0, -48.0, -58.0]</t>
-  </si>
-  <si>
-    <t>[55.0, 42.0, 6.0, -18.0, -36.0, -61.0]</t>
-  </si>
-  <si>
-    <t>[67.0, 36.0, 12.0, -6.0, -48.0]</t>
-  </si>
-  <si>
-    <t>[61.0, 54.0, 24.0, -12.0, -30.0, -38.0, -67.0, -73.0, 83.0]</t>
-  </si>
-  <si>
-    <t>[79.0, 54.0, 42.0, 42.0, 12.0, -30.0, -48.0, -61.0]</t>
-  </si>
-  <si>
-    <t>[79.0, 67.0, 48.0, 42.0, 24.0, 6.0, -36.0, -61.0, -79.0]</t>
-  </si>
-  <si>
-    <t>[73.0, 24.0, -12.0, -24.0, -48.0, -73.0, -81.0]</t>
-  </si>
-  <si>
-    <t>[60.0, 54.0, 42.0, 6.0, -30.0, -55.0, -61.0]</t>
-  </si>
-  <si>
-    <t>[60.0, 36.0, 12.0, -7.0, -12.0, -18.0, -42.0, -55.0, -61.0]</t>
-  </si>
-  <si>
-    <t>[54.0, 24.0, -6.0, -48.0, 61.0]</t>
-  </si>
-  <si>
-    <t>[42.0, 24.0, 12.0, -6.0, -24.0, -42.0]</t>
-  </si>
-  <si>
-    <t>[134.5362404707371]</t>
-  </si>
-  <si>
-    <t>[28.442925306655784, 18.681541692269406, 26.248809496813376, 172.6528308484978, 5.0, 9.433981132056603, 15.231546211727817]</t>
-  </si>
-  <si>
-    <t>[36.013886210738214, 18.681541692269406, 5.0, 7.615773105863909, 16.1245154965971, 111.04053313993049]</t>
-  </si>
-  <si>
-    <t>[31.400636936215164, 24.08318915758459, 10.816653826391969, 5.0, 13.92838827718412, 23.53720459187964]</t>
-  </si>
-  <si>
-    <t>[38.05259518088089, 29.154759474226502, 12.649110640673518, 7.810249675906654, 16.15549442140351]</t>
-  </si>
-  <si>
-    <t>[35.6931365951495, 37.48332962798263, 21.587033144922902, 8.0, 12.206555615733702, 131.52946437965906, 24.73863375370596, 32.14031735997639, 94.17536832951598]</t>
-  </si>
-  <si>
-    <t>[47.16990566028302, 32.2490309931942, 184.10051602317685, 32.2490309931942, 15.811388300841896, 9.433981132056603, 17.72004514666935, 24.515301344262525]</t>
-  </si>
-  <si>
-    <t>[41.43669871020132, 26.68332812825267, 8.602325267042627, 7.0710678118654755, 27.892651361962706, 30.4138126514911]</t>
-  </si>
-  <si>
-    <t>[44.04543109109048, 40.311288741492746, 37.33630940518894, 30.59411708155671, 21.840329667841555, 14.317821063276353, 16.1245154965971, 27.202941017470888, 29.427877939124322]</t>
-  </si>
-  <si>
-    <t>[43.289721643826724, 11.180339887498949, 10.295630140987, 8.06225774829855, 17.08800749063506, 25.0, 96.83491106000976]</t>
-  </si>
-  <si>
-    <t>[187.82971010998233, 38.3275357934736, 29.832867780352597, 12.206555615733702, 11.313708498984761, 19.924858845171276, 141.12760183606892]</t>
-  </si>
-  <si>
-    <t>[41.30375285612676, 29.614185789921695, 15.652475842498529, 155.46382215808282, 9.0, 7.280109889280518, 17.0, 18.973665961010276, 24.515301344262525]</t>
-  </si>
-  <si>
-    <t>[40.19950248448356, 27.202941017470888, 7.280109889280518, 20.248456731316587, 88.86506625215557]</t>
-  </si>
-  <si>
-    <t>[28.861739379323623, 21.840329667841555, 15.652475842498529, 7.810249675906654, 12.083045973594572, 16.55294535724685]</t>
-  </si>
-  <si>
-    <t>[118.10588469674151]</t>
-  </si>
-  <si>
-    <t>[1067.8814087364758]</t>
-  </si>
-  <si>
-    <t>[225.76571962158027, 148.2847371823884, 208.34992538095617, 1370.4318448599515, 39.6875, 74.8822252356993, 120.90039805558956]</t>
-  </si>
-  <si>
-    <t>[285.86022179773454, 148.2847371823884, 39.6875, 60.45019902779478, 127.98834175423946, 881.3842317981984]</t>
-  </si>
-  <si>
-    <t>[249.24255568120785, 191.1603139383277, 85.85718974698626, 39.6875, 110.55658195014894, 186.82656144804463]</t>
-  </si>
-  <si>
-    <t>[302.04247424824206, 231.41590332667286, 100.40231571034604, 61.993856802509065, 128.23423696989036]</t>
-  </si>
-  <si>
-    <t>[283.3142717239991, 297.5239289221121, 171.34707558782554, 63.5, 96.88953519988627, 1044.0151235135438, 196.36290542004107, 255.1137690448126, 747.5169861155331]</t>
-  </si>
-  <si>
-    <t>[374.4111261784965, 255.9766835084789, 1461.297845933966, 255.9766835084789, 125.50289463793256, 74.8822252356993, 140.65285835168797, 194.59020442008378]</t>
-  </si>
-  <si>
-    <t>[328.903796012223, 211.79891701800557, 68.28095680715086, 56.12660075668221, 221.39792018557898, 241.4096379212106]</t>
-  </si>
-  <si>
-    <t>[349.61060928553064, 319.97085438559867, 296.3569559036872, 242.84080433485641, 173.35761673849237, 113.64770468975604, 127.98834175423946, 215.92334432617517, 233.5837811417993]</t>
-  </si>
-  <si>
-    <t>[343.6121655478746, 88.7439478570229, 81.72156424408432, 63.99417087711973, 135.6360594569158, 198.4375, 768.6271065388275]</t>
-  </si>
-  <si>
-    <t>[1490.8983239979848, 304.2248153606967, 236.79838800654875, 96.88953519988627, 89.80256121069155, 158.15356708354702, 1120.200339573797]</t>
-  </si>
-  <si>
-    <t>[327.84853829550616, 235.06259970750347, 124.24152699983208, 1233.9940883797824, 71.4375, 57.78587224616411, 134.9375, 150.60347356551907, 194.59020442008378]</t>
-  </si>
-  <si>
-    <t>[319.08355097058825, 215.92334432617517, 57.78587224616411, 160.7221253048254, 705.366463376485]</t>
-  </si>
-  <si>
-    <t>[229.09005632338125, 173.35761673849237, 124.24152699983208, 61.993856802509065, 95.90917741540692, 131.38900377314684]</t>
-  </si>
-  <si>
-    <t>[937.4654597803857]</t>
+    <t>['S001_999_096_999', 'S002_082_081_066', 'S003_113_112_097', 'S087_999_999_999']</t>
+  </si>
+  <si>
+    <t>['S004_128_141_127', 'S005_053_052_040', 'S006_114_113_098']</t>
+  </si>
+  <si>
+    <t>['S007_999_067_999', 'S008_142_999_999', 'S009_157_156_999', 'S010_999_041_029', 'S011_054_999_999', 'S012_084_083_068', 'S013_999_143_129', 'S014_170_180_169', 'S092_999_999_999']</t>
+  </si>
+  <si>
+    <t>['S015_020_030_019', 'S016_999_999_099', 'S017_010_009_001', 'S018_031_999_999', 'S019_070_999_999', 'S020_999_999_069', 'S021_116_115_100', 'S022_045_144_130', 'S023_191_190_181']</t>
+  </si>
+  <si>
+    <t>['S024_043_055_042', 'S025_159_171_158', 'S026_086_999_085']</t>
+  </si>
+  <si>
+    <t>['S027_003_011_002', 'S028_022_032_021', 'S029_072_071_056', 'S030_102_117_101', 'S031_132_146_131', 'S032_999_999_172', 'S033_183_192_182', 'S088_999_999_999']</t>
+  </si>
+  <si>
+    <t>['S034_004_012_999', 'S035_045_999_044', 'S036_073_087_999', 'S037_161_173_160', 'S038_184_193_999', 'S039_034_033_023', 'S040_119_118_999', 'S041_148_147_133']</t>
+  </si>
+  <si>
+    <t>['S042_014_999_999', 'S043_024_999_013', 'S044_104_103_088', 'S045_059_058_046', 'S046_163_999_999', 'S047_999_999_174', 'S048_195_194_185']</t>
+  </si>
+  <si>
+    <t>['S049_006_015_005', 'S050_075_074_999', 'S051_999_134_120', 'S052_999_163_149', 'S053_036_047_035', 'S054_999_105_089', 'S055_176_175_164']</t>
+  </si>
+  <si>
+    <t>['S056_026_025_999', 'S057_136_135_121', 'S058_187_196_186', 'S059_017_016_007', 'S060_061_076_060', 'S061_091_090_076', 'S062_151_165_150', 'S091_999_999_999']</t>
+  </si>
+  <si>
+    <t>['S063_049_048_037', 'S064_062_999_999', 'S065_107_122_106', 'S066_018_999_008', 'S067_178_177_166', 'S068_198_197_188']</t>
+  </si>
+  <si>
+    <t>['S069_028_038_027', 'S070_999_063_999', 'S071_078_092_077', 'S072_138_137_123', 'S073_189_999_999', 'S074_153_999_152', 'S075_179_999_167']</t>
+  </si>
+  <si>
+    <t>['S076_051_050_039', 'S077_999_093_999', 'S078_109_124_108', 'S079_154_999_999', 'S080_168_999_999', 'S081_065_079_064', 'S089_999_999_999']</t>
+  </si>
+  <si>
+    <t>['S082_080_999_999', 'S083_140_155_139', 'S084_999_999_094', 'S085_126_999_125']</t>
+  </si>
+  <si>
+    <t>['S086_111_110_095', 'S090_999_999_999']</t>
+  </si>
+  <si>
+    <t>['1895', '2656', '2655', '2257']</t>
+  </si>
+  <si>
+    <t>['3417', '4178', '4180']</t>
+  </si>
+  <si>
+    <t>['4940', '5002', '4940', '5701', '5701', '5700', '5700', '5697', '5044']</t>
+  </si>
+  <si>
+    <t>['6462', '6462', '7223', '7223', '7285', '7222', '7223', '7222', '7223']</t>
+  </si>
+  <si>
+    <t>['7984', '7984', '8746']</t>
+  </si>
+  <si>
+    <t>['9514', '9507', '9502', '9506', '9507', '9509', '9507', '10017']</t>
+  </si>
+  <si>
+    <t>['11029', '11029', '11029', '11029', '11028', '11791', '11789', '11793']</t>
+  </si>
+  <si>
+    <t>['12614', '12552', '12552', '13312', '13375', '13313', '13314']</t>
+  </si>
+  <si>
+    <t>['14074', '14074', '14071', '14076', '14835', '14835', '14835']</t>
+  </si>
+  <si>
+    <t>['15594', '15596', '15596', '16357', '16357', '16359', '16356', '15598']</t>
+  </si>
+  <si>
+    <t>['17119', '17181', '17119', '17880', '17881', '17881']</t>
+  </si>
+  <si>
+    <t>['18641', '18638', '18641', '18641', '18643', '19399', '19402']</t>
+  </si>
+  <si>
+    <t>['20161', '20163', '20163', '20226', '20163', '20925', '19802']</t>
+  </si>
+  <si>
+    <t>['21685', '21686', '22447', '22446']</t>
+  </si>
+  <si>
+    <t>['23210', '22596']</t>
+  </si>
+  <si>
+    <t>['11230', '9911', '12546', '8801']</t>
+  </si>
+  <si>
+    <t>['14745', '7274', '12546']</t>
+  </si>
+  <si>
+    <t>['8593', '15625', '16503', '5516', '8153', '9911', '15185', '18702', '18494']</t>
+  </si>
+  <si>
+    <t>['4198', '12108', '2000', '4637', '9032', '9913', '12548', '15185', '20458']</t>
+  </si>
+  <si>
+    <t>['6835', '17382', '10790']</t>
+  </si>
+  <si>
+    <t>['1560', '4198', '8597', '12109', '14745', '19141', '20019', '1099']</t>
+  </si>
+  <si>
+    <t>['1561', '6835', '9472', '17382', '20021', '4637', '12546', '15182']</t>
+  </si>
+  <si>
+    <t>['2440', '3319', '11229', '7274', '16943', '18701', '20458']</t>
+  </si>
+  <si>
+    <t>['1561', '8590', '13864', '16502', '5516', '10790', '17822']</t>
+  </si>
+  <si>
+    <t>['3318', '13866', '20019', '2000', '8153', '9912', '16065', '21361']</t>
+  </si>
+  <si>
+    <t>['5956', '7714', '12108', '2000', '17825', '20458']</t>
+  </si>
+  <si>
+    <t>['4198', '6837', '9472', '13866', '19141', '16065', '17822']</t>
+  </si>
+  <si>
+    <t>['5957', '9472', '12108', '15625', '16503', '8153', '3528']</t>
+  </si>
+  <si>
+    <t>['8590', '14745', '10790', '13429']</t>
+  </si>
+  <si>
+    <t>['11229', '14104']</t>
+  </si>
+  <si>
+    <t>[295, 299, 313, 293]</t>
+  </si>
+  <si>
+    <t>[315, 324, 319]</t>
+  </si>
+  <si>
+    <t>[325, 337, 329, 329, 332, 328, 335, 344, 333]</t>
+  </si>
+  <si>
+    <t>[335, 338, 340, 337, 351, 344, 344, 346, 354]</t>
+  </si>
+  <si>
+    <t>[350, 353, 354]</t>
+  </si>
+  <si>
+    <t>[348, 353, 360, 360, 360, 366, 366, 359]</t>
+  </si>
+  <si>
+    <t>[364, 366, 368, 374, 376, 368, 376, 374]</t>
+  </si>
+  <si>
+    <t>[387, 374, 379, 381, 396, 386, 387]</t>
+  </si>
+  <si>
+    <t>[380, 387, 393, 388, 389, 394, 395]</t>
+  </si>
+  <si>
+    <t>[389, 397, 397, 389, 400, 398, 404, 395]</t>
+  </si>
+  <si>
+    <t>[402, 403, 406, 395, 409, 407]</t>
+  </si>
+  <si>
+    <t>[401, 413, 414, 416, 412, 422, 422]</t>
+  </si>
+  <si>
+    <t>[416, 423, 425, 421, 421, 425, 408]</t>
+  </si>
+  <si>
+    <t>[429, 431, 437, 435]</t>
+  </si>
+  <si>
+    <t>[442, 439]</t>
+  </si>
+  <si>
+    <t>[354, 356, 357, 358]</t>
+  </si>
+  <si>
+    <t>[359, 359, 362]</t>
+  </si>
+  <si>
+    <t>[360, 357, 365, 358, 357, 357, 361, 364, 364]</t>
+  </si>
+  <si>
+    <t>[358, 361, 360, 359, 361, 357, 364, 361, 366]</t>
+  </si>
+  <si>
+    <t>[361, 366, 360]</t>
+  </si>
+  <si>
+    <t>[363, 360, 357, 362, 362, 365, 365, 358]</t>
+  </si>
+  <si>
+    <t>[364, 362, 358, 367, 365, 361, 364, 367]</t>
+  </si>
+  <si>
+    <t>[365, 365, 363, 366, 363, 368, 369]</t>
+  </si>
+  <si>
+    <t>[364, 368, 368, 367, 364, 364, 361]</t>
+  </si>
+  <si>
+    <t>[367, 367, 368, 368, 366, 366, 367, 368]</t>
+  </si>
+  <si>
+    <t>[367, 364, 368, 370, 372, 371]</t>
+  </si>
+  <si>
+    <t>[368, 366, 367, 369, 371, 368, 369]</t>
+  </si>
+  <si>
+    <t>[369, 367, 372, 359, 371, 372, 369]</t>
+  </si>
+  <si>
+    <t>[371, 370, 369, 370]</t>
+  </si>
+  <si>
+    <t>[372, 369]</t>
+  </si>
+  <si>
+    <t>[341, 350, 348, 246]</t>
+  </si>
+  <si>
+    <t>[357, 362, 359]</t>
+  </si>
+  <si>
+    <t>[369, 370, 371, 366, 372, 369, 372, 376, 269]</t>
+  </si>
+  <si>
+    <t>[367, 373, 369, 371, 374, 375, 374, 378, 385]</t>
+  </si>
+  <si>
+    <t>[376, 383, 379]</t>
+  </si>
+  <si>
+    <t>[367, 375, 382, 382, 383, 388, 387, 370]</t>
+  </si>
+  <si>
+    <t>[375, 379, 380, 387, 390, 380, 386, 385]</t>
+  </si>
+  <si>
+    <t>[378, 376, 386, 385, 389, 391, 394]</t>
+  </si>
+  <si>
+    <t>[379, 388, 392, 392, 386, 390, 392]</t>
+  </si>
+  <si>
+    <t>[382, 394, 392, 382, 390, 389, 394, 390]</t>
+  </si>
+  <si>
+    <t>[390, 391, 393, 381, 393, 391]</t>
+  </si>
+  <si>
+    <t>[392, 394, 397, 396, 392, 403, 398]</t>
+  </si>
+  <si>
+    <t>[391, 397, 401, 397, 403, 400, 496]</t>
+  </si>
+  <si>
+    <t>[403, 406, 408, 410]</t>
+  </si>
+  <si>
+    <t>[410, 521]</t>
+  </si>
+  <si>
+    <t>[353, 353, 358, 281]</t>
+  </si>
+  <si>
+    <t>[354, 357, 356]</t>
+  </si>
+  <si>
+    <t>[354, 359, 359, 354, 354, 353, 355, 357, 415]</t>
+  </si>
+  <si>
+    <t>[353, 357, 354, 354, 354, 352, 357, 356, 360]</t>
+  </si>
+  <si>
+    <t>[359, 363, 352]</t>
+  </si>
+  <si>
+    <t>[357, 353, 352, 356, 355, 358, 358, 253]</t>
+  </si>
+  <si>
+    <t>[358, 356, 355, 361, 357, 355, 361, 360]</t>
+  </si>
+  <si>
+    <t>[360, 359, 355, 357, 360, 361, 362]</t>
+  </si>
+  <si>
+    <t>[362, 362, 361, 361, 358, 358, 363]</t>
+  </si>
+  <si>
+    <t>[363, 361, 362, 362, 361, 359, 359, 489]</t>
+  </si>
+  <si>
+    <t>[359, 362, 362, 366, 364, 364]</t>
+  </si>
+  <si>
+    <t>[365, 361, 360, 364, 365, 361, 366]</t>
+  </si>
+  <si>
+    <t>[366, 361, 363, 362, 364, 365, 298]</t>
+  </si>
+  <si>
+    <t>[365, 361, 362, 364]</t>
+  </si>
+  <si>
+    <t>[367, 426]</t>
+  </si>
+  <si>
+    <t>[1817, 2582, 2595, 2177]</t>
+  </si>
+  <si>
+    <t>[3359, 4129, 4126]</t>
+  </si>
+  <si>
+    <t>[4892, 4966, 4896, 5657, 5660, 5655, 5662, 5668, 5004]</t>
+  </si>
+  <si>
+    <t>[6424, 6427, 7190, 7187, 7263, 7193, 7194, 7195, 7204]</t>
+  </si>
+  <si>
+    <t>[7961, 7964, 8727]</t>
+  </si>
+  <si>
+    <t>[9489, 9487, 9489, 9493, 9494, 9502, 9500, 10003]</t>
+  </si>
+  <si>
+    <t>[11020, 11022, 11024, 11030, 11031, 11786, 11792, 11794]</t>
+  </si>
+  <si>
+    <t>[12628, 12553, 12558, 13320, 13398, 13326, 13328]</t>
+  </si>
+  <si>
+    <t>[14081, 14088, 14091, 14091, 14851, 14856, 14857]</t>
+  </si>
+  <si>
+    <t>[15610, 15620, 15620, 16373, 16384, 16384, 16387, 15620]</t>
+  </si>
+  <si>
+    <t>[17148, 17211, 17152, 17902, 17917, 17915]</t>
+  </si>
+  <si>
+    <t>[18669, 18678, 18682, 18684, 18682, 19448, 19451]</t>
+  </si>
+  <si>
+    <t>[20204, 20213, 20215, 20274, 20211, 20977, 19837]</t>
+  </si>
+  <si>
+    <t>[21741, 21744, 22511, 22508]</t>
+  </si>
+  <si>
+    <t>[23279, 22662]</t>
+  </si>
+  <si>
+    <t>[11211, 9894, 12530, 8786]</t>
+  </si>
+  <si>
+    <t>[14731, 7260, 12535]</t>
+  </si>
+  <si>
+    <t>[8580, 15609, 16495, 5501, 8137, 9895, 15173, 18693, 18485]</t>
+  </si>
+  <si>
+    <t>[4183, 12096, 1987, 4623, 9020, 9897, 12539, 15173, 20451]</t>
+  </si>
+  <si>
+    <t>[6823, 17375, 10777]</t>
+  </si>
+  <si>
+    <t>[1550, 4185, 8581, 12098, 14734, 19133, 20011, 1084]</t>
+  </si>
+  <si>
+    <t>[1552, 6824, 9457, 17376, 20013, 4625, 12537, 15176]</t>
+  </si>
+  <si>
+    <t>[2432, 3311, 11219, 7267, 16933, 18696, 20454]</t>
+  </si>
+  <si>
+    <t>[1552, 8585, 13859, 16496, 5507, 10781, 17810]</t>
+  </si>
+  <si>
+    <t>[3312, 13860, 20014, 1995, 8146, 9905, 16059, 21356]</t>
+  </si>
+  <si>
+    <t>[5950, 7705, 12103, 1997, 17824, 20456]</t>
+  </si>
+  <si>
+    <t>[4193, 6830, 9466, 13862, 19139, 16060, 17818]</t>
+  </si>
+  <si>
+    <t>[5953, 9466, 12107, 15611, 16501, 8152, 3524]</t>
+  </si>
+  <si>
+    <t>[8588, 14742, 10786, 13426]</t>
+  </si>
+  <si>
+    <t>[11228, 14100]</t>
+  </si>
+  <si>
+    <t>[1863, 2633, 2630, 2130]</t>
+  </si>
+  <si>
+    <t>[3401, 4167, 4166]</t>
+  </si>
+  <si>
+    <t>[4936, 4999, 4938, 5694, 5700, 5696, 5699, 5700, 4940]</t>
+  </si>
+  <si>
+    <t>[6456, 6462, 7219, 7221, 7286, 7224, 7224, 7227, 7235]</t>
+  </si>
+  <si>
+    <t>[7987, 7994, 8752]</t>
+  </si>
+  <si>
+    <t>[9508, 9509, 9511, 9515, 9517, 9524, 9521, 10014]</t>
+  </si>
+  <si>
+    <t>[11031, 11035, 11036, 11043, 11045, 11798, 11802, 11805]</t>
+  </si>
+  <si>
+    <t>[12619, 12555, 12565, 13324, 13391, 13331, 13335]</t>
+  </si>
+  <si>
+    <t>[14080, 14089, 14090, 14095, 14848, 14852, 14854]</t>
+  </si>
+  <si>
+    <t>[15603, 15617, 15615, 16366, 16374, 16375, 16377, 15615]</t>
+  </si>
+  <si>
+    <t>[17136, 17199, 17139, 17888, 17901, 17899]</t>
+  </si>
+  <si>
+    <t>[18660, 18659, 18665, 18664, 18662, 19429, 19427]</t>
+  </si>
+  <si>
+    <t>[20179, 20187, 20191, 20250, 20193, 20952, 19925]</t>
+  </si>
+  <si>
+    <t>[21715, 21719, 22482, 22483]</t>
+  </si>
+  <si>
+    <t>[23247, 22744]</t>
+  </si>
+  <si>
+    <t>[11210, 9891, 12531, 8709]</t>
+  </si>
+  <si>
+    <t>[14726, 7258, 12529]</t>
+  </si>
+  <si>
+    <t>[8574, 15611, 16489, 5497, 8134, 9891, 15167, 18686, 18536]</t>
+  </si>
+  <si>
+    <t>[4178, 12092, 1981, 4618, 9013, 9892, 12532, 15168, 20445]</t>
+  </si>
+  <si>
+    <t>[6821, 17372, 10769]</t>
+  </si>
+  <si>
+    <t>[1544, 4178, 8576, 12092, 14727, 19126, 20004, 979]</t>
+  </si>
+  <si>
+    <t>[1546, 6818, 9454, 17370, 20005, 4619, 12534, 15169]</t>
+  </si>
+  <si>
+    <t>[2427, 3305, 11211, 7258, 16930, 18689, 20447]</t>
+  </si>
+  <si>
+    <t>[1550, 8579, 13852, 16490, 5501, 10775, 17812]</t>
+  </si>
+  <si>
+    <t>[3308, 13854, 20008, 1989, 8141, 9898, 16051, 21477]</t>
+  </si>
+  <si>
+    <t>[5942, 7703, 12097, 1993, 17816, 20449]</t>
+  </si>
+  <si>
+    <t>[4190, 6825, 9459, 13857, 19133, 16053, 17815]</t>
+  </si>
+  <si>
+    <t>[5950, 9460, 12098, 15614, 16494, 8145, 3453]</t>
+  </si>
+  <si>
+    <t>[8582, 14733, 10779, 13420]</t>
+  </si>
+  <si>
+    <t>[11223, 14157]</t>
+  </si>
+  <si>
+    <t>[-86.0, -80.0, -80.0, -83.0]</t>
+  </si>
+  <si>
+    <t>[-74.0, -68.0, -68.0]</t>
+  </si>
+  <si>
+    <t>[-62.0, -61.0, -62.0, -56.0, -56.0, -56.0, -56.0, -56.0, -61.0]</t>
+  </si>
+  <si>
+    <t>[-50.0, -50.0, -44.0, -44.0, -43.0, -44.0, -44.0, -44.0, -44.0]</t>
+  </si>
+  <si>
+    <t>[-38.0, -38.0, -31.0]</t>
+  </si>
+  <si>
+    <t>[-25.0, -25.0, -25.0, -25.0, -25.0, -25.0, -25.0, -21.0]</t>
+  </si>
+  <si>
+    <t>[-13.0, -13.0, -13.0, -13.0, -13.0, -7.0, -7.0, -7.0]</t>
+  </si>
+  <si>
+    <t>[0.0, -1.0, -1.0, 5.0, 6.0, 5.0, 5.0]</t>
+  </si>
+  <si>
+    <t>[11.0, 11.0, 11.0, 11.0, 17.0, 17.0, 17.0]</t>
+  </si>
+  <si>
+    <t>[23.0, 23.0, 23.0, 29.0, 29.0, 29.0, 29.0, 23.0]</t>
+  </si>
+  <si>
+    <t>[35.0, 36.0, 35.0, 41.0, 41.0, 41.0]</t>
+  </si>
+  <si>
+    <t>[47.0, 48.0, 48.0, 48.0, 48.0, 54.0, 54.0]</t>
+  </si>
+  <si>
+    <t>[60.0, 60.0, 60.0, 60.0, 60.0, 66.0, 57.0]</t>
+  </si>
+  <si>
+    <t>[72.0, 72.0, 78.0, 78.0]</t>
+  </si>
+  <si>
+    <t>[84.0, 79.0]</t>
+  </si>
+  <si>
+    <t>[69.0, 59.0, 80.0, 50.0]</t>
+  </si>
+  <si>
+    <t>[97.0, 38.0, 80.0]</t>
+  </si>
+  <si>
+    <t>[48.0, 104.0, 111.0, 24.0, 45.0, 59.0, 101.0, 129.0, 127.0]</t>
+  </si>
+  <si>
+    <t>[13.0, 76.0, -4.0, 17.0, 52.0, 59.0, 80.0, 101.0, 143.0]</t>
+  </si>
+  <si>
+    <t>[34.0, 118.0, 66.0]</t>
+  </si>
+  <si>
+    <t>[-8.0, 13.0, 48.0, 76.0, 97.0, 132.0, 139.0, -11.0]</t>
+  </si>
+  <si>
+    <t>[-7.0, 34.0, 55.0, 118.0, 139.0, 17.0, 80.0, 101.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 6.0, 69.0, 38.0, 115.0, 129.0, 143.0]</t>
+  </si>
+  <si>
+    <t>[-7.0, 48.0, 90.0, 111.0, 24.0, 66.0, 122.0]</t>
+  </si>
+  <si>
+    <t>[6.0, 90.0, 139.0, -4.0, 45.0, 59.0, 108.0, 150.0]</t>
+  </si>
+  <si>
+    <t>[27.0, 41.0, 76.0, -4.0, 122.0, 143.0]</t>
+  </si>
+  <si>
+    <t>[13.0, 34.0, 55.0, 90.0, 132.0, 108.0, 122.0]</t>
+  </si>
+  <si>
+    <t>[27.0, 55.0, 76.0, 104.0, 111.0, 45.0, 8.0]</t>
+  </si>
+  <si>
+    <t>[48.0, 97.0, 66.0, 87.0]</t>
+  </si>
+  <si>
+    <t>[69.0, 92.0]</t>
+  </si>
+  <si>
+    <t>[-86.0, -80.0, -80.0, -84.0]</t>
+  </si>
+  <si>
+    <t>[-62.0, -61.0, -62.0, -56.0, -55.0, -56.0, -55.0, -55.0, -62.0]</t>
+  </si>
+  <si>
+    <t>[-49.0, -49.0, -43.0, -43.0, -43.0, -43.0, -43.0, -43.0, -43.0]</t>
+  </si>
+  <si>
+    <t>[-37.0, -37.0, -31.0]</t>
+  </si>
+  <si>
+    <t>[-1.0, -1.0, -1.0, 5.0, 6.0, 5.0, 5.0]</t>
+  </si>
+  <si>
+    <t>[47.0, 47.0, 47.0, 47.0, 47.0, 53.0, 53.0]</t>
+  </si>
+  <si>
+    <t>[59.0, 59.0, 60.0, 60.0, 60.0, 66.0, 57.0]</t>
+  </si>
+  <si>
+    <t>[84.0, 80.0]</t>
+  </si>
+  <si>
+    <t>[69.0, 59.0, 80.0, 49.0]</t>
+  </si>
+  <si>
+    <t>[13.0, 76.0, -4.0, 17.0, 52.0, 59.0, 80.0, 101.0, 142.0]</t>
+  </si>
+  <si>
+    <t>[-8.0, 13.0, 48.0, 76.0, 97.0, 132.0, 139.0, -12.0]</t>
+  </si>
+  <si>
+    <t>[-8.0, 34.0, 55.0, 118.0, 139.0, 17.0, 80.0, 101.0]</t>
+  </si>
+  <si>
+    <t>[-1.0, 6.0, 69.0, 38.0, 115.0, 129.0, 142.0]</t>
+  </si>
+  <si>
+    <t>[-8.0, 48.0, 90.0, 111.0, 24.0, 66.0, 122.0]</t>
+  </si>
+  <si>
+    <t>[6.0, 90.0, 139.0, -4.0, 45.0, 59.0, 108.0, 151.0]</t>
+  </si>
+  <si>
+    <t>[69.0, 93.0]</t>
+  </si>
+  <si>
+    <t>[46.010868281309364, 51.088159097779204, 35.014282800023196, 90.21086409075129]</t>
+  </si>
+  <si>
+    <t>[42.2965719651132, 38.05259518088089, 40.44749683231337]</t>
+  </si>
+  <si>
+    <t>[44.40720662234904, 33.06055050963308, 42.42640687119285, 37.21558813185679, 40.11234224026316, 41.19465984809196, 37.48332962798263, 32.7566787083184, 81.83520025025906]</t>
+  </si>
+  <si>
+    <t>[32.38826948140329, 35.22782990761707, 29.614185789921695, 34.36568055487916, 24.041630560342615, 31.400636936215164, 30.805843601498726, 32.38826948140329, 31.575306807693888]</t>
+  </si>
+  <si>
+    <t>[26.076809620810597, 30.14962686336267, 26.248809496813376]</t>
+  </si>
+  <si>
+    <t>[19.924858845171276, 23.08679276123039, 22.561028345356956, 22.80350850198276, 24.041630560342615, 23.08679276123039, 22.135943621178654, 105.57461816175325]</t>
+  </si>
+  <si>
+    <t>[12.529964086141668, 14.317821063276353, 12.36931687685298, 14.317821063276353, 16.1245154965971, 13.416407864998739, 10.44030650891055, 13.038404810405298]</t>
+  </si>
+  <si>
+    <t>[10.295630140987, 6.324555320336759, 10.63014581273465, 9.848857801796104, 7.615773105863909, 8.602325267042627, 9.899494936611665]</t>
+  </si>
+  <si>
+    <t>[2.23606797749979, 6.082762530298219, 7.0710678118654755, 7.211102550927978, 6.708203932499369, 7.211102550927978, 3.605551275463989]</t>
+  </si>
+  <si>
+    <t>[8.06225774829855, 6.708203932499369, 7.810249675906654, 9.219544457292887, 11.180339887498949, 11.40175425099138, 12.806248474865697, 121.10326172320876]</t>
+  </si>
+  <si>
+    <t>[14.422205101855956, 12.165525060596439, 14.317821063276353, 14.560219778561036, 17.88854381999832, 17.46424919657298]</t>
+  </si>
+  <si>
+    <t>[9.486832980505138, 19.6468827043885, 18.384776310850235, 20.615528128088304, 20.8806130178211, 20.248456731316587, 24.186773244895647]</t>
+  </si>
+  <si>
+    <t>[25.179356624028344, 26.68332812825267, 25.632011235952593, 24.186773244895647, 19.313207915827967, 25.96150997149434, 113.07077429645558]</t>
+  </si>
+  <si>
+    <t>[26.68332812825267, 26.570660511172846, 29.832867780352597, 25.709920264364882]</t>
+  </si>
+  <si>
+    <t>[32.38826948140329, 99.86490875177326]</t>
+  </si>
+  <si>
+    <t>[365.21126698289305, 405.5122628386224, 277.92586972518416, 716.0487337203383]</t>
+  </si>
+  <si>
+    <t>[335.72903997308606, 302.04247424824206, 321.0520061064874]</t>
+  </si>
+  <si>
+    <t>[352.4822025648955, 262.4181196702126, 336.7596045400933, 295.3987307966133, 318.3917165320888, 326.98261254422994, 297.5239289221121, 260.00613724727725, 649.5669019864313]</t>
+  </si>
+  <si>
+    <t>[257.08188900863865, 279.6208998917105, 235.06259970750347, 272.77758940435336, 190.8304425727195, 249.24255568120785, 244.52138358689615, 257.08188900863865, 250.62899778607024]</t>
+  </si>
+  <si>
+    <t>[206.9846763651841, 239.3126632279412, 208.34992538095617]</t>
+  </si>
+  <si>
+    <t>[158.15356708354702, 183.25141754226624, 179.07816249127086, 181.00284873448814, 190.8304425727195, 183.25141754226624, 175.70405249310556, 837.9985316589165]</t>
+  </si>
+  <si>
+    <t>[99.4565899337495, 113.64770468975604, 98.18145271002054, 113.64770468975604, 127.98834175423946, 106.49273742842747, 82.8699329144775, 103.49233818259205]</t>
+  </si>
+  <si>
+    <t>[81.72156424408432, 50.20115785517302, 84.37678238858129, 78.17530880175657, 60.45019902779478, 68.28095680715086, 78.57724105935509]</t>
+  </si>
+  <si>
+    <t>[17.748789571404583, 48.28192758424211, 56.12660075668221, 57.23812649799083, 53.24636871421374, 57.23812649799083, 28.619063248995413]</t>
+  </si>
+  <si>
+    <t>[63.99417087711973, 53.24636871421374, 61.993856802509065, 73.1801341297623, 88.7439478570229, 90.50142436724407, 101.64959726924648, 961.2571399279695]</t>
+  </si>
+  <si>
+    <t>[114.47625299598165, 96.56385516848422, 113.64770468975604, 115.57174449232822, 141.99031657123666, 138.622477997798]</t>
+  </si>
+  <si>
+    <t>[75.30173678275953, 155.94713146608373, 145.92916196737374, 163.6357545167009, 165.739865828955, 160.7221253048254, 191.9825126313592]</t>
+  </si>
+  <si>
+    <t>[199.86114320322497, 211.79891701800557, 203.4540891853737, 191.9825126313592, 153.29858783188448, 206.06948539873633, 897.4992709781161]</t>
+  </si>
+  <si>
+    <t>[211.79891701800557, 210.90461780743448, 236.79838800654875, 204.07249209839625]</t>
+  </si>
+  <si>
+    <t>[257.08188900863865, 792.6777132172002]</t>
   </si>
 </sst>
 </file>
@@ -1266,13 +1251,13 @@
         <v>212</v>
       </c>
       <c r="P2" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="Q2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="R2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1319,16 +1304,16 @@
         <v>198</v>
       </c>
       <c r="O3" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="P3" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="Q3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="R3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1375,16 +1360,16 @@
         <v>199</v>
       </c>
       <c r="O4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P4" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="Q4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="R4" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1431,16 +1416,16 @@
         <v>200</v>
       </c>
       <c r="O5" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="P5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Q5" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="R5" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1487,16 +1472,16 @@
         <v>201</v>
       </c>
       <c r="O6" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="P6" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="Q6" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="R6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1543,16 +1528,16 @@
         <v>202</v>
       </c>
       <c r="O7" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="P7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="R7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1599,16 +1584,16 @@
         <v>203</v>
       </c>
       <c r="O8" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="P8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Q8" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="R8" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1655,16 +1640,16 @@
         <v>204</v>
       </c>
       <c r="O9" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="P9" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="Q9" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="R9" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1714,13 +1699,13 @@
         <v>190</v>
       </c>
       <c r="P10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="Q10" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="R10" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1767,16 +1752,16 @@
         <v>206</v>
       </c>
       <c r="O11" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="P11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Q11" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="R11" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1823,16 +1808,16 @@
         <v>207</v>
       </c>
       <c r="O12" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="P12" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="Q12" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="R12" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1879,16 +1864,16 @@
         <v>208</v>
       </c>
       <c r="O13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P13" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="Q13" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="R13" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1935,16 +1920,16 @@
         <v>209</v>
       </c>
       <c r="O14" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="P14" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="Q14" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="R14" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1994,13 +1979,13 @@
         <v>195</v>
       </c>
       <c r="P15" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="Q15" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="R15" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2047,16 +2032,16 @@
         <v>211</v>
       </c>
       <c r="O16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P16" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="Q16" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="R16" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/outs/strips1.xlsx
+++ b/outs/strips1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="243">
   <si>
     <t>image</t>
   </si>
@@ -79,487 +79,454 @@
     <t>['S015_020_030_019', 'S016_999_999_099', 'S017_010_009_001', 'S018_031_999_999', 'S019_070_999_999', 'S020_999_999_069', 'S021_116_115_100', 'S022_045_144_130', 'S023_191_190_181']</t>
   </si>
   <si>
-    <t>['S024_043_055_042', 'S025_159_171_158', 'S026_086_999_085']</t>
-  </si>
-  <si>
-    <t>['S027_003_011_002', 'S028_022_032_021', 'S029_072_071_056', 'S030_102_117_101', 'S031_132_146_131', 'S032_999_999_172', 'S033_183_192_182', 'S088_999_999_999']</t>
-  </si>
-  <si>
-    <t>['S034_004_012_999', 'S035_045_999_044', 'S036_073_087_999', 'S037_161_173_160', 'S038_184_193_999', 'S039_034_033_023', 'S040_119_118_999', 'S041_148_147_133']</t>
-  </si>
-  <si>
-    <t>['S042_014_999_999', 'S043_024_999_013', 'S044_104_103_088', 'S045_059_058_046', 'S046_163_999_999', 'S047_999_999_174', 'S048_195_194_185']</t>
-  </si>
-  <si>
-    <t>['S049_006_015_005', 'S050_075_074_999', 'S051_999_134_120', 'S052_999_163_149', 'S053_036_047_035', 'S054_999_105_089', 'S055_176_175_164']</t>
-  </si>
-  <si>
-    <t>['S056_026_025_999', 'S057_136_135_121', 'S058_187_196_186', 'S059_017_016_007', 'S060_061_076_060', 'S061_091_090_076', 'S062_151_165_150', 'S091_999_999_999']</t>
-  </si>
-  <si>
-    <t>['S063_049_048_037', 'S064_062_999_999', 'S065_107_122_106', 'S066_018_999_008', 'S067_178_177_166', 'S068_198_197_188']</t>
-  </si>
-  <si>
-    <t>['S069_028_038_027', 'S070_999_063_999', 'S071_078_092_077', 'S072_138_137_123', 'S073_189_999_999', 'S074_153_999_152', 'S075_179_999_167']</t>
-  </si>
-  <si>
-    <t>['S076_051_050_039', 'S077_999_093_999', 'S078_109_124_108', 'S079_154_999_999', 'S080_168_999_999', 'S081_065_079_064', 'S089_999_999_999']</t>
-  </si>
-  <si>
-    <t>['S082_080_999_999', 'S083_140_155_139', 'S084_999_999_094', 'S085_126_999_125']</t>
-  </si>
-  <si>
-    <t>['S086_111_110_095', 'S090_999_999_999']</t>
-  </si>
-  <si>
-    <t>['1895', '2656', '2655', '2257']</t>
-  </si>
-  <si>
-    <t>['3417', '4178', '4180']</t>
-  </si>
-  <si>
-    <t>['4940', '5002', '4940', '5701', '5701', '5700', '5700', '5697', '5044']</t>
-  </si>
-  <si>
-    <t>['6462', '6462', '7223', '7223', '7285', '7222', '7223', '7222', '7223']</t>
-  </si>
-  <si>
-    <t>['7984', '7984', '8746']</t>
-  </si>
-  <si>
-    <t>['9514', '9507', '9502', '9506', '9507', '9509', '9507', '10017']</t>
-  </si>
-  <si>
-    <t>['11029', '11029', '11029', '11029', '11028', '11791', '11789', '11793']</t>
-  </si>
-  <si>
-    <t>['12614', '12552', '12552', '13312', '13375', '13313', '13314']</t>
-  </si>
-  <si>
-    <t>['14074', '14074', '14071', '14076', '14835', '14835', '14835']</t>
-  </si>
-  <si>
-    <t>['15594', '15596', '15596', '16357', '16357', '16359', '16356', '15598']</t>
-  </si>
-  <si>
-    <t>['17119', '17181', '17119', '17880', '17881', '17881']</t>
-  </si>
-  <si>
-    <t>['18641', '18638', '18641', '18641', '18643', '19399', '19402']</t>
-  </si>
-  <si>
-    <t>['20161', '20163', '20163', '20226', '20163', '20925', '19802']</t>
-  </si>
-  <si>
-    <t>['21685', '21686', '22447', '22446']</t>
-  </si>
-  <si>
-    <t>['23210', '22596']</t>
-  </si>
-  <si>
-    <t>['11230', '9911', '12546', '8801']</t>
-  </si>
-  <si>
-    <t>['14745', '7274', '12546']</t>
-  </si>
-  <si>
-    <t>['8593', '15625', '16503', '5516', '8153', '9911', '15185', '18702', '18494']</t>
-  </si>
-  <si>
-    <t>['4198', '12108', '2000', '4637', '9032', '9913', '12548', '15185', '20458']</t>
-  </si>
-  <si>
-    <t>['6835', '17382', '10790']</t>
-  </si>
-  <si>
-    <t>['1560', '4198', '8597', '12109', '14745', '19141', '20019', '1099']</t>
-  </si>
-  <si>
-    <t>['1561', '6835', '9472', '17382', '20021', '4637', '12546', '15182']</t>
-  </si>
-  <si>
-    <t>['2440', '3319', '11229', '7274', '16943', '18701', '20458']</t>
-  </si>
-  <si>
-    <t>['1561', '8590', '13864', '16502', '5516', '10790', '17822']</t>
-  </si>
-  <si>
-    <t>['3318', '13866', '20019', '2000', '8153', '9912', '16065', '21361']</t>
-  </si>
-  <si>
-    <t>['5956', '7714', '12108', '2000', '17825', '20458']</t>
-  </si>
-  <si>
-    <t>['4198', '6837', '9472', '13866', '19141', '16065', '17822']</t>
-  </si>
-  <si>
-    <t>['5957', '9472', '12108', '15625', '16503', '8153', '3528']</t>
-  </si>
-  <si>
-    <t>['8590', '14745', '10790', '13429']</t>
-  </si>
-  <si>
-    <t>['11229', '14104']</t>
-  </si>
-  <si>
-    <t>[295, 299, 313, 293]</t>
-  </si>
-  <si>
-    <t>[315, 324, 319]</t>
-  </si>
-  <si>
-    <t>[325, 337, 329, 329, 332, 328, 335, 344, 333]</t>
-  </si>
-  <si>
-    <t>[335, 338, 340, 337, 351, 344, 344, 346, 354]</t>
-  </si>
-  <si>
-    <t>[350, 353, 354]</t>
-  </si>
-  <si>
-    <t>[348, 353, 360, 360, 360, 366, 366, 359]</t>
-  </si>
-  <si>
-    <t>[364, 366, 368, 374, 376, 368, 376, 374]</t>
-  </si>
-  <si>
-    <t>[387, 374, 379, 381, 396, 386, 387]</t>
-  </si>
-  <si>
-    <t>[380, 387, 393, 388, 389, 394, 395]</t>
-  </si>
-  <si>
-    <t>[389, 397, 397, 389, 400, 398, 404, 395]</t>
-  </si>
-  <si>
-    <t>[402, 403, 406, 395, 409, 407]</t>
-  </si>
-  <si>
-    <t>[401, 413, 414, 416, 412, 422, 422]</t>
-  </si>
-  <si>
-    <t>[416, 423, 425, 421, 421, 425, 408]</t>
-  </si>
-  <si>
-    <t>[429, 431, 437, 435]</t>
-  </si>
-  <si>
-    <t>[442, 439]</t>
-  </si>
-  <si>
-    <t>[354, 356, 357, 358]</t>
-  </si>
-  <si>
-    <t>[359, 359, 362]</t>
-  </si>
-  <si>
-    <t>[360, 357, 365, 358, 357, 357, 361, 364, 364]</t>
-  </si>
-  <si>
-    <t>[358, 361, 360, 359, 361, 357, 364, 361, 366]</t>
-  </si>
-  <si>
-    <t>[361, 366, 360]</t>
-  </si>
-  <si>
-    <t>[363, 360, 357, 362, 362, 365, 365, 358]</t>
-  </si>
-  <si>
-    <t>[364, 362, 358, 367, 365, 361, 364, 367]</t>
-  </si>
-  <si>
-    <t>[365, 365, 363, 366, 363, 368, 369]</t>
-  </si>
-  <si>
-    <t>[364, 368, 368, 367, 364, 364, 361]</t>
-  </si>
-  <si>
-    <t>[367, 367, 368, 368, 366, 366, 367, 368]</t>
-  </si>
-  <si>
-    <t>[367, 364, 368, 370, 372, 371]</t>
-  </si>
-  <si>
-    <t>[368, 366, 367, 369, 371, 368, 369]</t>
-  </si>
-  <si>
-    <t>[369, 367, 372, 359, 371, 372, 369]</t>
-  </si>
-  <si>
-    <t>[371, 370, 369, 370]</t>
-  </si>
-  <si>
-    <t>[372, 369]</t>
-  </si>
-  <si>
-    <t>[341, 350, 348, 246]</t>
-  </si>
-  <si>
-    <t>[357, 362, 359]</t>
-  </si>
-  <si>
-    <t>[369, 370, 371, 366, 372, 369, 372, 376, 269]</t>
-  </si>
-  <si>
-    <t>[367, 373, 369, 371, 374, 375, 374, 378, 385]</t>
-  </si>
-  <si>
-    <t>[376, 383, 379]</t>
-  </si>
-  <si>
-    <t>[367, 375, 382, 382, 383, 388, 387, 370]</t>
-  </si>
-  <si>
-    <t>[375, 379, 380, 387, 390, 380, 386, 385]</t>
-  </si>
-  <si>
-    <t>[378, 376, 386, 385, 389, 391, 394]</t>
-  </si>
-  <si>
-    <t>[379, 388, 392, 392, 386, 390, 392]</t>
-  </si>
-  <si>
-    <t>[382, 394, 392, 382, 390, 389, 394, 390]</t>
-  </si>
-  <si>
-    <t>[390, 391, 393, 381, 393, 391]</t>
-  </si>
-  <si>
-    <t>[392, 394, 397, 396, 392, 403, 398]</t>
-  </si>
-  <si>
-    <t>[391, 397, 401, 397, 403, 400, 496]</t>
-  </si>
-  <si>
-    <t>[403, 406, 408, 410]</t>
-  </si>
-  <si>
-    <t>[410, 521]</t>
-  </si>
-  <si>
-    <t>[353, 353, 358, 281]</t>
-  </si>
-  <si>
-    <t>[354, 357, 356]</t>
-  </si>
-  <si>
-    <t>[354, 359, 359, 354, 354, 353, 355, 357, 415]</t>
-  </si>
-  <si>
-    <t>[353, 357, 354, 354, 354, 352, 357, 356, 360]</t>
-  </si>
-  <si>
-    <t>[359, 363, 352]</t>
-  </si>
-  <si>
-    <t>[357, 353, 352, 356, 355, 358, 358, 253]</t>
-  </si>
-  <si>
-    <t>[358, 356, 355, 361, 357, 355, 361, 360]</t>
-  </si>
-  <si>
-    <t>[360, 359, 355, 357, 360, 361, 362]</t>
-  </si>
-  <si>
-    <t>[362, 362, 361, 361, 358, 358, 363]</t>
-  </si>
-  <si>
-    <t>[363, 361, 362, 362, 361, 359, 359, 489]</t>
-  </si>
-  <si>
-    <t>[359, 362, 362, 366, 364, 364]</t>
-  </si>
-  <si>
-    <t>[365, 361, 360, 364, 365, 361, 366]</t>
-  </si>
-  <si>
-    <t>[366, 361, 363, 362, 364, 365, 298]</t>
-  </si>
-  <si>
-    <t>[365, 361, 362, 364]</t>
-  </si>
-  <si>
-    <t>[367, 426]</t>
-  </si>
-  <si>
-    <t>[1817, 2582, 2595, 2177]</t>
-  </si>
-  <si>
-    <t>[3359, 4129, 4126]</t>
-  </si>
-  <si>
-    <t>[4892, 4966, 4896, 5657, 5660, 5655, 5662, 5668, 5004]</t>
-  </si>
-  <si>
-    <t>[6424, 6427, 7190, 7187, 7263, 7193, 7194, 7195, 7204]</t>
-  </si>
-  <si>
-    <t>[7961, 7964, 8727]</t>
-  </si>
-  <si>
-    <t>[9489, 9487, 9489, 9493, 9494, 9502, 9500, 10003]</t>
-  </si>
-  <si>
-    <t>[11020, 11022, 11024, 11030, 11031, 11786, 11792, 11794]</t>
-  </si>
-  <si>
-    <t>[12628, 12553, 12558, 13320, 13398, 13326, 13328]</t>
-  </si>
-  <si>
-    <t>[14081, 14088, 14091, 14091, 14851, 14856, 14857]</t>
-  </si>
-  <si>
-    <t>[15610, 15620, 15620, 16373, 16384, 16384, 16387, 15620]</t>
-  </si>
-  <si>
-    <t>[17148, 17211, 17152, 17902, 17917, 17915]</t>
-  </si>
-  <si>
-    <t>[18669, 18678, 18682, 18684, 18682, 19448, 19451]</t>
-  </si>
-  <si>
-    <t>[20204, 20213, 20215, 20274, 20211, 20977, 19837]</t>
-  </si>
-  <si>
-    <t>[21741, 21744, 22511, 22508]</t>
-  </si>
-  <si>
-    <t>[23279, 22662]</t>
-  </si>
-  <si>
-    <t>[11211, 9894, 12530, 8786]</t>
-  </si>
-  <si>
-    <t>[14731, 7260, 12535]</t>
-  </si>
-  <si>
-    <t>[8580, 15609, 16495, 5501, 8137, 9895, 15173, 18693, 18485]</t>
-  </si>
-  <si>
-    <t>[4183, 12096, 1987, 4623, 9020, 9897, 12539, 15173, 20451]</t>
-  </si>
-  <si>
-    <t>[6823, 17375, 10777]</t>
-  </si>
-  <si>
-    <t>[1550, 4185, 8581, 12098, 14734, 19133, 20011, 1084]</t>
-  </si>
-  <si>
-    <t>[1552, 6824, 9457, 17376, 20013, 4625, 12537, 15176]</t>
-  </si>
-  <si>
-    <t>[2432, 3311, 11219, 7267, 16933, 18696, 20454]</t>
-  </si>
-  <si>
-    <t>[1552, 8585, 13859, 16496, 5507, 10781, 17810]</t>
-  </si>
-  <si>
-    <t>[3312, 13860, 20014, 1995, 8146, 9905, 16059, 21356]</t>
-  </si>
-  <si>
-    <t>[5950, 7705, 12103, 1997, 17824, 20456]</t>
-  </si>
-  <si>
-    <t>[4193, 6830, 9466, 13862, 19139, 16060, 17818]</t>
-  </si>
-  <si>
-    <t>[5953, 9466, 12107, 15611, 16501, 8152, 3524]</t>
-  </si>
-  <si>
-    <t>[8588, 14742, 10786, 13426]</t>
-  </si>
-  <si>
-    <t>[11228, 14100]</t>
-  </si>
-  <si>
-    <t>[1863, 2633, 2630, 2130]</t>
-  </si>
-  <si>
-    <t>[3401, 4167, 4166]</t>
-  </si>
-  <si>
-    <t>[4936, 4999, 4938, 5694, 5700, 5696, 5699, 5700, 4940]</t>
-  </si>
-  <si>
-    <t>[6456, 6462, 7219, 7221, 7286, 7224, 7224, 7227, 7235]</t>
-  </si>
-  <si>
-    <t>[7987, 7994, 8752]</t>
-  </si>
-  <si>
-    <t>[9508, 9509, 9511, 9515, 9517, 9524, 9521, 10014]</t>
-  </si>
-  <si>
-    <t>[11031, 11035, 11036, 11043, 11045, 11798, 11802, 11805]</t>
-  </si>
-  <si>
-    <t>[12619, 12555, 12565, 13324, 13391, 13331, 13335]</t>
-  </si>
-  <si>
-    <t>[14080, 14089, 14090, 14095, 14848, 14852, 14854]</t>
-  </si>
-  <si>
-    <t>[15603, 15617, 15615, 16366, 16374, 16375, 16377, 15615]</t>
-  </si>
-  <si>
-    <t>[17136, 17199, 17139, 17888, 17901, 17899]</t>
-  </si>
-  <si>
-    <t>[18660, 18659, 18665, 18664, 18662, 19429, 19427]</t>
-  </si>
-  <si>
-    <t>[20179, 20187, 20191, 20250, 20193, 20952, 19925]</t>
-  </si>
-  <si>
-    <t>[21715, 21719, 22482, 22483]</t>
-  </si>
-  <si>
-    <t>[23247, 22744]</t>
-  </si>
-  <si>
-    <t>[11210, 9891, 12531, 8709]</t>
-  </si>
-  <si>
-    <t>[14726, 7258, 12529]</t>
-  </si>
-  <si>
-    <t>[8574, 15611, 16489, 5497, 8134, 9891, 15167, 18686, 18536]</t>
-  </si>
-  <si>
-    <t>[4178, 12092, 1981, 4618, 9013, 9892, 12532, 15168, 20445]</t>
-  </si>
-  <si>
-    <t>[6821, 17372, 10769]</t>
-  </si>
-  <si>
-    <t>[1544, 4178, 8576, 12092, 14727, 19126, 20004, 979]</t>
-  </si>
-  <si>
-    <t>[1546, 6818, 9454, 17370, 20005, 4619, 12534, 15169]</t>
-  </si>
-  <si>
-    <t>[2427, 3305, 11211, 7258, 16930, 18689, 20447]</t>
-  </si>
-  <si>
-    <t>[1550, 8579, 13852, 16490, 5501, 10775, 17812]</t>
-  </si>
-  <si>
-    <t>[3308, 13854, 20008, 1989, 8141, 9898, 16051, 21477]</t>
-  </si>
-  <si>
-    <t>[5942, 7703, 12097, 1993, 17816, 20449]</t>
-  </si>
-  <si>
-    <t>[4190, 6825, 9459, 13857, 19133, 16053, 17815]</t>
-  </si>
-  <si>
-    <t>[5950, 9460, 12098, 15614, 16494, 8145, 3453]</t>
-  </si>
-  <si>
-    <t>[8582, 14733, 10779, 13420]</t>
-  </si>
-  <si>
-    <t>[11223, 14157]</t>
+    <t>['S024_043_055_042', 'S025_159_171_158', 'S026_086_999_085', 'S027_003_011_002', 'S028_022_032_021', 'S029_072_071_056', 'S030_102_117_101', 'S031_132_146_131', 'S032_999_999_172', 'S033_183_192_182']</t>
+  </si>
+  <si>
+    <t>['S034_004_012_999', 'S035_045_999_044', 'S036_073_087_999', 'S037_161_173_160', 'S038_184_193_999', 'S088_999_999_999']</t>
+  </si>
+  <si>
+    <t>['S039_034_033_023', 'S040_119_118_999', 'S041_148_147_133', 'S042_014_999_999', 'S043_024_999_013', 'S044_104_103_088']</t>
+  </si>
+  <si>
+    <t>['S045_059_058_046', 'S046_163_999_999', 'S047_999_999_174', 'S048_195_194_185', 'S049_006_015_005', 'S050_075_074_999', 'S051_999_134_120', 'S052_999_163_149']</t>
+  </si>
+  <si>
+    <t>['S053_036_047_035', 'S054_999_105_089', 'S055_176_175_164', 'S056_026_025_999', 'S057_136_135_121', 'S058_187_196_186', 'S091_999_999_999']</t>
+  </si>
+  <si>
+    <t>['S059_017_016_007', 'S060_061_076_060', 'S061_091_090_076', 'S062_151_165_150', 'S063_049_048_037', 'S064_062_999_999', 'S065_107_122_106']</t>
+  </si>
+  <si>
+    <t>['S066_018_999_008', 'S067_178_177_166', 'S068_198_197_188', 'S069_028_038_027', 'S070_999_063_999', 'S071_078_092_077', 'S072_138_137_123', 'S073_189_999_999']</t>
+  </si>
+  <si>
+    <t>['S074_153_999_152', 'S075_179_999_167', 'S076_051_050_039', 'S077_999_093_999', 'S078_109_124_108', 'S079_154_999_999', 'S080_168_999_999', 'S089_999_999_999']</t>
+  </si>
+  <si>
+    <t>['S081_065_079_064', 'S082_080_999_999', 'S083_140_155_139']</t>
+  </si>
+  <si>
+    <t>['S084_999_999_094', 'S085_126_999_125', 'S086_111_110_095', 'S090_999_999_999']</t>
+  </si>
+  <si>
+    <t>['722', '1007', '1007', '857']</t>
+  </si>
+  <si>
+    <t>['1292', '1578', '1579']</t>
+  </si>
+  <si>
+    <t>['1863', '1887', '1863', '2149', '2149', '2149', '2149', '2147', '1903']</t>
+  </si>
+  <si>
+    <t>['2434', '2434', '2720', '2720', '2743', '2719', '2720', '2719', '2720']</t>
+  </si>
+  <si>
+    <t>['3005', '3005', '3291', '3579', '3576', '3574', '3576', '3576', '3577', '3576']</t>
+  </si>
+  <si>
+    <t>['4147', '4147', '4147', '4147', '4147', '3767']</t>
+  </si>
+  <si>
+    <t>['4433', '4432', '4433', '4741', '4718', '4718']</t>
+  </si>
+  <si>
+    <t>['5003', '5027', '5003', '5004', '5289', '5289', '5288', '5290']</t>
+  </si>
+  <si>
+    <t>['5574', '5574', '5574', '5859', '5860', '5860', '5860']</t>
+  </si>
+  <si>
+    <t>['6145', '6145', '6146', '6145', '6431', '6454', '6431']</t>
+  </si>
+  <si>
+    <t>['6716', '6716', '6716', '7001', '7000', '7001', '7001', '7002']</t>
+  </si>
+  <si>
+    <t>['7286', '7287', '7571', '7572', '7572', '7596', '7572', '7437']</t>
+  </si>
+  <si>
+    <t>['7858', '8143', '8143']</t>
+  </si>
+  <si>
+    <t>['8429', '8428', '8715', '8485']</t>
+  </si>
+  <si>
+    <t>['4222', '3727', '4715', '3311']</t>
+  </si>
+  <si>
+    <t>['5540', '2738', '4715']</t>
+  </si>
+  <si>
+    <t>['3233', '5870', '6199', '2079', '3068', '3727', '5705', '7024', '6946']</t>
+  </si>
+  <si>
+    <t>['1585', '4551', '761', '1749', '3398', '3728', '4716', '5705', '7682']</t>
+  </si>
+  <si>
+    <t>['2573', '6529', '4057', '595', '1585', '3234', '4551', '5540', '7188', '7518']</t>
+  </si>
+  <si>
+    <t>['596', '2573', '3562', '6529', '7518', '423']</t>
+  </si>
+  <si>
+    <t>['1749', '4715', '5704', '926', '1255', '4221']</t>
+  </si>
+  <si>
+    <t>['2738', '6364', '7023', '7682', '596', '3232', '5209', '6199']</t>
+  </si>
+  <si>
+    <t>['2079', '4057', '6694', '1255', '5210', '7518', '8021']</t>
+  </si>
+  <si>
+    <t>['761', '3068', '3727', '6035', '2244', '2903', '4551']</t>
+  </si>
+  <si>
+    <t>['761', '6695', '7682', '1585', '2574', '3562', '5210', '7188']</t>
+  </si>
+  <si>
+    <t>['6035', '6694', '2244', '3562', '4551', '5870', '6199', '1333']</t>
+  </si>
+  <si>
+    <t>['3068', '3232', '5540']</t>
+  </si>
+  <si>
+    <t>['4057', '5046', '4221', '5299']</t>
+  </si>
+  <si>
+    <t>[124, 127, 131, 127]</t>
+  </si>
+  <si>
+    <t>[135, 132, 133]</t>
+  </si>
+  <si>
+    <t>[137, 138, 137, 138, 138, 137, 138, 145, 136]</t>
+  </si>
+  <si>
+    <t>[140, 140, 142, 141, 142, 142, 142, 143, 146]</t>
+  </si>
+  <si>
+    <t>[143, 151, 145, 145, 147, 149, 148, 148, 150, 149]</t>
+  </si>
+  <si>
+    <t>[150, 149, 153, 153, 150, 149]</t>
+  </si>
+  <si>
+    <t>[151, 154, 152, 152, 152, 154]</t>
+  </si>
+  <si>
+    <t>[155, 161, 159, 161, 155, 155, 160, 159]</t>
+  </si>
+  <si>
+    <t>[158, 160, 163, 158, 158, 161, 162]</t>
+  </si>
+  <si>
+    <t>[158, 162, 160, 166, 158, 162, 165]</t>
+  </si>
+  <si>
+    <t>[161, 164, 164, 164, 167, 166, 169, 166]</t>
+  </si>
+  <si>
+    <t>[164, 167, 167, 170, 171, 170, 169, 163]</t>
+  </si>
+  <si>
+    <t>[169, 170, 171]</t>
+  </si>
+  <si>
+    <t>[173, 174, 175, 174]</t>
+  </si>
+  <si>
+    <t>[146, 145, 142, 143]</t>
+  </si>
+  <si>
+    <t>[142, 145, 145]</t>
+  </si>
+  <si>
+    <t>[145, 146, 147, 146, 143, 142, 146, 145, 147]</t>
+  </si>
+  <si>
+    <t>[144, 146, 143, 145, 145, 143, 145, 144, 149]</t>
+  </si>
+  <si>
+    <t>[144, 141, 143, 145, 143, 143, 145, 145, 148, 146]</t>
+  </si>
+  <si>
+    <t>[143, 146, 145, 146, 145, 138]</t>
+  </si>
+  <si>
+    <t>[144, 142, 147, 139, 143, 145]</t>
+  </si>
+  <si>
+    <t>[144, 144, 147, 144, 141, 145, 146, 146]</t>
+  </si>
+  <si>
+    <t>[144, 144, 145, 144, 144, 146, 146]</t>
+  </si>
+  <si>
+    <t>[143, 143, 144, 143, 140, 144, 145]</t>
+  </si>
+  <si>
+    <t>[143, 145, 146, 144, 143, 144, 146, 146]</t>
+  </si>
+  <si>
+    <t>[140, 146, 145, 145, 143, 144, 146, 145]</t>
+  </si>
+  <si>
+    <t>[146, 143, 145]</t>
+  </si>
+  <si>
+    <t>[145, 144, 146, 144]</t>
+  </si>
+  <si>
+    <t>[140, 143, 143, 96]</t>
+  </si>
+  <si>
+    <t>[146, 146, 147]</t>
+  </si>
+  <si>
+    <t>[149, 150, 150, 149, 147, 149, 150, 152, 104]</t>
+  </si>
+  <si>
+    <t>[148, 148, 150, 150, 150, 151, 149, 152, 152]</t>
+  </si>
+  <si>
+    <t>[150, 152, 153, 149, 151, 154, 153, 153, 155, 153]</t>
+  </si>
+  <si>
+    <t>[152, 151, 152, 156, 155, 148]</t>
+  </si>
+  <si>
+    <t>[153, 153, 154, 154, 154, 155]</t>
+  </si>
+  <si>
+    <t>[155, 156, 158, 157, 152, 154, 157, 156]</t>
+  </si>
+  <si>
+    <t>[154, 156, 158, 154, 157, 156, 157]</t>
+  </si>
+  <si>
+    <t>[154, 157, 155, 158, 155, 154, 158]</t>
+  </si>
+  <si>
+    <t>[154, 159, 158, 155, 159, 157, 159, 157]</t>
+  </si>
+  <si>
+    <t>[160, 161, 156, 158, 159, 158, 158, 194]</t>
+  </si>
+  <si>
+    <t>[158, 159, 159]</t>
+  </si>
+  <si>
+    <t>[158, 159, 158, 201]</t>
+  </si>
+  <si>
+    <t>[142, 142, 143, 120]</t>
+  </si>
+  <si>
+    <t>[142, 142, 142]</t>
+  </si>
+  <si>
+    <t>[141, 142, 142, 136, 141, 141, 142, 143, 168]</t>
+  </si>
+  <si>
+    <t>[139, 142, 140, 141, 140, 141, 142, 141, 144]</t>
+  </si>
+  <si>
+    <t>[141, 143, 141, 140, 139, 139, 142, 141, 145, 143]</t>
+  </si>
+  <si>
+    <t>[141, 141, 141, 141, 143, 93]</t>
+  </si>
+  <si>
+    <t>[141, 142, 143, 138, 136, 140]</t>
+  </si>
+  <si>
+    <t>[140, 142, 143, 143, 140, 141, 143, 140]</t>
+  </si>
+  <si>
+    <t>[141, 140, 140, 140, 142, 143, 191]</t>
+  </si>
+  <si>
+    <t>[141, 141, 140, 142, 142, 143, 140]</t>
+  </si>
+  <si>
+    <t>[141, 142, 142, 139, 140, 141, 141, 142]</t>
+  </si>
+  <si>
+    <t>[141, 142, 142, 142, 141, 141, 142, 116]</t>
+  </si>
+  <si>
+    <t>[140, 141, 143]</t>
+  </si>
+  <si>
+    <t>[141, 139, 143, 163]</t>
+  </si>
+  <si>
+    <t>[706, 994, 998, 844]</t>
+  </si>
+  <si>
+    <t>[1287, 1570, 1572]</t>
+  </si>
+  <si>
+    <t>[1860, 1885, 1860, 2147, 2147, 2146, 2147, 2152, 1899]</t>
+  </si>
+  <si>
+    <t>[2434, 2434, 2722, 2721, 2745, 2721, 2722, 2722, 2726]</t>
+  </si>
+  <si>
+    <t>[3008, 3016, 3296, 3584, 3583, 3583, 3584, 3584, 3587, 3585]</t>
+  </si>
+  <si>
+    <t>[4157, 4156, 4160, 4160, 4157, 3776]</t>
+  </si>
+  <si>
+    <t>[4444, 4446, 4445, 4753, 4730, 4732]</t>
+  </si>
+  <si>
+    <t>[5018, 5048, 5022, 5025, 5304, 5304, 5308, 5309]</t>
+  </si>
+  <si>
+    <t>[5592, 5594, 5597, 5877, 5878, 5881, 5882]</t>
+  </si>
+  <si>
+    <t>[6163, 6167, 6166, 6171, 6449, 6476, 6456]</t>
+  </si>
+  <si>
+    <t>[6737, 6740, 6740, 7025, 7027, 7027, 7030, 7028]</t>
+  </si>
+  <si>
+    <t>[7310, 7314, 7598, 7602, 7603, 7626, 7601, 7460]</t>
+  </si>
+  <si>
+    <t>[7887, 8173, 8174]</t>
+  </si>
+  <si>
+    <t>[8462, 8462, 8750, 8519]</t>
+  </si>
+  <si>
+    <t>[4228, 3732, 4717, 3314]</t>
+  </si>
+  <si>
+    <t>[5542, 2743, 4720]</t>
+  </si>
+  <si>
+    <t>[3238, 5876, 6206, 2085, 3071, 3729, 5711, 7029, 6953]</t>
+  </si>
+  <si>
+    <t>[1589, 4557, 764, 1754, 3403, 3731, 4721, 5709, 7691]</t>
+  </si>
+  <si>
+    <t>[2577, 6530, 4060, 600, 1588, 3237, 4556, 5545, 7196, 7524]</t>
+  </si>
+  <si>
+    <t>[599, 2579, 3567, 6535, 7523, 421]</t>
+  </si>
+  <si>
+    <t>[1753, 4717, 5711, 925, 1258, 4226]</t>
+  </si>
+  <si>
+    <t>[2742, 6368, 7030, 7686, 597, 3237, 5215, 6205]</t>
+  </si>
+  <si>
+    <t>[2083, 4061, 6699, 1259, 5214, 7524, 8027]</t>
+  </si>
+  <si>
+    <t>[764, 3071, 3731, 6038, 2244, 2907, 4556]</t>
+  </si>
+  <si>
+    <t>[764, 6700, 7688, 1589, 2577, 3566, 5216, 7194]</t>
+  </si>
+  <si>
+    <t>[6035, 6700, 2249, 3567, 4554, 5874, 6205, 1338]</t>
+  </si>
+  <si>
+    <t>[3074, 3235, 5545]</t>
+  </si>
+  <si>
+    <t>[4062, 5050, 4227, 5303]</t>
+  </si>
+  <si>
+    <t>[722, 1010, 1010, 813]</t>
+  </si>
+  <si>
+    <t>[1298, 1584, 1586]</t>
+  </si>
+  <si>
+    <t>[1872, 1897, 1873, 2158, 2156, 2158, 2159, 2159, 1867]</t>
+  </si>
+  <si>
+    <t>[2442, 2442, 2730, 2730, 2753, 2730, 2729, 2731, 2732]</t>
+  </si>
+  <si>
+    <t>[3015, 3017, 3304, 3588, 3587, 3588, 3589, 3589, 3592, 3589]</t>
+  </si>
+  <si>
+    <t>[4159, 4158, 4159, 4163, 4162, 3775]</t>
+  </si>
+  <si>
+    <t>[4446, 4445, 4447, 4755, 4732, 4733]</t>
+  </si>
+  <si>
+    <t>[5018, 5043, 5021, 5021, 5301, 5303, 5305, 5306]</t>
+  </si>
+  <si>
+    <t>[5588, 5590, 5592, 5873, 5877, 5876, 5877]</t>
+  </si>
+  <si>
+    <t>[6159, 6162, 6161, 6163, 6446, 6468, 6449]</t>
+  </si>
+  <si>
+    <t>[6730, 6735, 6734, 7016, 7019, 7018, 7020, 7019]</t>
+  </si>
+  <si>
+    <t>[7306, 7308, 7587, 7590, 7591, 7614, 7590, 7491]</t>
+  </si>
+  <si>
+    <t>[7876, 8162, 8162]</t>
+  </si>
+  <si>
+    <t>[8447, 8447, 8733, 8546]</t>
+  </si>
+  <si>
+    <t>[4224, 3729, 4718, 3291]</t>
+  </si>
+  <si>
+    <t>[5542, 2740, 4717]</t>
+  </si>
+  <si>
+    <t>[3234, 5872, 6201, 2075, 3069, 3728, 5707, 7027, 6974]</t>
+  </si>
+  <si>
+    <t>[1584, 4553, 761, 1750, 3398, 3729, 4718, 5706, 7686]</t>
+  </si>
+  <si>
+    <t>[2574, 6532, 4058, 595, 1584, 3233, 4553, 5541, 7193, 7521]</t>
+  </si>
+  <si>
+    <t>[597, 2574, 3563, 6530, 7521, 376]</t>
+  </si>
+  <si>
+    <t>[1750, 4717, 5707, 924, 1251, 4221]</t>
+  </si>
+  <si>
+    <t>[2738, 6366, 7026, 7685, 596, 3233, 5212, 6199]</t>
+  </si>
+  <si>
+    <t>[2080, 4057, 6694, 1255, 5212, 7521, 8072]</t>
+  </si>
+  <si>
+    <t>[762, 3069, 3727, 6037, 2246, 2906, 4551]</t>
+  </si>
+  <si>
+    <t>[762, 6697, 7684, 1584, 2574, 3563, 5211, 7190]</t>
+  </si>
+  <si>
+    <t>[6036, 6696, 2246, 3564, 4552, 5871, 6201, 1309]</t>
+  </si>
+  <si>
+    <t>[3068, 3233, 5543]</t>
+  </si>
+  <si>
+    <t>[4058, 5045, 4224, 5322]</t>
   </si>
   <si>
     <t>[-86.0, -80.0, -80.0, -83.0]</t>
@@ -571,40 +538,37 @@
     <t>[-62.0, -61.0, -62.0, -56.0, -56.0, -56.0, -56.0, -56.0, -61.0]</t>
   </si>
   <si>
-    <t>[-50.0, -50.0, -44.0, -44.0, -43.0, -44.0, -44.0, -44.0, -44.0]</t>
-  </si>
-  <si>
-    <t>[-38.0, -38.0, -31.0]</t>
-  </si>
-  <si>
-    <t>[-25.0, -25.0, -25.0, -25.0, -25.0, -25.0, -25.0, -21.0]</t>
-  </si>
-  <si>
-    <t>[-13.0, -13.0, -13.0, -13.0, -13.0, -7.0, -7.0, -7.0]</t>
-  </si>
-  <si>
-    <t>[0.0, -1.0, -1.0, 5.0, 6.0, 5.0, 5.0]</t>
-  </si>
-  <si>
-    <t>[11.0, 11.0, 11.0, 11.0, 17.0, 17.0, 17.0]</t>
-  </si>
-  <si>
-    <t>[23.0, 23.0, 23.0, 29.0, 29.0, 29.0, 29.0, 23.0]</t>
-  </si>
-  <si>
-    <t>[35.0, 36.0, 35.0, 41.0, 41.0, 41.0]</t>
-  </si>
-  <si>
-    <t>[47.0, 48.0, 48.0, 48.0, 48.0, 54.0, 54.0]</t>
-  </si>
-  <si>
-    <t>[60.0, 60.0, 60.0, 60.0, 60.0, 66.0, 57.0]</t>
-  </si>
-  <si>
-    <t>[72.0, 72.0, 78.0, 78.0]</t>
-  </si>
-  <si>
-    <t>[84.0, 79.0]</t>
+    <t>[-50.0, -50.0, -43.0, -44.0, -43.0, -44.0, -43.0, -43.0, -43.0]</t>
+  </si>
+  <si>
+    <t>[-37.0, -37.0, -31.0, -25.0, -25.0, -25.0, -25.0, -25.0, -25.0, -25.0]</t>
+  </si>
+  <si>
+    <t>[-13.0, -13.0, -13.0, -13.0, -13.0, -21.0]</t>
+  </si>
+  <si>
+    <t>[-7.0, -7.0, -7.0, 0.0, -1.0, -1.0]</t>
+  </si>
+  <si>
+    <t>[5.0, 6.0, 5.0, 5.0, 11.0, 11.0, 11.0, 11.0]</t>
+  </si>
+  <si>
+    <t>[17.0, 17.0, 17.0, 23.0, 23.0, 23.0, 23.0]</t>
+  </si>
+  <si>
+    <t>[29.0, 29.0, 29.0, 30.0, 35.0, 36.0, 36.0]</t>
+  </si>
+  <si>
+    <t>[41.0, 42.0, 42.0, 48.0, 48.0, 48.0, 48.0, 48.0]</t>
+  </si>
+  <si>
+    <t>[54.0, 54.0, 60.0, 60.0, 60.0, 60.0, 60.0, 57.0]</t>
+  </si>
+  <si>
+    <t>[66.0, 72.0, 72.0]</t>
+  </si>
+  <si>
+    <t>[78.0, 78.0, 84.0, 79.0]</t>
   </si>
   <si>
     <t>[69.0, 59.0, 80.0, 50.0]</t>
@@ -616,178 +580,169 @@
     <t>[48.0, 104.0, 111.0, 24.0, 45.0, 59.0, 101.0, 129.0, 127.0]</t>
   </si>
   <si>
+    <t>[14.0, 76.0, -4.0, 17.0, 52.0, 59.0, 80.0, 101.0, 143.0]</t>
+  </si>
+  <si>
+    <t>[34.0, 118.0, 66.0, -7.0, 14.0, 48.0, 76.0, 97.0, 132.0, 139.0]</t>
+  </si>
+  <si>
+    <t>[-7.0, 35.0, 55.0, 118.0, 139.0, -11.0]</t>
+  </si>
+  <si>
+    <t>[17.0, 80.0, 101.0, 0.0, 7.0, 69.0]</t>
+  </si>
+  <si>
+    <t>[38.0, 115.0, 129.0, 143.0, -7.0, 48.0, 90.0, 111.0]</t>
+  </si>
+  <si>
+    <t>[24.0, 66.0, 122.0, 7.0, 90.0, 139.0, 150.0]</t>
+  </si>
+  <si>
+    <t>[-4.0, 45.0, 59.0, 108.0, 27.0, 41.0, 76.0]</t>
+  </si>
+  <si>
+    <t>[-4.0, 122.0, 143.0, 14.0, 34.0, 55.0, 90.0, 132.0]</t>
+  </si>
+  <si>
+    <t>[108.0, 122.0, 28.0, 55.0, 76.0, 104.0, 111.0, 8.0]</t>
+  </si>
+  <si>
+    <t>[45.0, 48.0, 97.0]</t>
+  </si>
+  <si>
+    <t>[66.0, 87.0, 69.0, 92.0]</t>
+  </si>
+  <si>
+    <t>[-86.0, -80.0, -80.0, -84.0]</t>
+  </si>
+  <si>
+    <t>[-61.0, -61.0, -61.0, -55.0, -55.0, -55.0, -55.0, -55.0, -62.0]</t>
+  </si>
+  <si>
+    <t>[-49.0, -49.0, -43.0, -43.0, -43.0, -43.0, -43.0, -43.0, -43.0]</t>
+  </si>
+  <si>
+    <t>[29.0, 29.0, 29.0, 29.0, 35.0, 36.0, 35.0]</t>
+  </si>
+  <si>
+    <t>[41.0, 41.0, 41.0, 47.0, 47.0, 47.0, 47.0, 47.0]</t>
+  </si>
+  <si>
+    <t>[54.0, 54.0, 59.0, 60.0, 60.0, 60.0, 60.0, 57.0]</t>
+  </si>
+  <si>
+    <t>[78.0, 78.0, 84.0, 80.0]</t>
+  </si>
+  <si>
+    <t>[48.0, 104.0, 111.0, 24.0, 45.0, 59.0, 101.0, 129.0, 128.0]</t>
+  </si>
+  <si>
     <t>[13.0, 76.0, -4.0, 17.0, 52.0, 59.0, 80.0, 101.0, 143.0]</t>
   </si>
   <si>
-    <t>[34.0, 118.0, 66.0]</t>
-  </si>
-  <si>
-    <t>[-8.0, 13.0, 48.0, 76.0, 97.0, 132.0, 139.0, -11.0]</t>
-  </si>
-  <si>
-    <t>[-7.0, 34.0, 55.0, 118.0, 139.0, 17.0, 80.0, 101.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 6.0, 69.0, 38.0, 115.0, 129.0, 143.0]</t>
-  </si>
-  <si>
-    <t>[-7.0, 48.0, 90.0, 111.0, 24.0, 66.0, 122.0]</t>
-  </si>
-  <si>
-    <t>[6.0, 90.0, 139.0, -4.0, 45.0, 59.0, 108.0, 150.0]</t>
-  </si>
-  <si>
-    <t>[27.0, 41.0, 76.0, -4.0, 122.0, 143.0]</t>
-  </si>
-  <si>
-    <t>[13.0, 34.0, 55.0, 90.0, 132.0, 108.0, 122.0]</t>
-  </si>
-  <si>
-    <t>[27.0, 55.0, 76.0, 104.0, 111.0, 45.0, 8.0]</t>
-  </si>
-  <si>
-    <t>[48.0, 97.0, 66.0, 87.0]</t>
-  </si>
-  <si>
-    <t>[69.0, 92.0]</t>
-  </si>
-  <si>
-    <t>[-86.0, -80.0, -80.0, -84.0]</t>
-  </si>
-  <si>
-    <t>[-62.0, -61.0, -62.0, -56.0, -55.0, -56.0, -55.0, -55.0, -62.0]</t>
-  </si>
-  <si>
-    <t>[-49.0, -49.0, -43.0, -43.0, -43.0, -43.0, -43.0, -43.0, -43.0]</t>
-  </si>
-  <si>
-    <t>[-37.0, -37.0, -31.0]</t>
-  </si>
-  <si>
-    <t>[-1.0, -1.0, -1.0, 5.0, 6.0, 5.0, 5.0]</t>
-  </si>
-  <si>
-    <t>[47.0, 47.0, 47.0, 47.0, 47.0, 53.0, 53.0]</t>
-  </si>
-  <si>
-    <t>[59.0, 59.0, 60.0, 60.0, 60.0, 66.0, 57.0]</t>
-  </si>
-  <si>
-    <t>[84.0, 80.0]</t>
-  </si>
-  <si>
-    <t>[69.0, 59.0, 80.0, 49.0]</t>
-  </si>
-  <si>
-    <t>[13.0, 76.0, -4.0, 17.0, 52.0, 59.0, 80.0, 101.0, 142.0]</t>
-  </si>
-  <si>
-    <t>[-8.0, 13.0, 48.0, 76.0, 97.0, 132.0, 139.0, -12.0]</t>
-  </si>
-  <si>
-    <t>[-8.0, 34.0, 55.0, 118.0, 139.0, 17.0, 80.0, 101.0]</t>
-  </si>
-  <si>
-    <t>[-1.0, 6.0, 69.0, 38.0, 115.0, 129.0, 142.0]</t>
-  </si>
-  <si>
-    <t>[-8.0, 48.0, 90.0, 111.0, 24.0, 66.0, 122.0]</t>
-  </si>
-  <si>
-    <t>[6.0, 90.0, 139.0, -4.0, 45.0, 59.0, 108.0, 151.0]</t>
-  </si>
-  <si>
-    <t>[69.0, 93.0]</t>
-  </si>
-  <si>
-    <t>[46.010868281309364, 51.088159097779204, 35.014282800023196, 90.21086409075129]</t>
-  </si>
-  <si>
-    <t>[42.2965719651132, 38.05259518088089, 40.44749683231337]</t>
-  </si>
-  <si>
-    <t>[44.40720662234904, 33.06055050963308, 42.42640687119285, 37.21558813185679, 40.11234224026316, 41.19465984809196, 37.48332962798263, 32.7566787083184, 81.83520025025906]</t>
-  </si>
-  <si>
-    <t>[32.38826948140329, 35.22782990761707, 29.614185789921695, 34.36568055487916, 24.041630560342615, 31.400636936215164, 30.805843601498726, 32.38826948140329, 31.575306807693888]</t>
-  </si>
-  <si>
-    <t>[26.076809620810597, 30.14962686336267, 26.248809496813376]</t>
-  </si>
-  <si>
-    <t>[19.924858845171276, 23.08679276123039, 22.561028345356956, 22.80350850198276, 24.041630560342615, 23.08679276123039, 22.135943621178654, 105.57461816175325]</t>
-  </si>
-  <si>
-    <t>[12.529964086141668, 14.317821063276353, 12.36931687685298, 14.317821063276353, 16.1245154965971, 13.416407864998739, 10.44030650891055, 13.038404810405298]</t>
-  </si>
-  <si>
-    <t>[10.295630140987, 6.324555320336759, 10.63014581273465, 9.848857801796104, 7.615773105863909, 8.602325267042627, 9.899494936611665]</t>
-  </si>
-  <si>
-    <t>[2.23606797749979, 6.082762530298219, 7.0710678118654755, 7.211102550927978, 6.708203932499369, 7.211102550927978, 3.605551275463989]</t>
-  </si>
-  <si>
-    <t>[8.06225774829855, 6.708203932499369, 7.810249675906654, 9.219544457292887, 11.180339887498949, 11.40175425099138, 12.806248474865697, 121.10326172320876]</t>
-  </si>
-  <si>
-    <t>[14.422205101855956, 12.165525060596439, 14.317821063276353, 14.560219778561036, 17.88854381999832, 17.46424919657298]</t>
-  </si>
-  <si>
-    <t>[9.486832980505138, 19.6468827043885, 18.384776310850235, 20.615528128088304, 20.8806130178211, 20.248456731316587, 24.186773244895647]</t>
-  </si>
-  <si>
-    <t>[25.179356624028344, 26.68332812825267, 25.632011235952593, 24.186773244895647, 19.313207915827967, 25.96150997149434, 113.07077429645558]</t>
-  </si>
-  <si>
-    <t>[26.68332812825267, 26.570660511172846, 29.832867780352597, 25.709920264364882]</t>
-  </si>
-  <si>
-    <t>[32.38826948140329, 99.86490875177326]</t>
-  </si>
-  <si>
-    <t>[365.21126698289305, 405.5122628386224, 277.92586972518416, 716.0487337203383]</t>
-  </si>
-  <si>
-    <t>[335.72903997308606, 302.04247424824206, 321.0520061064874]</t>
-  </si>
-  <si>
-    <t>[352.4822025648955, 262.4181196702126, 336.7596045400933, 295.3987307966133, 318.3917165320888, 326.98261254422994, 297.5239289221121, 260.00613724727725, 649.5669019864313]</t>
-  </si>
-  <si>
-    <t>[257.08188900863865, 279.6208998917105, 235.06259970750347, 272.77758940435336, 190.8304425727195, 249.24255568120785, 244.52138358689615, 257.08188900863865, 250.62899778607024]</t>
-  </si>
-  <si>
-    <t>[206.9846763651841, 239.3126632279412, 208.34992538095617]</t>
-  </si>
-  <si>
-    <t>[158.15356708354702, 183.25141754226624, 179.07816249127086, 181.00284873448814, 190.8304425727195, 183.25141754226624, 175.70405249310556, 837.9985316589165]</t>
-  </si>
-  <si>
-    <t>[99.4565899337495, 113.64770468975604, 98.18145271002054, 113.64770468975604, 127.98834175423946, 106.49273742842747, 82.8699329144775, 103.49233818259205]</t>
-  </si>
-  <si>
-    <t>[81.72156424408432, 50.20115785517302, 84.37678238858129, 78.17530880175657, 60.45019902779478, 68.28095680715086, 78.57724105935509]</t>
-  </si>
-  <si>
-    <t>[17.748789571404583, 48.28192758424211, 56.12660075668221, 57.23812649799083, 53.24636871421374, 57.23812649799083, 28.619063248995413]</t>
-  </si>
-  <si>
-    <t>[63.99417087711973, 53.24636871421374, 61.993856802509065, 73.1801341297623, 88.7439478570229, 90.50142436724407, 101.64959726924648, 961.2571399279695]</t>
-  </si>
-  <si>
-    <t>[114.47625299598165, 96.56385516848422, 113.64770468975604, 115.57174449232822, 141.99031657123666, 138.622477997798]</t>
-  </si>
-  <si>
-    <t>[75.30173678275953, 155.94713146608373, 145.92916196737374, 163.6357545167009, 165.739865828955, 160.7221253048254, 191.9825126313592]</t>
-  </si>
-  <si>
-    <t>[199.86114320322497, 211.79891701800557, 203.4540891853737, 191.9825126313592, 153.29858783188448, 206.06948539873633, 897.4992709781161]</t>
-  </si>
-  <si>
-    <t>[211.79891701800557, 210.90461780743448, 236.79838800654875, 204.07249209839625]</t>
-  </si>
-  <si>
-    <t>[257.08188900863865, 792.6777132172002]</t>
+    <t>[34.0, 118.0, 66.0, -7.0, 13.0, 48.0, 76.0, 97.0, 132.0, 139.0]</t>
+  </si>
+  <si>
+    <t>[-7.0, 34.0, 55.0, 118.0, 139.0, -12.0]</t>
+  </si>
+  <si>
+    <t>[17.0, 80.0, 101.0, -1.0, 6.0, 69.0]</t>
+  </si>
+  <si>
+    <t>[24.0, 66.0, 122.0, 6.0, 90.0, 139.0, 151.0]</t>
+  </si>
+  <si>
+    <t>[-4.0, 122.0, 143.0, 13.0, 34.0, 55.0, 90.0, 132.0]</t>
+  </si>
+  <si>
+    <t>[108.0, 122.0, 27.0, 55.0, 76.0, 104.0, 111.0, 8.0]</t>
+  </si>
+  <si>
+    <t>[66.0, 87.0, 69.0, 93.0]</t>
+  </si>
+  <si>
+    <t>[16.492422502470642, 16.278820596099706, 12.041594578792296, 38.600518131237564]</t>
+  </si>
+  <si>
+    <t>[11.0, 14.317821063276353, 14.317821063276353]</t>
+  </si>
+  <si>
+    <t>[12.649110640673518, 12.649110640673518, 13.92838827718412, 14.866068747318506, 9.219544457292887, 12.041594578792296, 12.649110640673518, 7.280109889280518, 38.27531841800928]</t>
+  </si>
+  <si>
+    <t>[9.433981132056603, 8.94427190999916, 8.54400374531753, 9.848857801796104, 9.433981132056603, 9.219544457292887, 7.615773105863909, 9.486832980505138, 7.810249675906654]</t>
+  </si>
+  <si>
+    <t>[7.615773105863909, 2.23606797749979, 8.246211251235321, 6.4031242374328485, 5.656854249492381, 6.4031242374328485, 5.830951894845301, 6.4031242374328485, 5.830951894845301, 5.0]</t>
+  </si>
+  <si>
+    <t>[2.8284271247461903, 5.385164807134504, 4.123105625617661, 5.830951894845301, 5.385164807134504, 45.0111097397076]</t>
+  </si>
+  <si>
+    <t>[3.605551275463989, 1.0, 4.47213595499958, 2.23606797749979, 7.280109889280518, 5.0990195135927845]</t>
+  </si>
+  <si>
+    <t>[4.0, 5.385164807134504, 4.123105625617661, 4.123105625617661, 3.1622776601683795, 4.123105625617661, 4.242640687119285, 6.708203932499369]</t>
+  </si>
+  <si>
+    <t>[5.0, 5.656854249492381, 7.0710678118654755, 5.656854249492381, 2.23606797749979, 5.830951894845301, 45.27692569068709]</t>
+  </si>
+  <si>
+    <t>[4.47213595499958, 5.385164807134504, 6.4031242374328485, 8.06225774829855, 3.605551275463989, 8.06225774829855, 8.602325267042627]</t>
+  </si>
+  <si>
+    <t>[7.280109889280518, 5.830951894845301, 7.211102550927978, 10.295630140987, 8.54400374531753, 9.486832980505138, 11.180339887498949, 9.848857801796104]</t>
+  </si>
+  <si>
+    <t>[4.123105625617661, 7.211102550927978, 11.40175425099138, 12.36931687685298, 12.165525060596439, 12.36931687685298, 11.704699910719626, 42.44997055358225]</t>
+  </si>
+  <si>
+    <t>[12.529964086141668, 11.180339887498949, 12.165525060596439]</t>
+  </si>
+  <si>
+    <t>[15.524174696260024, 15.811388300841896, 17.26267650163207, 33.015148038438355]</t>
+  </si>
+  <si>
+    <t>[349.08960963562856, 344.5683692841104, 254.88041858443694, 817.0443004445284]</t>
+  </si>
+  <si>
+    <t>[232.83333333333334, 303.06054583934946, 303.06054583934946]</t>
+  </si>
+  <si>
+    <t>[267.7395085609228, 267.7395085609228, 294.81755186706386, 314.6651218182417, 195.14702434603277, 254.88041858443694, 267.7395085609228, 154.0956593231043, 810.1609065145296]</t>
+  </si>
+  <si>
+    <t>[199.68593396186478, 189.3204220949822, 180.84807927588773, 208.46749013801752, 199.68593396186478, 195.14702434603277, 161.20053074078606, 200.8046314206921, 165.3169514733575]</t>
+  </si>
+  <si>
+    <t>[161.20053074078606, 47.33010552374555, 174.54480481781428, 135.5327963589953, 119.73674828092206, 135.5327963589953, 123.42181510755887, 135.5327963589953, 123.42181510755887, 105.83333333333333]</t>
+  </si>
+  <si>
+    <t>[59.86837414046103, 113.98598841768032, 87.27240240890714, 123.42181510755887, 113.98598841768032, 952.7351561571443]</t>
+  </si>
+  <si>
+    <t>[76.3175019973211, 21.166666666666668, 94.6602110474911, 47.33010552374555, 154.0956593231043, 107.92924637104727]</t>
+  </si>
+  <si>
+    <t>[84.66666666666667, 113.98598841768032, 87.27240240890714, 87.27240240890714, 66.9348771402307, 87.27240240890714, 89.80256121069152, 141.99031657123663]</t>
+  </si>
+  <si>
+    <t>[105.83333333333333, 119.73674828092206, 149.67093535115256, 119.73674828092206, 47.33010552374555, 123.42181510755887, 958.36159378621]</t>
+  </si>
+  <si>
+    <t>[94.6602110474911, 113.98598841768032, 135.5327963589953, 170.65112233898594, 76.3175019973211, 170.65112233898594, 182.0825514857356]</t>
+  </si>
+  <si>
+    <t>[154.0956593231043, 123.42181510755887, 152.6350039946422, 217.92417131755818, 180.84807927588773, 200.8046314206921, 236.65052761872775, 208.46749013801752]</t>
+  </si>
+  <si>
+    <t>[87.27240240890714, 152.6350039946422, 241.3371316459842, 261.8172072267214, 257.5036137826246, 261.8172072267214, 247.7494814435654, 898.524376717491]</t>
+  </si>
+  <si>
+    <t>[265.2175731566653, 236.65052761872775, 257.5036137826246]</t>
+  </si>
+  <si>
+    <t>[328.5950310708372, 334.6743857011535, 365.39331928454544, 698.8206334802785]</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1100,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1212,52 +1167,52 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="J2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="K2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="L2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="M2" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="N2" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="O2" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="P2" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="Q2" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="R2" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1268,52 +1223,52 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="J3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="K3" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="L3" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="M3" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="N3" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="O3" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="P3" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="Q3" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="R3" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1324,52 +1279,52 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="J4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="K4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="L4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="M4" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="N4" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="O4" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="P4" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="Q4" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="R4" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1380,52 +1335,52 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I5" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="J5" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="K5" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="L5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="M5" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="N5" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="O5" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P5" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="Q5" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="R5" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1436,52 +1391,52 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J6" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="K6" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="L6" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="M6" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="N6" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="O6" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="P6" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Q6" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="R6" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1492,52 +1447,52 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="J7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="K7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="M7" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="N7" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="O7" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="P7" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="Q7" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="R7" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1548,52 +1503,52 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="I8" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="J8" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="K8" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="L8" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="M8" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="N8" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="O8" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="P8" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="Q8" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="R8" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1604,52 +1559,52 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I9" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="J9" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="K9" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="L9" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="M9" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="N9" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="O9" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="P9" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="Q9" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="R9" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1660,52 +1615,52 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I10" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="J10" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="K10" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L10" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="M10" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="N10" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="O10" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="P10" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="Q10" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="R10" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1716,52 +1671,52 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I11" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="J11" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="K11" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="L11" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="M11" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="N11" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="O11" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="P11" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="Q11" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="R11" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1772,52 +1727,52 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="J12" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="K12" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="M12" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="N12" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="O12" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="P12" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q12" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="R12" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1828,52 +1783,52 @@
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H13" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="J13" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="K13" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="L13" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="M13" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="N13" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="O13" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="P13" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q13" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="R13" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1884,52 +1839,52 @@
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G14" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H14" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I14" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="J14" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="L14" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="N14" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="O14" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="P14" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="Q14" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="R14" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1940,108 +1895,52 @@
         <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H15" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="J15" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="K15" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="L15" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="N15" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="O15" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="P15" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q15" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="R15" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" t="s">
-        <v>106</v>
-      </c>
-      <c r="H16" t="s">
-        <v>121</v>
-      </c>
-      <c r="I16" t="s">
-        <v>136</v>
-      </c>
-      <c r="J16" t="s">
-        <v>151</v>
-      </c>
-      <c r="K16" t="s">
-        <v>166</v>
-      </c>
-      <c r="L16" t="s">
-        <v>181</v>
-      </c>
-      <c r="M16" t="s">
-        <v>196</v>
-      </c>
-      <c r="N16" t="s">
-        <v>211</v>
-      </c>
-      <c r="O16" t="s">
-        <v>219</v>
-      </c>
-      <c r="P16" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q16" t="s">
         <v>242</v>
-      </c>
-      <c r="R16" t="s">
-        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/outs/strips1.xlsx
+++ b/outs/strips1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="257">
   <si>
     <t>image</t>
   </si>
@@ -79,454 +79,487 @@
     <t>['S015_020_030_019', 'S016_999_999_099', 'S017_010_009_001', 'S018_031_999_999', 'S019_070_999_999', 'S020_999_999_069', 'S021_116_115_100', 'S022_045_144_130', 'S023_191_190_181']</t>
   </si>
   <si>
-    <t>['S024_043_055_042', 'S025_159_171_158', 'S026_086_999_085', 'S027_003_011_002', 'S028_022_032_021', 'S029_072_071_056', 'S030_102_117_101', 'S031_132_146_131', 'S032_999_999_172', 'S033_183_192_182']</t>
-  </si>
-  <si>
-    <t>['S034_004_012_999', 'S035_045_999_044', 'S036_073_087_999', 'S037_161_173_160', 'S038_184_193_999', 'S088_999_999_999']</t>
-  </si>
-  <si>
-    <t>['S039_034_033_023', 'S040_119_118_999', 'S041_148_147_133', 'S042_014_999_999', 'S043_024_999_013', 'S044_104_103_088']</t>
-  </si>
-  <si>
-    <t>['S045_059_058_046', 'S046_163_999_999', 'S047_999_999_174', 'S048_195_194_185', 'S049_006_015_005', 'S050_075_074_999', 'S051_999_134_120', 'S052_999_163_149']</t>
-  </si>
-  <si>
-    <t>['S053_036_047_035', 'S054_999_105_089', 'S055_176_175_164', 'S056_026_025_999', 'S057_136_135_121', 'S058_187_196_186', 'S091_999_999_999']</t>
-  </si>
-  <si>
-    <t>['S059_017_016_007', 'S060_061_076_060', 'S061_091_090_076', 'S062_151_165_150', 'S063_049_048_037', 'S064_062_999_999', 'S065_107_122_106']</t>
-  </si>
-  <si>
-    <t>['S066_018_999_008', 'S067_178_177_166', 'S068_198_197_188', 'S069_028_038_027', 'S070_999_063_999', 'S071_078_092_077', 'S072_138_137_123', 'S073_189_999_999']</t>
-  </si>
-  <si>
-    <t>['S074_153_999_152', 'S075_179_999_167', 'S076_051_050_039', 'S077_999_093_999', 'S078_109_124_108', 'S079_154_999_999', 'S080_168_999_999', 'S089_999_999_999']</t>
-  </si>
-  <si>
-    <t>['S081_065_079_064', 'S082_080_999_999', 'S083_140_155_139']</t>
-  </si>
-  <si>
-    <t>['S084_999_999_094', 'S085_126_999_125', 'S086_111_110_095', 'S090_999_999_999']</t>
-  </si>
-  <si>
-    <t>['722', '1007', '1007', '857']</t>
-  </si>
-  <si>
-    <t>['1292', '1578', '1579']</t>
-  </si>
-  <si>
-    <t>['1863', '1887', '1863', '2149', '2149', '2149', '2149', '2147', '1903']</t>
-  </si>
-  <si>
-    <t>['2434', '2434', '2720', '2720', '2743', '2719', '2720', '2719', '2720']</t>
-  </si>
-  <si>
-    <t>['3005', '3005', '3291', '3579', '3576', '3574', '3576', '3576', '3577', '3576']</t>
-  </si>
-  <si>
-    <t>['4147', '4147', '4147', '4147', '4147', '3767']</t>
-  </si>
-  <si>
-    <t>['4433', '4432', '4433', '4741', '4718', '4718']</t>
-  </si>
-  <si>
-    <t>['5003', '5027', '5003', '5004', '5289', '5289', '5288', '5290']</t>
-  </si>
-  <si>
-    <t>['5574', '5574', '5574', '5859', '5860', '5860', '5860']</t>
-  </si>
-  <si>
-    <t>['6145', '6145', '6146', '6145', '6431', '6454', '6431']</t>
-  </si>
-  <si>
-    <t>['6716', '6716', '6716', '7001', '7000', '7001', '7001', '7002']</t>
-  </si>
-  <si>
-    <t>['7286', '7287', '7571', '7572', '7572', '7596', '7572', '7437']</t>
-  </si>
-  <si>
-    <t>['7858', '8143', '8143']</t>
-  </si>
-  <si>
-    <t>['8429', '8428', '8715', '8485']</t>
-  </si>
-  <si>
-    <t>['4222', '3727', '4715', '3311']</t>
-  </si>
-  <si>
-    <t>['5540', '2738', '4715']</t>
-  </si>
-  <si>
-    <t>['3233', '5870', '6199', '2079', '3068', '3727', '5705', '7024', '6946']</t>
-  </si>
-  <si>
-    <t>['1585', '4551', '761', '1749', '3398', '3728', '4716', '5705', '7682']</t>
-  </si>
-  <si>
-    <t>['2573', '6529', '4057', '595', '1585', '3234', '4551', '5540', '7188', '7518']</t>
-  </si>
-  <si>
-    <t>['596', '2573', '3562', '6529', '7518', '423']</t>
-  </si>
-  <si>
-    <t>['1749', '4715', '5704', '926', '1255', '4221']</t>
-  </si>
-  <si>
-    <t>['2738', '6364', '7023', '7682', '596', '3232', '5209', '6199']</t>
-  </si>
-  <si>
-    <t>['2079', '4057', '6694', '1255', '5210', '7518', '8021']</t>
-  </si>
-  <si>
-    <t>['761', '3068', '3727', '6035', '2244', '2903', '4551']</t>
-  </si>
-  <si>
-    <t>['761', '6695', '7682', '1585', '2574', '3562', '5210', '7188']</t>
-  </si>
-  <si>
-    <t>['6035', '6694', '2244', '3562', '4551', '5870', '6199', '1333']</t>
-  </si>
-  <si>
-    <t>['3068', '3232', '5540']</t>
-  </si>
-  <si>
-    <t>['4057', '5046', '4221', '5299']</t>
-  </si>
-  <si>
-    <t>[124, 127, 131, 127]</t>
-  </si>
-  <si>
-    <t>[135, 132, 133]</t>
-  </si>
-  <si>
-    <t>[137, 138, 137, 138, 138, 137, 138, 145, 136]</t>
-  </si>
-  <si>
-    <t>[140, 140, 142, 141, 142, 142, 142, 143, 146]</t>
-  </si>
-  <si>
-    <t>[143, 151, 145, 145, 147, 149, 148, 148, 150, 149]</t>
-  </si>
-  <si>
-    <t>[150, 149, 153, 153, 150, 149]</t>
-  </si>
-  <si>
-    <t>[151, 154, 152, 152, 152, 154]</t>
-  </si>
-  <si>
-    <t>[155, 161, 159, 161, 155, 155, 160, 159]</t>
-  </si>
-  <si>
-    <t>[158, 160, 163, 158, 158, 161, 162]</t>
-  </si>
-  <si>
-    <t>[158, 162, 160, 166, 158, 162, 165]</t>
-  </si>
-  <si>
-    <t>[161, 164, 164, 164, 167, 166, 169, 166]</t>
-  </si>
-  <si>
-    <t>[164, 167, 167, 170, 171, 170, 169, 163]</t>
-  </si>
-  <si>
-    <t>[169, 170, 171]</t>
-  </si>
-  <si>
-    <t>[173, 174, 175, 174]</t>
-  </si>
-  <si>
-    <t>[146, 145, 142, 143]</t>
-  </si>
-  <si>
-    <t>[142, 145, 145]</t>
-  </si>
-  <si>
-    <t>[145, 146, 147, 146, 143, 142, 146, 145, 147]</t>
-  </si>
-  <si>
-    <t>[144, 146, 143, 145, 145, 143, 145, 144, 149]</t>
-  </si>
-  <si>
-    <t>[144, 141, 143, 145, 143, 143, 145, 145, 148, 146]</t>
-  </si>
-  <si>
-    <t>[143, 146, 145, 146, 145, 138]</t>
-  </si>
-  <si>
-    <t>[144, 142, 147, 139, 143, 145]</t>
-  </si>
-  <si>
-    <t>[144, 144, 147, 144, 141, 145, 146, 146]</t>
-  </si>
-  <si>
-    <t>[144, 144, 145, 144, 144, 146, 146]</t>
-  </si>
-  <si>
-    <t>[143, 143, 144, 143, 140, 144, 145]</t>
-  </si>
-  <si>
-    <t>[143, 145, 146, 144, 143, 144, 146, 146]</t>
-  </si>
-  <si>
-    <t>[140, 146, 145, 145, 143, 144, 146, 145]</t>
-  </si>
-  <si>
-    <t>[146, 143, 145]</t>
-  </si>
-  <si>
-    <t>[145, 144, 146, 144]</t>
-  </si>
-  <si>
-    <t>[140, 143, 143, 96]</t>
-  </si>
-  <si>
-    <t>[146, 146, 147]</t>
-  </si>
-  <si>
-    <t>[149, 150, 150, 149, 147, 149, 150, 152, 104]</t>
-  </si>
-  <si>
-    <t>[148, 148, 150, 150, 150, 151, 149, 152, 152]</t>
-  </si>
-  <si>
-    <t>[150, 152, 153, 149, 151, 154, 153, 153, 155, 153]</t>
-  </si>
-  <si>
-    <t>[152, 151, 152, 156, 155, 148]</t>
-  </si>
-  <si>
-    <t>[153, 153, 154, 154, 154, 155]</t>
-  </si>
-  <si>
-    <t>[155, 156, 158, 157, 152, 154, 157, 156]</t>
-  </si>
-  <si>
-    <t>[154, 156, 158, 154, 157, 156, 157]</t>
-  </si>
-  <si>
-    <t>[154, 157, 155, 158, 155, 154, 158]</t>
-  </si>
-  <si>
-    <t>[154, 159, 158, 155, 159, 157, 159, 157]</t>
-  </si>
-  <si>
-    <t>[160, 161, 156, 158, 159, 158, 158, 194]</t>
-  </si>
-  <si>
-    <t>[158, 159, 159]</t>
-  </si>
-  <si>
-    <t>[158, 159, 158, 201]</t>
-  </si>
-  <si>
-    <t>[142, 142, 143, 120]</t>
-  </si>
-  <si>
-    <t>[142, 142, 142]</t>
-  </si>
-  <si>
-    <t>[141, 142, 142, 136, 141, 141, 142, 143, 168]</t>
-  </si>
-  <si>
-    <t>[139, 142, 140, 141, 140, 141, 142, 141, 144]</t>
-  </si>
-  <si>
-    <t>[141, 143, 141, 140, 139, 139, 142, 141, 145, 143]</t>
-  </si>
-  <si>
-    <t>[141, 141, 141, 141, 143, 93]</t>
-  </si>
-  <si>
-    <t>[141, 142, 143, 138, 136, 140]</t>
-  </si>
-  <si>
-    <t>[140, 142, 143, 143, 140, 141, 143, 140]</t>
-  </si>
-  <si>
-    <t>[141, 140, 140, 140, 142, 143, 191]</t>
-  </si>
-  <si>
-    <t>[141, 141, 140, 142, 142, 143, 140]</t>
-  </si>
-  <si>
-    <t>[141, 142, 142, 139, 140, 141, 141, 142]</t>
-  </si>
-  <si>
-    <t>[141, 142, 142, 142, 141, 141, 142, 116]</t>
-  </si>
-  <si>
-    <t>[140, 141, 143]</t>
-  </si>
-  <si>
-    <t>[141, 139, 143, 163]</t>
-  </si>
-  <si>
-    <t>[706, 994, 998, 844]</t>
-  </si>
-  <si>
-    <t>[1287, 1570, 1572]</t>
-  </si>
-  <si>
-    <t>[1860, 1885, 1860, 2147, 2147, 2146, 2147, 2152, 1899]</t>
-  </si>
-  <si>
-    <t>[2434, 2434, 2722, 2721, 2745, 2721, 2722, 2722, 2726]</t>
-  </si>
-  <si>
-    <t>[3008, 3016, 3296, 3584, 3583, 3583, 3584, 3584, 3587, 3585]</t>
-  </si>
-  <si>
-    <t>[4157, 4156, 4160, 4160, 4157, 3776]</t>
-  </si>
-  <si>
-    <t>[4444, 4446, 4445, 4753, 4730, 4732]</t>
-  </si>
-  <si>
-    <t>[5018, 5048, 5022, 5025, 5304, 5304, 5308, 5309]</t>
-  </si>
-  <si>
-    <t>[5592, 5594, 5597, 5877, 5878, 5881, 5882]</t>
-  </si>
-  <si>
-    <t>[6163, 6167, 6166, 6171, 6449, 6476, 6456]</t>
-  </si>
-  <si>
-    <t>[6737, 6740, 6740, 7025, 7027, 7027, 7030, 7028]</t>
-  </si>
-  <si>
-    <t>[7310, 7314, 7598, 7602, 7603, 7626, 7601, 7460]</t>
-  </si>
-  <si>
-    <t>[7887, 8173, 8174]</t>
-  </si>
-  <si>
-    <t>[8462, 8462, 8750, 8519]</t>
-  </si>
-  <si>
-    <t>[4228, 3732, 4717, 3314]</t>
-  </si>
-  <si>
-    <t>[5542, 2743, 4720]</t>
-  </si>
-  <si>
-    <t>[3238, 5876, 6206, 2085, 3071, 3729, 5711, 7029, 6953]</t>
-  </si>
-  <si>
-    <t>[1589, 4557, 764, 1754, 3403, 3731, 4721, 5709, 7691]</t>
-  </si>
-  <si>
-    <t>[2577, 6530, 4060, 600, 1588, 3237, 4556, 5545, 7196, 7524]</t>
-  </si>
-  <si>
-    <t>[599, 2579, 3567, 6535, 7523, 421]</t>
-  </si>
-  <si>
-    <t>[1753, 4717, 5711, 925, 1258, 4226]</t>
-  </si>
-  <si>
-    <t>[2742, 6368, 7030, 7686, 597, 3237, 5215, 6205]</t>
-  </si>
-  <si>
-    <t>[2083, 4061, 6699, 1259, 5214, 7524, 8027]</t>
-  </si>
-  <si>
-    <t>[764, 3071, 3731, 6038, 2244, 2907, 4556]</t>
-  </si>
-  <si>
-    <t>[764, 6700, 7688, 1589, 2577, 3566, 5216, 7194]</t>
-  </si>
-  <si>
-    <t>[6035, 6700, 2249, 3567, 4554, 5874, 6205, 1338]</t>
-  </si>
-  <si>
-    <t>[3074, 3235, 5545]</t>
-  </si>
-  <si>
-    <t>[4062, 5050, 4227, 5303]</t>
-  </si>
-  <si>
-    <t>[722, 1010, 1010, 813]</t>
-  </si>
-  <si>
-    <t>[1298, 1584, 1586]</t>
-  </si>
-  <si>
-    <t>[1872, 1897, 1873, 2158, 2156, 2158, 2159, 2159, 1867]</t>
-  </si>
-  <si>
-    <t>[2442, 2442, 2730, 2730, 2753, 2730, 2729, 2731, 2732]</t>
-  </si>
-  <si>
-    <t>[3015, 3017, 3304, 3588, 3587, 3588, 3589, 3589, 3592, 3589]</t>
-  </si>
-  <si>
-    <t>[4159, 4158, 4159, 4163, 4162, 3775]</t>
-  </si>
-  <si>
-    <t>[4446, 4445, 4447, 4755, 4732, 4733]</t>
-  </si>
-  <si>
-    <t>[5018, 5043, 5021, 5021, 5301, 5303, 5305, 5306]</t>
-  </si>
-  <si>
-    <t>[5588, 5590, 5592, 5873, 5877, 5876, 5877]</t>
-  </si>
-  <si>
-    <t>[6159, 6162, 6161, 6163, 6446, 6468, 6449]</t>
-  </si>
-  <si>
-    <t>[6730, 6735, 6734, 7016, 7019, 7018, 7020, 7019]</t>
-  </si>
-  <si>
-    <t>[7306, 7308, 7587, 7590, 7591, 7614, 7590, 7491]</t>
-  </si>
-  <si>
-    <t>[7876, 8162, 8162]</t>
-  </si>
-  <si>
-    <t>[8447, 8447, 8733, 8546]</t>
-  </si>
-  <si>
-    <t>[4224, 3729, 4718, 3291]</t>
-  </si>
-  <si>
-    <t>[5542, 2740, 4717]</t>
-  </si>
-  <si>
-    <t>[3234, 5872, 6201, 2075, 3069, 3728, 5707, 7027, 6974]</t>
-  </si>
-  <si>
-    <t>[1584, 4553, 761, 1750, 3398, 3729, 4718, 5706, 7686]</t>
-  </si>
-  <si>
-    <t>[2574, 6532, 4058, 595, 1584, 3233, 4553, 5541, 7193, 7521]</t>
-  </si>
-  <si>
-    <t>[597, 2574, 3563, 6530, 7521, 376]</t>
-  </si>
-  <si>
-    <t>[1750, 4717, 5707, 924, 1251, 4221]</t>
-  </si>
-  <si>
-    <t>[2738, 6366, 7026, 7685, 596, 3233, 5212, 6199]</t>
-  </si>
-  <si>
-    <t>[2080, 4057, 6694, 1255, 5212, 7521, 8072]</t>
-  </si>
-  <si>
-    <t>[762, 3069, 3727, 6037, 2246, 2906, 4551]</t>
-  </si>
-  <si>
-    <t>[762, 6697, 7684, 1584, 2574, 3563, 5211, 7190]</t>
-  </si>
-  <si>
-    <t>[6036, 6696, 2246, 3564, 4552, 5871, 6201, 1309]</t>
-  </si>
-  <si>
-    <t>[3068, 3233, 5543]</t>
-  </si>
-  <si>
-    <t>[4058, 5045, 4224, 5322]</t>
+    <t>['S024_043_055_042', 'S025_159_171_158', 'S026_086_999_085']</t>
+  </si>
+  <si>
+    <t>['S027_003_011_002', 'S028_022_032_021', 'S029_072_071_056', 'S030_102_117_101', 'S031_132_146_131', 'S032_999_999_172', 'S033_183_192_182', 'S088_999_999_999']</t>
+  </si>
+  <si>
+    <t>['S034_004_012_999', 'S035_045_999_044', 'S036_073_087_999', 'S037_161_173_160', 'S038_184_193_999', 'S039_034_033_023', 'S040_119_118_999', 'S041_148_147_133']</t>
+  </si>
+  <si>
+    <t>['S042_014_999_999', 'S043_024_999_013', 'S044_104_103_088', 'S045_059_058_046', 'S046_163_999_999', 'S047_999_999_174', 'S048_195_194_185']</t>
+  </si>
+  <si>
+    <t>['S049_006_015_005', 'S050_075_074_999', 'S051_999_134_120', 'S052_999_163_149', 'S053_036_047_035', 'S054_999_105_089', 'S055_176_175_164']</t>
+  </si>
+  <si>
+    <t>['S056_026_025_999', 'S057_136_135_121', 'S058_187_196_186', 'S059_017_016_007', 'S060_061_076_060', 'S061_091_090_076', 'S062_151_165_150', 'S091_999_999_999']</t>
+  </si>
+  <si>
+    <t>['S063_049_048_037', 'S064_062_999_999', 'S065_107_122_106', 'S066_018_999_008', 'S067_178_177_166', 'S068_198_197_188']</t>
+  </si>
+  <si>
+    <t>['S069_028_038_027', 'S070_999_063_999', 'S071_078_092_077', 'S072_138_137_123', 'S073_189_999_999', 'S074_153_999_152', 'S075_179_999_167']</t>
+  </si>
+  <si>
+    <t>['S076_051_050_039', 'S077_999_093_999', 'S078_109_124_108', 'S079_154_999_999', 'S080_168_999_999', 'S081_065_079_064', 'S089_999_999_999']</t>
+  </si>
+  <si>
+    <t>['S082_080_999_999', 'S083_140_155_139', 'S084_999_999_094', 'S085_126_999_125']</t>
+  </si>
+  <si>
+    <t>['S086_111_110_095', 'S090_999_999_999']</t>
+  </si>
+  <si>
+    <t>['1895', '2656', '2655', '2257']</t>
+  </si>
+  <si>
+    <t>['3417', '4178', '4180']</t>
+  </si>
+  <si>
+    <t>['4940', '5002', '4940', '5701', '5701', '5700', '5700', '5697', '5044']</t>
+  </si>
+  <si>
+    <t>['6462', '6462', '7223', '7223', '7285', '7222', '7223', '7222', '7223']</t>
+  </si>
+  <si>
+    <t>['7984', '7984', '8746']</t>
+  </si>
+  <si>
+    <t>['9514', '9507', '9502', '9506', '9507', '9509', '9507', '10017']</t>
+  </si>
+  <si>
+    <t>['11029', '11029', '11029', '11029', '11028', '11791', '11789', '11793']</t>
+  </si>
+  <si>
+    <t>['12614', '12552', '12552', '13312', '13375', '13313', '13314']</t>
+  </si>
+  <si>
+    <t>['14074', '14074', '14071', '14076', '14835', '14835', '14835']</t>
+  </si>
+  <si>
+    <t>['15594', '15596', '15596', '16357', '16357', '16359', '16356', '15598']</t>
+  </si>
+  <si>
+    <t>['17119', '17181', '17119', '17880', '17881', '17881']</t>
+  </si>
+  <si>
+    <t>['18641', '18638', '18641', '18641', '18643', '19399', '19402']</t>
+  </si>
+  <si>
+    <t>['20161', '20163', '20163', '20226', '20163', '20925', '19802']</t>
+  </si>
+  <si>
+    <t>['21685', '21686', '22447', '22446']</t>
+  </si>
+  <si>
+    <t>['23210', '22596']</t>
+  </si>
+  <si>
+    <t>['11230', '9911', '12546', '8801']</t>
+  </si>
+  <si>
+    <t>['14745', '7274', '12546']</t>
+  </si>
+  <si>
+    <t>['8593', '15625', '16503', '5516', '8153', '9911', '15185', '18702', '18494']</t>
+  </si>
+  <si>
+    <t>['4198', '12108', '2000', '4637', '9032', '9913', '12548', '15185', '20458']</t>
+  </si>
+  <si>
+    <t>['6835', '17382', '10790']</t>
+  </si>
+  <si>
+    <t>['1560', '4198', '8597', '12109', '14745', '19141', '20019', '1099']</t>
+  </si>
+  <si>
+    <t>['1561', '6835', '9472', '17382', '20021', '4637', '12546', '15182']</t>
+  </si>
+  <si>
+    <t>['2440', '3319', '11229', '7274', '16943', '18701', '20458']</t>
+  </si>
+  <si>
+    <t>['1561', '8590', '13864', '16502', '5516', '10790', '17822']</t>
+  </si>
+  <si>
+    <t>['3318', '13866', '20019', '2000', '8153', '9912', '16065', '21361']</t>
+  </si>
+  <si>
+    <t>['5956', '7714', '12108', '2000', '17825', '20458']</t>
+  </si>
+  <si>
+    <t>['4198', '6837', '9472', '13866', '19141', '16065', '17822']</t>
+  </si>
+  <si>
+    <t>['5957', '9472', '12108', '15625', '16503', '8153', '3528']</t>
+  </si>
+  <si>
+    <t>['8590', '14745', '10790', '13429']</t>
+  </si>
+  <si>
+    <t>['11229', '14104']</t>
+  </si>
+  <si>
+    <t>[295, 303, 305, 302]</t>
+  </si>
+  <si>
+    <t>[310, 317, 319]</t>
+  </si>
+  <si>
+    <t>[324, 331, 325, 329, 328, 332, 335, 343, 329]</t>
+  </si>
+  <si>
+    <t>[335, 338, 340, 340, 343, 343, 344, 345, 350]</t>
+  </si>
+  <si>
+    <t>[348, 354, 353]</t>
+  </si>
+  <si>
+    <t>[349, 356, 361, 360, 361, 365, 366, 359]</t>
+  </si>
+  <si>
+    <t>[364, 364, 368, 374, 377, 369, 375, 374]</t>
+  </si>
+  <si>
+    <t>[373, 374, 377, 381, 388, 383, 387]</t>
+  </si>
+  <si>
+    <t>[380, 387, 393, 388, 388, 394, 394]</t>
+  </si>
+  <si>
+    <t>[389, 397, 399, 390, 399, 399, 404, 394]</t>
+  </si>
+  <si>
+    <t>[400, 405, 407, 395, 409, 406]</t>
+  </si>
+  <si>
+    <t>[404, 414, 413, 416, 412, 421, 416]</t>
+  </si>
+  <si>
+    <t>[417, 423, 424, 422, 421, 425, 409]</t>
+  </si>
+  <si>
+    <t>[428, 433, 440, 438]</t>
+  </si>
+  <si>
+    <t>[443, 440]</t>
+  </si>
+  <si>
+    <t>[355, 354, 358, 358]</t>
+  </si>
+  <si>
+    <t>[359, 358, 360]</t>
+  </si>
+  <si>
+    <t>[360, 360, 363, 359, 360, 355, 361, 360, 364]</t>
+  </si>
+  <si>
+    <t>[361, 363, 360, 358, 360, 357, 361, 362, 366]</t>
+  </si>
+  <si>
+    <t>[361, 367, 359]</t>
+  </si>
+  <si>
+    <t>[363, 360, 357, 362, 361, 365, 365, 360]</t>
+  </si>
+  <si>
+    <t>[363, 362, 361, 366, 364, 362, 366, 366]</t>
+  </si>
+  <si>
+    <t>[365, 364, 363, 366, 368, 368, 368]</t>
+  </si>
+  <si>
+    <t>[365, 368, 368, 367, 364, 363, 370]</t>
+  </si>
+  <si>
+    <t>[366, 367, 368, 369, 368, 363, 367, 370]</t>
+  </si>
+  <si>
+    <t>[368, 368, 369, 370, 372, 371]</t>
+  </si>
+  <si>
+    <t>[367, 367, 367, 368, 371, 370, 373]</t>
+  </si>
+  <si>
+    <t>[369, 367, 371, 369, 371, 368, 369]</t>
+  </si>
+  <si>
+    <t>[371, 369, 367, 370]</t>
+  </si>
+  <si>
+    <t>[370, 369]</t>
+  </si>
+  <si>
+    <t>[342, 346, 348, 228]</t>
+  </si>
+  <si>
+    <t>[357, 362, 364]</t>
+  </si>
+  <si>
+    <t>[365, 370, 371, 366, 372, 369, 374, 376, 256]</t>
+  </si>
+  <si>
+    <t>[366, 374, 369, 368, 374, 376, 376, 378, 385]</t>
+  </si>
+  <si>
+    <t>[374, 381, 379]</t>
+  </si>
+  <si>
+    <t>[368, 375, 382, 382, 383, 387, 387, 369]</t>
+  </si>
+  <si>
+    <t>[377, 378, 382, 387, 391, 379, 387, 386]</t>
+  </si>
+  <si>
+    <t>[374, 380, 387, 384, 491, 392, 393]</t>
+  </si>
+  <si>
+    <t>[379, 387, 394, 392, 385, 390, 392]</t>
+  </si>
+  <si>
+    <t>[382, 394, 392, 382, 390, 389, 396, 390]</t>
+  </si>
+  <si>
+    <t>[391, 391, 395, 380, 393, 395]</t>
+  </si>
+  <si>
+    <t>[386, 397, 397, 396, 392, 403, 397]</t>
+  </si>
+  <si>
+    <t>[395, 397, 403, 397, 402, 400, 495]</t>
+  </si>
+  <si>
+    <t>[398, 406, 409, 412]</t>
+  </si>
+  <si>
+    <t>[410, 519]</t>
+  </si>
+  <si>
+    <t>[354, 351, 357, 291]</t>
+  </si>
+  <si>
+    <t>[354, 357, 358]</t>
+  </si>
+  <si>
+    <t>[355, 357, 359, 354, 354, 351, 356, 357, 423]</t>
+  </si>
+  <si>
+    <t>[354, 356, 357, 353, 354, 354, 357, 357, 360]</t>
+  </si>
+  <si>
+    <t>[354, 360, 353]</t>
+  </si>
+  <si>
+    <t>[357, 353, 352, 354, 354, 357, 358, 225]</t>
+  </si>
+  <si>
+    <t>[357, 357, 352, 361, 357, 356, 358, 359]</t>
+  </si>
+  <si>
+    <t>[360, 358, 357, 360, 472, 361, 360]</t>
+  </si>
+  <si>
+    <t>[362, 362, 358, 361, 360, 357, 362]</t>
+  </si>
+  <si>
+    <t>[363, 361, 362, 364, 361, 359, 359, 488]</t>
+  </si>
+  <si>
+    <t>[360, 365, 361, 364, 364, 364]</t>
+  </si>
+  <si>
+    <t>[366, 361, 360, 364, 365, 362, 366]</t>
+  </si>
+  <si>
+    <t>[364, 362, 364, 364, 365, 365, 297]</t>
+  </si>
+  <si>
+    <t>[367, 361, 362, 366]</t>
+  </si>
+  <si>
+    <t>[367, 423]</t>
+  </si>
+  <si>
+    <t>[1817, 2586, 2587, 2186]</t>
+  </si>
+  <si>
+    <t>[3354, 4122, 4126]</t>
+  </si>
+  <si>
+    <t>[4891, 4960, 4892, 5657, 5656, 5659, 5662, 5667, 5000]</t>
+  </si>
+  <si>
+    <t>[6424, 6427, 7190, 7190, 7255, 7192, 7194, 7194, 7200]</t>
+  </si>
+  <si>
+    <t>[7959, 7965, 8726]</t>
+  </si>
+  <si>
+    <t>[9490, 9490, 9490, 9493, 9495, 9501, 9500, 10003]</t>
+  </si>
+  <si>
+    <t>[11020, 11020, 11024, 11030, 11032, 11787, 11791, 11794]</t>
+  </si>
+  <si>
+    <t>[12614, 12553, 12556, 13320, 13390, 13323, 13328]</t>
+  </si>
+  <si>
+    <t>[14081, 14088, 14091, 14091, 14850, 14856, 14856]</t>
+  </si>
+  <si>
+    <t>[15610, 15620, 15622, 16374, 16383, 16385, 16387, 15619]</t>
+  </si>
+  <si>
+    <t>[17146, 17213, 17153, 17902, 17917, 17914]</t>
+  </si>
+  <si>
+    <t>[18672, 18679, 18681, 18684, 18682, 19447, 19445]</t>
+  </si>
+  <si>
+    <t>[20205, 20213, 20214, 20275, 20211, 20977, 19838]</t>
+  </si>
+  <si>
+    <t>[21740, 21746, 22514, 22511]</t>
+  </si>
+  <si>
+    <t>[23280, 22663]</t>
+  </si>
+  <si>
+    <t>[11212, 9892, 12531, 8786]</t>
+  </si>
+  <si>
+    <t>[14731, 7259, 12533]</t>
+  </si>
+  <si>
+    <t>[8580, 15612, 16493, 5502, 8140, 9893, 15173, 18689, 18485]</t>
+  </si>
+  <si>
+    <t>[4186, 12098, 1987, 4622, 9019, 9897, 12536, 15174, 20451]</t>
+  </si>
+  <si>
+    <t>[6823, 17376, 10776]</t>
+  </si>
+  <si>
+    <t>[1550, 4185, 8581, 12098, 14733, 19133, 20011, 1086]</t>
+  </si>
+  <si>
+    <t>[1551, 6824, 9460, 17375, 20012, 4626, 12539, 15175]</t>
+  </si>
+  <si>
+    <t>[2432, 3310, 11219, 7267, 16938, 18696, 20453]</t>
+  </si>
+  <si>
+    <t>[1553, 8585, 13859, 16496, 5507, 10780, 17819]</t>
+  </si>
+  <si>
+    <t>[3311, 13860, 20014, 1996, 8148, 9902, 16059, 21358]</t>
+  </si>
+  <si>
+    <t>[5951, 7709, 12104, 1997, 17824, 20456]</t>
+  </si>
+  <si>
+    <t>[4192, 6831, 9466, 13861, 19139, 16062, 17822]</t>
+  </si>
+  <si>
+    <t>[5953, 9466, 12106, 15621, 16501, 8148, 3524]</t>
+  </si>
+  <si>
+    <t>[8588, 14741, 10784, 13426]</t>
+  </si>
+  <si>
+    <t>[11226, 14100]</t>
+  </si>
+  <si>
+    <t>[1864, 2629, 2630, 2112]</t>
+  </si>
+  <si>
+    <t>[3401, 4167, 4171]</t>
+  </si>
+  <si>
+    <t>[4932, 4999, 4938, 5694, 5700, 5696, 5701, 5700, 4927]</t>
+  </si>
+  <si>
+    <t>[6455, 6463, 7219, 7218, 7286, 7225, 7226, 7227, 7235]</t>
+  </si>
+  <si>
+    <t>[7985, 7992, 8752]</t>
+  </si>
+  <si>
+    <t>[9509, 9509, 9511, 9515, 9517, 9523, 9521, 10013]</t>
+  </si>
+  <si>
+    <t>[11033, 11034, 11038, 11043, 11046, 11797, 11803, 11806]</t>
+  </si>
+  <si>
+    <t>[12615, 12559, 12566, 13323, 13493, 13332, 13334]</t>
+  </si>
+  <si>
+    <t>[14080, 14088, 14092, 14095, 14847, 14852, 14854]</t>
+  </si>
+  <si>
+    <t>[15603, 15617, 15615, 16366, 16374, 16375, 16379, 15615]</t>
+  </si>
+  <si>
+    <t>[17137, 17199, 17141, 17887, 17901, 17903]</t>
+  </si>
+  <si>
+    <t>[18654, 18662, 18665, 18664, 18662, 19429, 19426]</t>
+  </si>
+  <si>
+    <t>[20183, 20187, 20193, 20250, 20192, 20952, 19924]</t>
+  </si>
+  <si>
+    <t>[21710, 21719, 22483, 22485]</t>
+  </si>
+  <si>
+    <t>[23247, 22742]</t>
+  </si>
+  <si>
+    <t>[11211, 9889, 12530, 8719]</t>
+  </si>
+  <si>
+    <t>[14726, 7258, 12531]</t>
+  </si>
+  <si>
+    <t>[8575, 15609, 16489, 5497, 8134, 9889, 15168, 18686, 18544]</t>
+  </si>
+  <si>
+    <t>[4179, 12091, 1984, 4617, 9013, 9894, 12532, 15169, 20445]</t>
+  </si>
+  <si>
+    <t>[6816, 17369, 10770]</t>
+  </si>
+  <si>
+    <t>[1544, 4178, 8576, 12090, 14726, 19125, 20004, 951]</t>
+  </si>
+  <si>
+    <t>[1545, 6819, 9451, 17370, 20005, 4620, 12531, 15168]</t>
+  </si>
+  <si>
+    <t>[2427, 3304, 11213, 7261, 17042, 18689, 20445]</t>
+  </si>
+  <si>
+    <t>[1550, 8579, 13849, 16490, 5503, 10774, 17811]</t>
+  </si>
+  <si>
+    <t>[3308, 13854, 20008, 1991, 8141, 9898, 16051, 21476]</t>
+  </si>
+  <si>
+    <t>[5943, 7706, 12096, 1991, 17816, 20449]</t>
+  </si>
+  <si>
+    <t>[4191, 6825, 9459, 13857, 19133, 16054, 17815]</t>
+  </si>
+  <si>
+    <t>[5948, 9461, 12099, 15616, 16495, 8145, 3452]</t>
+  </si>
+  <si>
+    <t>[8584, 14733, 10779, 13422]</t>
+  </si>
+  <si>
+    <t>[11223, 14154]</t>
   </si>
   <si>
     <t>[-86.0, -80.0, -80.0, -83.0]</t>
@@ -538,37 +571,40 @@
     <t>[-62.0, -61.0, -62.0, -56.0, -56.0, -56.0, -56.0, -56.0, -61.0]</t>
   </si>
   <si>
-    <t>[-50.0, -50.0, -43.0, -44.0, -43.0, -44.0, -43.0, -43.0, -43.0]</t>
-  </si>
-  <si>
-    <t>[-37.0, -37.0, -31.0, -25.0, -25.0, -25.0, -25.0, -25.0, -25.0, -25.0]</t>
-  </si>
-  <si>
-    <t>[-13.0, -13.0, -13.0, -13.0, -13.0, -21.0]</t>
-  </si>
-  <si>
-    <t>[-7.0, -7.0, -7.0, 0.0, -1.0, -1.0]</t>
-  </si>
-  <si>
-    <t>[5.0, 6.0, 5.0, 5.0, 11.0, 11.0, 11.0, 11.0]</t>
-  </si>
-  <si>
-    <t>[17.0, 17.0, 17.0, 23.0, 23.0, 23.0, 23.0]</t>
-  </si>
-  <si>
-    <t>[29.0, 29.0, 29.0, 30.0, 35.0, 36.0, 36.0]</t>
-  </si>
-  <si>
-    <t>[41.0, 42.0, 42.0, 48.0, 48.0, 48.0, 48.0, 48.0]</t>
-  </si>
-  <si>
-    <t>[54.0, 54.0, 60.0, 60.0, 60.0, 60.0, 60.0, 57.0]</t>
-  </si>
-  <si>
-    <t>[66.0, 72.0, 72.0]</t>
-  </si>
-  <si>
-    <t>[78.0, 78.0, 84.0, 79.0]</t>
+    <t>[-50.0, -50.0, -44.0, -44.0, -43.0, -44.0, -44.0, -44.0, -43.0]</t>
+  </si>
+  <si>
+    <t>[-37.0, -37.0, -31.0]</t>
+  </si>
+  <si>
+    <t>[-25.0, -25.0, -25.0, -25.0, -25.0, -25.0, -25.0, -21.0]</t>
+  </si>
+  <si>
+    <t>[-13.0, -13.0, -13.0, -13.0, -13.0, -7.0, -7.0, -7.0]</t>
+  </si>
+  <si>
+    <t>[0.0, -1.0, -1.0, 5.0, 6.0, 5.0, 5.0]</t>
+  </si>
+  <si>
+    <t>[11.0, 11.0, 11.0, 11.0, 17.0, 17.0, 17.0]</t>
+  </si>
+  <si>
+    <t>[23.0, 23.0, 23.0, 29.0, 29.0, 29.0, 29.0, 23.0]</t>
+  </si>
+  <si>
+    <t>[35.0, 36.0, 36.0, 41.0, 42.0, 42.0]</t>
+  </si>
+  <si>
+    <t>[48.0, 48.0, 48.0, 48.0, 48.0, 54.0, 54.0]</t>
+  </si>
+  <si>
+    <t>[60.0, 60.0, 60.0, 60.0, 60.0, 66.0, 57.0]</t>
+  </si>
+  <si>
+    <t>[72.0, 72.0, 78.0, 78.0]</t>
+  </si>
+  <si>
+    <t>[84.0, 79.0]</t>
   </si>
   <si>
     <t>[69.0, 59.0, 80.0, 50.0]</t>
@@ -580,37 +616,40 @@
     <t>[48.0, 104.0, 111.0, 24.0, 45.0, 59.0, 101.0, 129.0, 127.0]</t>
   </si>
   <si>
-    <t>[14.0, 76.0, -4.0, 17.0, 52.0, 59.0, 80.0, 101.0, 143.0]</t>
-  </si>
-  <si>
-    <t>[34.0, 118.0, 66.0, -7.0, 14.0, 48.0, 76.0, 97.0, 132.0, 139.0]</t>
-  </si>
-  <si>
-    <t>[-7.0, 35.0, 55.0, 118.0, 139.0, -11.0]</t>
-  </si>
-  <si>
-    <t>[17.0, 80.0, 101.0, 0.0, 7.0, 69.0]</t>
-  </si>
-  <si>
-    <t>[38.0, 115.0, 129.0, 143.0, -7.0, 48.0, 90.0, 111.0]</t>
-  </si>
-  <si>
-    <t>[24.0, 66.0, 122.0, 7.0, 90.0, 139.0, 150.0]</t>
-  </si>
-  <si>
-    <t>[-4.0, 45.0, 59.0, 108.0, 27.0, 41.0, 76.0]</t>
-  </si>
-  <si>
-    <t>[-4.0, 122.0, 143.0, 14.0, 34.0, 55.0, 90.0, 132.0]</t>
-  </si>
-  <si>
-    <t>[108.0, 122.0, 28.0, 55.0, 76.0, 104.0, 111.0, 8.0]</t>
-  </si>
-  <si>
-    <t>[45.0, 48.0, 97.0]</t>
-  </si>
-  <si>
-    <t>[66.0, 87.0, 69.0, 92.0]</t>
+    <t>[13.0, 76.0, -4.0, 17.0, 52.0, 59.0, 80.0, 101.0, 143.0]</t>
+  </si>
+  <si>
+    <t>[34.0, 118.0, 66.0]</t>
+  </si>
+  <si>
+    <t>[-8.0, 13.0, 48.0, 76.0, 97.0, 132.0, 139.0, -11.0]</t>
+  </si>
+  <si>
+    <t>[-7.0, 34.0, 55.0, 118.0, 139.0, 17.0, 80.0, 101.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 6.0, 69.0, 38.0, 115.0, 129.0, 143.0]</t>
+  </si>
+  <si>
+    <t>[-7.0, 48.0, 90.0, 111.0, 24.0, 66.0, 122.0]</t>
+  </si>
+  <si>
+    <t>[6.0, 90.0, 139.0, -4.0, 45.0, 59.0, 108.0, 150.0]</t>
+  </si>
+  <si>
+    <t>[27.0, 41.0, 76.0, -4.0, 122.0, 143.0]</t>
+  </si>
+  <si>
+    <t>[13.0, 34.0, 55.0, 90.0, 132.0, 108.0, 122.0]</t>
+  </si>
+  <si>
+    <t>[27.0, 55.0, 76.0, 104.0, 111.0, 45.0, 8.0]</t>
+  </si>
+  <si>
+    <t>[48.0, 97.0, 66.0, 87.0]</t>
+  </si>
+  <si>
+    <t>[69.0, 92.0]</t>
   </si>
   <si>
     <t>[-86.0, -80.0, -80.0, -84.0]</t>
@@ -622,127 +661,130 @@
     <t>[-49.0, -49.0, -43.0, -43.0, -43.0, -43.0, -43.0, -43.0, -43.0]</t>
   </si>
   <si>
-    <t>[29.0, 29.0, 29.0, 29.0, 35.0, 36.0, 35.0]</t>
-  </si>
-  <si>
-    <t>[41.0, 41.0, 41.0, 47.0, 47.0, 47.0, 47.0, 47.0]</t>
-  </si>
-  <si>
-    <t>[54.0, 54.0, 59.0, 60.0, 60.0, 60.0, 60.0, 57.0]</t>
-  </si>
-  <si>
-    <t>[78.0, 78.0, 84.0, 80.0]</t>
-  </si>
-  <si>
-    <t>[48.0, 104.0, 111.0, 24.0, 45.0, 59.0, 101.0, 129.0, 128.0]</t>
-  </si>
-  <si>
-    <t>[13.0, 76.0, -4.0, 17.0, 52.0, 59.0, 80.0, 101.0, 143.0]</t>
-  </si>
-  <si>
-    <t>[34.0, 118.0, 66.0, -7.0, 13.0, 48.0, 76.0, 97.0, 132.0, 139.0]</t>
-  </si>
-  <si>
-    <t>[-7.0, 34.0, 55.0, 118.0, 139.0, -12.0]</t>
-  </si>
-  <si>
-    <t>[17.0, 80.0, 101.0, -1.0, 6.0, 69.0]</t>
-  </si>
-  <si>
-    <t>[24.0, 66.0, 122.0, 6.0, 90.0, 139.0, 151.0]</t>
-  </si>
-  <si>
-    <t>[-4.0, 122.0, 143.0, 13.0, 34.0, 55.0, 90.0, 132.0]</t>
-  </si>
-  <si>
-    <t>[108.0, 122.0, 27.0, 55.0, 76.0, 104.0, 111.0, 8.0]</t>
-  </si>
-  <si>
-    <t>[66.0, 87.0, 69.0, 93.0]</t>
-  </si>
-  <si>
-    <t>[16.492422502470642, 16.278820596099706, 12.041594578792296, 38.600518131237564]</t>
-  </si>
-  <si>
-    <t>[11.0, 14.317821063276353, 14.317821063276353]</t>
-  </si>
-  <si>
-    <t>[12.649110640673518, 12.649110640673518, 13.92838827718412, 14.866068747318506, 9.219544457292887, 12.041594578792296, 12.649110640673518, 7.280109889280518, 38.27531841800928]</t>
-  </si>
-  <si>
-    <t>[9.433981132056603, 8.94427190999916, 8.54400374531753, 9.848857801796104, 9.433981132056603, 9.219544457292887, 7.615773105863909, 9.486832980505138, 7.810249675906654]</t>
-  </si>
-  <si>
-    <t>[7.615773105863909, 2.23606797749979, 8.246211251235321, 6.4031242374328485, 5.656854249492381, 6.4031242374328485, 5.830951894845301, 6.4031242374328485, 5.830951894845301, 5.0]</t>
-  </si>
-  <si>
-    <t>[2.8284271247461903, 5.385164807134504, 4.123105625617661, 5.830951894845301, 5.385164807134504, 45.0111097397076]</t>
-  </si>
-  <si>
-    <t>[3.605551275463989, 1.0, 4.47213595499958, 2.23606797749979, 7.280109889280518, 5.0990195135927845]</t>
-  </si>
-  <si>
-    <t>[4.0, 5.385164807134504, 4.123105625617661, 4.123105625617661, 3.1622776601683795, 4.123105625617661, 4.242640687119285, 6.708203932499369]</t>
-  </si>
-  <si>
-    <t>[5.0, 5.656854249492381, 7.0710678118654755, 5.656854249492381, 2.23606797749979, 5.830951894845301, 45.27692569068709]</t>
-  </si>
-  <si>
-    <t>[4.47213595499958, 5.385164807134504, 6.4031242374328485, 8.06225774829855, 3.605551275463989, 8.06225774829855, 8.602325267042627]</t>
-  </si>
-  <si>
-    <t>[7.280109889280518, 5.830951894845301, 7.211102550927978, 10.295630140987, 8.54400374531753, 9.486832980505138, 11.180339887498949, 9.848857801796104]</t>
-  </si>
-  <si>
-    <t>[4.123105625617661, 7.211102550927978, 11.40175425099138, 12.36931687685298, 12.165525060596439, 12.36931687685298, 11.704699910719626, 42.44997055358225]</t>
-  </si>
-  <si>
-    <t>[12.529964086141668, 11.180339887498949, 12.165525060596439]</t>
-  </si>
-  <si>
-    <t>[15.524174696260024, 15.811388300841896, 17.26267650163207, 33.015148038438355]</t>
-  </si>
-  <si>
-    <t>[349.08960963562856, 344.5683692841104, 254.88041858443694, 817.0443004445284]</t>
-  </si>
-  <si>
-    <t>[232.83333333333334, 303.06054583934946, 303.06054583934946]</t>
-  </si>
-  <si>
-    <t>[267.7395085609228, 267.7395085609228, 294.81755186706386, 314.6651218182417, 195.14702434603277, 254.88041858443694, 267.7395085609228, 154.0956593231043, 810.1609065145296]</t>
-  </si>
-  <si>
-    <t>[199.68593396186478, 189.3204220949822, 180.84807927588773, 208.46749013801752, 199.68593396186478, 195.14702434603277, 161.20053074078606, 200.8046314206921, 165.3169514733575]</t>
-  </si>
-  <si>
-    <t>[161.20053074078606, 47.33010552374555, 174.54480481781428, 135.5327963589953, 119.73674828092206, 135.5327963589953, 123.42181510755887, 135.5327963589953, 123.42181510755887, 105.83333333333333]</t>
-  </si>
-  <si>
-    <t>[59.86837414046103, 113.98598841768032, 87.27240240890714, 123.42181510755887, 113.98598841768032, 952.7351561571443]</t>
-  </si>
-  <si>
-    <t>[76.3175019973211, 21.166666666666668, 94.6602110474911, 47.33010552374555, 154.0956593231043, 107.92924637104727]</t>
-  </si>
-  <si>
-    <t>[84.66666666666667, 113.98598841768032, 87.27240240890714, 87.27240240890714, 66.9348771402307, 87.27240240890714, 89.80256121069152, 141.99031657123663]</t>
-  </si>
-  <si>
-    <t>[105.83333333333333, 119.73674828092206, 149.67093535115256, 119.73674828092206, 47.33010552374555, 123.42181510755887, 958.36159378621]</t>
-  </si>
-  <si>
-    <t>[94.6602110474911, 113.98598841768032, 135.5327963589953, 170.65112233898594, 76.3175019973211, 170.65112233898594, 182.0825514857356]</t>
-  </si>
-  <si>
-    <t>[154.0956593231043, 123.42181510755887, 152.6350039946422, 217.92417131755818, 180.84807927588773, 200.8046314206921, 236.65052761872775, 208.46749013801752]</t>
-  </si>
-  <si>
-    <t>[87.27240240890714, 152.6350039946422, 241.3371316459842, 261.8172072267214, 257.5036137826246, 261.8172072267214, 247.7494814435654, 898.524376717491]</t>
-  </si>
-  <si>
-    <t>[265.2175731566653, 236.65052761872775, 257.5036137826246]</t>
-  </si>
-  <si>
-    <t>[328.5950310708372, 334.6743857011535, 365.39331928454544, 698.8206334802785]</t>
+    <t>[35.0, 36.0, 35.0, 41.0, 41.0, 41.0]</t>
+  </si>
+  <si>
+    <t>[47.0, 48.0, 48.0, 48.0, 48.0, 54.0, 54.0]</t>
+  </si>
+  <si>
+    <t>[60.0, 60.0, 60.0, 60.0, 60.0, 66.0, 58.0]</t>
+  </si>
+  <si>
+    <t>[84.0, 80.0]</t>
+  </si>
+  <si>
+    <t>[69.0, 59.0, 80.0, 49.0]</t>
+  </si>
+  <si>
+    <t>[13.0, 76.0, -4.0, 17.0, 52.0, 59.0, 80.0, 101.0, 142.0]</t>
+  </si>
+  <si>
+    <t>[-8.0, 13.0, 48.0, 76.0, 97.0, 132.0, 139.0, -12.0]</t>
+  </si>
+  <si>
+    <t>[-8.0, 34.0, 55.0, 118.0, 139.0, 17.0, 80.0, 101.0]</t>
+  </si>
+  <si>
+    <t>[-1.0, 6.0, 69.0, 38.0, 115.0, 129.0, 142.0]</t>
+  </si>
+  <si>
+    <t>[-8.0, 48.0, 90.0, 111.0, 24.0, 66.0, 122.0]</t>
+  </si>
+  <si>
+    <t>[6.0, 90.0, 139.0, -4.0, 45.0, 59.0, 108.0, 151.0]</t>
+  </si>
+  <si>
+    <t>[69.0, 93.0]</t>
+  </si>
+  <si>
+    <t>[47.01063709417264, 43.104524124504614, 43.01162633521314, 99.82484660644363]</t>
+  </si>
+  <si>
+    <t>[47.265209192385896, 45.0111097397076, 45.044422518220834]</t>
+  </si>
+  <si>
+    <t>[41.30375285612676, 39.11521443121589, 46.17358552246078, 37.33630940518894, 44.40720662234904, 37.21558813185679, 39.319206502675, 33.13608305156178, 93.86160024205851]</t>
+  </si>
+  <si>
+    <t>[31.78049716414141, 36.6742416417845, 29.154759474226502, 28.442925306655784, 31.575306807693888, 33.13608305156178, 32.2490309931942, 33.37663853655727, 35.510561809129406]</t>
+  </si>
+  <si>
+    <t>[26.92582403567252, 27.892651361962706, 26.68332812825267]</t>
+  </si>
+  <si>
+    <t>[19.924858845171276, 20.248456731316587, 21.587033144922902, 23.40939982143925, 23.08679276123039, 23.40939982143925, 22.135943621178654, 135.36986370680884]</t>
+  </si>
+  <si>
+    <t>[14.317821063276353, 14.866068747318506, 16.64331697709324, 13.92838827718412, 15.652475842498529, 11.661903789690601, 14.422205101855956, 13.892443989449804]</t>
+  </si>
+  <si>
+    <t>[5.0990195135927845, 8.48528137423857, 11.661903789690601, 6.708203932499369, 146.37281168304446, 11.40175425099138, 10.0]</t>
+  </si>
+  <si>
+    <t>[3.1622776601683795, 6.0, 10.04987562112089, 7.211102550927978, 5.0, 7.211102550927978, 8.246211251235321]</t>
+  </si>
+  <si>
+    <t>[7.615773105863909, 6.708203932499369, 9.219544457292887, 9.433981132056603, 11.40175425099138, 10.770329614269007, 11.313708498984761, 118.06777714516353]</t>
+  </si>
+  <si>
+    <t>[12.041594578792296, 14.317821063276353, 14.422205101855956, 16.15549442140351, 17.88854381999832, 13.038404810405298]</t>
+  </si>
+  <si>
+    <t>[18.027756377319946, 18.027756377319946, 17.46424919657298, 20.396078054371138, 20.8806130178211, 19.697715603592208, 20.248456731316587]</t>
+  </si>
+  <si>
+    <t>[22.561028345356956, 26.476404589747453, 22.135943621178654, 25.495097567963924, 19.924858845171276, 25.179356624028344, 112.16059914247963]</t>
+  </si>
+  <si>
+    <t>[30.265491900843113, 28.160255680657446, 31.400636936215164, 26.30589287593181]</t>
+  </si>
+  <si>
+    <t>[33.13608305156178, 95.69221493935649]</t>
+  </si>
+  <si>
+    <t>[373.1469319349953, 342.14216023825537, 341.4047840357543, 792.3597199386463]</t>
+  </si>
+  <si>
+    <t>[375.167597964563, 357.2756835589291, 357.54010373837787]</t>
+  </si>
+  <si>
+    <t>[327.84853829550616, 310.47701454777615, 366.5028350845325, 296.3569559036872, 352.4822025648955, 295.3987307966133, 312.0962016149828, 263.0176592217716, 745.0264519213395]</t>
+  </si>
+  <si>
+    <t>[252.2576962403724, 291.10179303166444, 231.41590332667286, 225.76571962158027, 250.62899778607024, 263.0176592217716, 255.9766835084789, 264.92706838392337, 281.86508435996467]</t>
+  </si>
+  <si>
+    <t>[213.72372828315062, 221.39792018557898, 211.79891701800557]</t>
+  </si>
+  <si>
+    <t>[158.15356708354702, 160.7221253048254, 171.34707558782554, 185.81211108267405, 183.25141754226624, 185.81211108267405, 175.70405249310556, 1074.4982931727952]</t>
+  </si>
+  <si>
+    <t>[113.64770468975604, 117.99942068184063, 132.10632850567757, 110.55658195014894, 124.24152699983208, 92.56636133066915, 114.47625299598165, 110.27127416625783]</t>
+  </si>
+  <si>
+    <t>[40.473467389142726, 67.35192090801864, 92.56636133066915, 53.24636871421374, 1161.8341927341653, 90.50142436724407, 79.375]</t>
+  </si>
+  <si>
+    <t>[25.10057892758651, 47.625, 79.77088774264706, 57.23812649799083, 39.6875, 57.23812649799083, 65.45430180668036]</t>
+  </si>
+  <si>
+    <t>[60.45019902779478, 53.24636871421374, 73.1801341297623, 74.8822252356993, 90.50142436724407, 85.48949131326025, 89.80256121069155, 937.1629810897356]</t>
+  </si>
+  <si>
+    <t>[95.58015696916385, 113.64770468975604, 114.47625299598165, 128.23423696989036, 141.99031657123666, 103.49233818259205]</t>
+  </si>
+  <si>
+    <t>[143.09531624497708, 143.09531624497708, 138.622477997798, 161.8938695565709, 165.739865828955, 156.35061760351314, 160.7221253048254]</t>
+  </si>
+  <si>
+    <t>[179.07816249127086, 210.15646143112042, 175.70405249310556, 202.36733694571365, 158.15356708354702, 199.86114320322497, 890.2747556934321]</t>
+  </si>
+  <si>
+    <t>[240.2323419629422, 223.52202946521848, 249.24255568120785, 208.80302470270874]</t>
+  </si>
+  <si>
+    <t>[263.0176592217716, 759.5569560811422]</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1142,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1167,52 +1209,52 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="J2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="K2" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="L2" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="M2" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="N2" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="O2" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="P2" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="Q2" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="R2" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1223,52 +1265,52 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="I3" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J3" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="K3" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="L3" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="M3" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="N3" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="O3" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="P3" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="Q3" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="R3" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1279,52 +1321,52 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="I4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="J4" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="K4" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="L4" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="M4" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="N4" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="O4" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="P4" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="Q4" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="R4" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1335,52 +1377,52 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H5" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="I5" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="J5" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="K5" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="L5" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="M5" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="N5" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="O5" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="P5" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="Q5" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="R5" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1391,52 +1433,52 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H6" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="I6" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="J6" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="K6" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="L6" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="M6" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="N6" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="O6" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="P6" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="Q6" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="R6" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1447,52 +1489,52 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="J7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="K7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="L7" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="M7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="N7" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="O7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="P7" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="Q7" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="R7" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1503,52 +1545,52 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H8" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="I8" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="J8" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="K8" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="L8" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="M8" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="N8" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="O8" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="P8" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="Q8" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="R8" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1559,52 +1601,52 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G9" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="I9" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="J9" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="K9" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="L9" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="M9" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="N9" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="O9" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="P9" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="Q9" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="R9" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1615,52 +1657,52 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H10" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I10" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="J10" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="K10" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L10" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="M10" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="N10" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="O10" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="P10" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="Q10" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="R10" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1671,52 +1713,52 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="H11" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="I11" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="K11" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L11" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="M11" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="N11" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="O11" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="P11" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="Q11" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="R11" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1727,52 +1769,52 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H12" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="I12" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="J12" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="K12" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="L12" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="M12" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="N12" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="O12" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="P12" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q12" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="R12" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1783,52 +1825,52 @@
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H13" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="I13" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="K13" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="L13" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="M13" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="N13" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="O13" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="P13" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Q13" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="R13" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1839,52 +1881,52 @@
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H14" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="J14" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="K14" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="M14" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="N14" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="O14" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="P14" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="Q14" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="R14" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1895,52 +1937,108 @@
         <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G15" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H15" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="I15" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="J15" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K15" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="N15" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="O15" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="P15" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q15" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="R15" t="s">
-        <v>242</v>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" t="s">
+        <v>121</v>
+      </c>
+      <c r="I16" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" t="s">
+        <v>151</v>
+      </c>
+      <c r="K16" t="s">
+        <v>166</v>
+      </c>
+      <c r="L16" t="s">
+        <v>181</v>
+      </c>
+      <c r="M16" t="s">
+        <v>196</v>
+      </c>
+      <c r="N16" t="s">
+        <v>211</v>
+      </c>
+      <c r="O16" t="s">
+        <v>218</v>
+      </c>
+      <c r="P16" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>241</v>
+      </c>
+      <c r="R16" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/outs/strips1.xlsx
+++ b/outs/strips1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="238">
   <si>
     <t>image</t>
   </si>
@@ -79,487 +79,454 @@
     <t>['S015_020_030_019', 'S016_999_999_099', 'S017_010_009_001', 'S018_031_999_999', 'S019_070_999_999', 'S020_999_999_069', 'S021_116_115_100', 'S022_045_144_130', 'S023_191_190_181']</t>
   </si>
   <si>
-    <t>['S024_043_055_042', 'S025_159_171_158', 'S026_086_999_085']</t>
-  </si>
-  <si>
-    <t>['S027_003_011_002', 'S028_022_032_021', 'S029_072_071_056', 'S030_102_117_101', 'S031_132_146_131', 'S032_999_999_172', 'S033_183_192_182', 'S088_999_999_999']</t>
-  </si>
-  <si>
-    <t>['S034_004_012_999', 'S035_045_999_044', 'S036_073_087_999', 'S037_161_173_160', 'S038_184_193_999', 'S039_034_033_023', 'S040_119_118_999', 'S041_148_147_133']</t>
-  </si>
-  <si>
-    <t>['S042_014_999_999', 'S043_024_999_013', 'S044_104_103_088', 'S045_059_058_046', 'S046_163_999_999', 'S047_999_999_174', 'S048_195_194_185']</t>
-  </si>
-  <si>
-    <t>['S049_006_015_005', 'S050_075_074_999', 'S051_999_134_120', 'S052_999_163_149', 'S053_036_047_035', 'S054_999_105_089', 'S055_176_175_164']</t>
-  </si>
-  <si>
-    <t>['S056_026_025_999', 'S057_136_135_121', 'S058_187_196_186', 'S059_017_016_007', 'S060_061_076_060', 'S061_091_090_076', 'S062_151_165_150', 'S091_999_999_999']</t>
-  </si>
-  <si>
-    <t>['S063_049_048_037', 'S064_062_999_999', 'S065_107_122_106', 'S066_018_999_008', 'S067_178_177_166', 'S068_198_197_188']</t>
-  </si>
-  <si>
-    <t>['S069_028_038_027', 'S070_999_063_999', 'S071_078_092_077', 'S072_138_137_123', 'S073_189_999_999', 'S074_153_999_152', 'S075_179_999_167']</t>
-  </si>
-  <si>
-    <t>['S076_051_050_039', 'S077_999_093_999', 'S078_109_124_108', 'S079_154_999_999', 'S080_168_999_999', 'S081_065_079_064', 'S089_999_999_999']</t>
-  </si>
-  <si>
-    <t>['S082_080_999_999', 'S083_140_155_139', 'S084_999_999_094', 'S085_126_999_125']</t>
-  </si>
-  <si>
-    <t>['S086_111_110_095', 'S090_999_999_999']</t>
-  </si>
-  <si>
-    <t>['1895', '2656', '2655', '2257']</t>
-  </si>
-  <si>
-    <t>['3417', '4178', '4180']</t>
-  </si>
-  <si>
-    <t>['4940', '5002', '4940', '5701', '5701', '5700', '5700', '5697', '5044']</t>
-  </si>
-  <si>
-    <t>['6462', '6462', '7223', '7223', '7285', '7222', '7223', '7222', '7223']</t>
-  </si>
-  <si>
-    <t>['7984', '7984', '8746']</t>
-  </si>
-  <si>
-    <t>['9514', '9507', '9502', '9506', '9507', '9509', '9507', '10017']</t>
-  </si>
-  <si>
-    <t>['11029', '11029', '11029', '11029', '11028', '11791', '11789', '11793']</t>
-  </si>
-  <si>
-    <t>['12614', '12552', '12552', '13312', '13375', '13313', '13314']</t>
-  </si>
-  <si>
-    <t>['14074', '14074', '14071', '14076', '14835', '14835', '14835']</t>
-  </si>
-  <si>
-    <t>['15594', '15596', '15596', '16357', '16357', '16359', '16356', '15598']</t>
-  </si>
-  <si>
-    <t>['17119', '17181', '17119', '17880', '17881', '17881']</t>
-  </si>
-  <si>
-    <t>['18641', '18638', '18641', '18641', '18643', '19399', '19402']</t>
-  </si>
-  <si>
-    <t>['20161', '20163', '20163', '20226', '20163', '20925', '19802']</t>
-  </si>
-  <si>
-    <t>['21685', '21686', '22447', '22446']</t>
-  </si>
-  <si>
-    <t>['23210', '22596']</t>
-  </si>
-  <si>
-    <t>['11230', '9911', '12546', '8801']</t>
-  </si>
-  <si>
-    <t>['14745', '7274', '12546']</t>
-  </si>
-  <si>
-    <t>['8593', '15625', '16503', '5516', '8153', '9911', '15185', '18702', '18494']</t>
-  </si>
-  <si>
-    <t>['4198', '12108', '2000', '4637', '9032', '9913', '12548', '15185', '20458']</t>
-  </si>
-  <si>
-    <t>['6835', '17382', '10790']</t>
-  </si>
-  <si>
-    <t>['1560', '4198', '8597', '12109', '14745', '19141', '20019', '1099']</t>
-  </si>
-  <si>
-    <t>['1561', '6835', '9472', '17382', '20021', '4637', '12546', '15182']</t>
-  </si>
-  <si>
-    <t>['2440', '3319', '11229', '7274', '16943', '18701', '20458']</t>
-  </si>
-  <si>
-    <t>['1561', '8590', '13864', '16502', '5516', '10790', '17822']</t>
-  </si>
-  <si>
-    <t>['3318', '13866', '20019', '2000', '8153', '9912', '16065', '21361']</t>
-  </si>
-  <si>
-    <t>['5956', '7714', '12108', '2000', '17825', '20458']</t>
-  </si>
-  <si>
-    <t>['4198', '6837', '9472', '13866', '19141', '16065', '17822']</t>
-  </si>
-  <si>
-    <t>['5957', '9472', '12108', '15625', '16503', '8153', '3528']</t>
-  </si>
-  <si>
-    <t>['8590', '14745', '10790', '13429']</t>
-  </si>
-  <si>
-    <t>['11229', '14104']</t>
-  </si>
-  <si>
-    <t>[295, 303, 305, 302]</t>
-  </si>
-  <si>
-    <t>[310, 317, 319]</t>
-  </si>
-  <si>
-    <t>[324, 331, 325, 329, 328, 332, 335, 343, 329]</t>
-  </si>
-  <si>
-    <t>[335, 338, 340, 340, 343, 343, 344, 345, 350]</t>
-  </si>
-  <si>
-    <t>[348, 354, 353]</t>
-  </si>
-  <si>
-    <t>[349, 356, 361, 360, 361, 365, 366, 359]</t>
-  </si>
-  <si>
-    <t>[364, 364, 368, 374, 377, 369, 375, 374]</t>
-  </si>
-  <si>
-    <t>[373, 374, 377, 381, 388, 383, 387]</t>
-  </si>
-  <si>
-    <t>[380, 387, 393, 388, 388, 394, 394]</t>
-  </si>
-  <si>
-    <t>[389, 397, 399, 390, 399, 399, 404, 394]</t>
-  </si>
-  <si>
-    <t>[400, 405, 407, 395, 409, 406]</t>
-  </si>
-  <si>
-    <t>[404, 414, 413, 416, 412, 421, 416]</t>
-  </si>
-  <si>
-    <t>[417, 423, 424, 422, 421, 425, 409]</t>
-  </si>
-  <si>
-    <t>[428, 433, 440, 438]</t>
-  </si>
-  <si>
-    <t>[443, 440]</t>
-  </si>
-  <si>
-    <t>[355, 354, 358, 358]</t>
-  </si>
-  <si>
-    <t>[359, 358, 360]</t>
-  </si>
-  <si>
-    <t>[360, 360, 363, 359, 360, 355, 361, 360, 364]</t>
-  </si>
-  <si>
-    <t>[361, 363, 360, 358, 360, 357, 361, 362, 366]</t>
-  </si>
-  <si>
-    <t>[361, 367, 359]</t>
-  </si>
-  <si>
-    <t>[363, 360, 357, 362, 361, 365, 365, 360]</t>
-  </si>
-  <si>
-    <t>[363, 362, 361, 366, 364, 362, 366, 366]</t>
-  </si>
-  <si>
-    <t>[365, 364, 363, 366, 368, 368, 368]</t>
-  </si>
-  <si>
-    <t>[365, 368, 368, 367, 364, 363, 370]</t>
-  </si>
-  <si>
-    <t>[366, 367, 368, 369, 368, 363, 367, 370]</t>
-  </si>
-  <si>
-    <t>[368, 368, 369, 370, 372, 371]</t>
-  </si>
-  <si>
-    <t>[367, 367, 367, 368, 371, 370, 373]</t>
-  </si>
-  <si>
-    <t>[369, 367, 371, 369, 371, 368, 369]</t>
-  </si>
-  <si>
-    <t>[371, 369, 367, 370]</t>
-  </si>
-  <si>
-    <t>[370, 369]</t>
-  </si>
-  <si>
-    <t>[342, 346, 348, 228]</t>
-  </si>
-  <si>
-    <t>[357, 362, 364]</t>
-  </si>
-  <si>
-    <t>[365, 370, 371, 366, 372, 369, 374, 376, 256]</t>
-  </si>
-  <si>
-    <t>[366, 374, 369, 368, 374, 376, 376, 378, 385]</t>
-  </si>
-  <si>
-    <t>[374, 381, 379]</t>
-  </si>
-  <si>
-    <t>[368, 375, 382, 382, 383, 387, 387, 369]</t>
-  </si>
-  <si>
-    <t>[377, 378, 382, 387, 391, 379, 387, 386]</t>
-  </si>
-  <si>
-    <t>[374, 380, 387, 384, 491, 392, 393]</t>
-  </si>
-  <si>
-    <t>[379, 387, 394, 392, 385, 390, 392]</t>
-  </si>
-  <si>
-    <t>[382, 394, 392, 382, 390, 389, 396, 390]</t>
-  </si>
-  <si>
-    <t>[391, 391, 395, 380, 393, 395]</t>
-  </si>
-  <si>
-    <t>[386, 397, 397, 396, 392, 403, 397]</t>
-  </si>
-  <si>
-    <t>[395, 397, 403, 397, 402, 400, 495]</t>
-  </si>
-  <si>
-    <t>[398, 406, 409, 412]</t>
-  </si>
-  <si>
-    <t>[410, 519]</t>
-  </si>
-  <si>
-    <t>[354, 351, 357, 291]</t>
-  </si>
-  <si>
-    <t>[354, 357, 358]</t>
-  </si>
-  <si>
-    <t>[355, 357, 359, 354, 354, 351, 356, 357, 423]</t>
-  </si>
-  <si>
-    <t>[354, 356, 357, 353, 354, 354, 357, 357, 360]</t>
-  </si>
-  <si>
-    <t>[354, 360, 353]</t>
-  </si>
-  <si>
-    <t>[357, 353, 352, 354, 354, 357, 358, 225]</t>
-  </si>
-  <si>
-    <t>[357, 357, 352, 361, 357, 356, 358, 359]</t>
-  </si>
-  <si>
-    <t>[360, 358, 357, 360, 472, 361, 360]</t>
-  </si>
-  <si>
-    <t>[362, 362, 358, 361, 360, 357, 362]</t>
-  </si>
-  <si>
-    <t>[363, 361, 362, 364, 361, 359, 359, 488]</t>
-  </si>
-  <si>
-    <t>[360, 365, 361, 364, 364, 364]</t>
-  </si>
-  <si>
-    <t>[366, 361, 360, 364, 365, 362, 366]</t>
-  </si>
-  <si>
-    <t>[364, 362, 364, 364, 365, 365, 297]</t>
-  </si>
-  <si>
-    <t>[367, 361, 362, 366]</t>
-  </si>
-  <si>
-    <t>[367, 423]</t>
-  </si>
-  <si>
-    <t>[1817, 2586, 2587, 2186]</t>
-  </si>
-  <si>
-    <t>[3354, 4122, 4126]</t>
-  </si>
-  <si>
-    <t>[4891, 4960, 4892, 5657, 5656, 5659, 5662, 5667, 5000]</t>
-  </si>
-  <si>
-    <t>[6424, 6427, 7190, 7190, 7255, 7192, 7194, 7194, 7200]</t>
-  </si>
-  <si>
-    <t>[7959, 7965, 8726]</t>
-  </si>
-  <si>
-    <t>[9490, 9490, 9490, 9493, 9495, 9501, 9500, 10003]</t>
-  </si>
-  <si>
-    <t>[11020, 11020, 11024, 11030, 11032, 11787, 11791, 11794]</t>
-  </si>
-  <si>
-    <t>[12614, 12553, 12556, 13320, 13390, 13323, 13328]</t>
-  </si>
-  <si>
-    <t>[14081, 14088, 14091, 14091, 14850, 14856, 14856]</t>
-  </si>
-  <si>
-    <t>[15610, 15620, 15622, 16374, 16383, 16385, 16387, 15619]</t>
-  </si>
-  <si>
-    <t>[17146, 17213, 17153, 17902, 17917, 17914]</t>
-  </si>
-  <si>
-    <t>[18672, 18679, 18681, 18684, 18682, 19447, 19445]</t>
-  </si>
-  <si>
-    <t>[20205, 20213, 20214, 20275, 20211, 20977, 19838]</t>
-  </si>
-  <si>
-    <t>[21740, 21746, 22514, 22511]</t>
-  </si>
-  <si>
-    <t>[23280, 22663]</t>
-  </si>
-  <si>
-    <t>[11212, 9892, 12531, 8786]</t>
-  </si>
-  <si>
-    <t>[14731, 7259, 12533]</t>
-  </si>
-  <si>
-    <t>[8580, 15612, 16493, 5502, 8140, 9893, 15173, 18689, 18485]</t>
-  </si>
-  <si>
-    <t>[4186, 12098, 1987, 4622, 9019, 9897, 12536, 15174, 20451]</t>
-  </si>
-  <si>
-    <t>[6823, 17376, 10776]</t>
-  </si>
-  <si>
-    <t>[1550, 4185, 8581, 12098, 14733, 19133, 20011, 1086]</t>
-  </si>
-  <si>
-    <t>[1551, 6824, 9460, 17375, 20012, 4626, 12539, 15175]</t>
-  </si>
-  <si>
-    <t>[2432, 3310, 11219, 7267, 16938, 18696, 20453]</t>
-  </si>
-  <si>
-    <t>[1553, 8585, 13859, 16496, 5507, 10780, 17819]</t>
-  </si>
-  <si>
-    <t>[3311, 13860, 20014, 1996, 8148, 9902, 16059, 21358]</t>
-  </si>
-  <si>
-    <t>[5951, 7709, 12104, 1997, 17824, 20456]</t>
-  </si>
-  <si>
-    <t>[4192, 6831, 9466, 13861, 19139, 16062, 17822]</t>
-  </si>
-  <si>
-    <t>[5953, 9466, 12106, 15621, 16501, 8148, 3524]</t>
-  </si>
-  <si>
-    <t>[8588, 14741, 10784, 13426]</t>
-  </si>
-  <si>
-    <t>[11226, 14100]</t>
-  </si>
-  <si>
-    <t>[1864, 2629, 2630, 2112]</t>
-  </si>
-  <si>
-    <t>[3401, 4167, 4171]</t>
-  </si>
-  <si>
-    <t>[4932, 4999, 4938, 5694, 5700, 5696, 5701, 5700, 4927]</t>
-  </si>
-  <si>
-    <t>[6455, 6463, 7219, 7218, 7286, 7225, 7226, 7227, 7235]</t>
-  </si>
-  <si>
-    <t>[7985, 7992, 8752]</t>
-  </si>
-  <si>
-    <t>[9509, 9509, 9511, 9515, 9517, 9523, 9521, 10013]</t>
-  </si>
-  <si>
-    <t>[11033, 11034, 11038, 11043, 11046, 11797, 11803, 11806]</t>
-  </si>
-  <si>
-    <t>[12615, 12559, 12566, 13323, 13493, 13332, 13334]</t>
-  </si>
-  <si>
-    <t>[14080, 14088, 14092, 14095, 14847, 14852, 14854]</t>
-  </si>
-  <si>
-    <t>[15603, 15617, 15615, 16366, 16374, 16375, 16379, 15615]</t>
-  </si>
-  <si>
-    <t>[17137, 17199, 17141, 17887, 17901, 17903]</t>
-  </si>
-  <si>
-    <t>[18654, 18662, 18665, 18664, 18662, 19429, 19426]</t>
-  </si>
-  <si>
-    <t>[20183, 20187, 20193, 20250, 20192, 20952, 19924]</t>
-  </si>
-  <si>
-    <t>[21710, 21719, 22483, 22485]</t>
-  </si>
-  <si>
-    <t>[23247, 22742]</t>
-  </si>
-  <si>
-    <t>[11211, 9889, 12530, 8719]</t>
-  </si>
-  <si>
-    <t>[14726, 7258, 12531]</t>
-  </si>
-  <si>
-    <t>[8575, 15609, 16489, 5497, 8134, 9889, 15168, 18686, 18544]</t>
-  </si>
-  <si>
-    <t>[4179, 12091, 1984, 4617, 9013, 9894, 12532, 15169, 20445]</t>
-  </si>
-  <si>
-    <t>[6816, 17369, 10770]</t>
-  </si>
-  <si>
-    <t>[1544, 4178, 8576, 12090, 14726, 19125, 20004, 951]</t>
-  </si>
-  <si>
-    <t>[1545, 6819, 9451, 17370, 20005, 4620, 12531, 15168]</t>
-  </si>
-  <si>
-    <t>[2427, 3304, 11213, 7261, 17042, 18689, 20445]</t>
-  </si>
-  <si>
-    <t>[1550, 8579, 13849, 16490, 5503, 10774, 17811]</t>
-  </si>
-  <si>
-    <t>[3308, 13854, 20008, 1991, 8141, 9898, 16051, 21476]</t>
-  </si>
-  <si>
-    <t>[5943, 7706, 12096, 1991, 17816, 20449]</t>
-  </si>
-  <si>
-    <t>[4191, 6825, 9459, 13857, 19133, 16054, 17815]</t>
-  </si>
-  <si>
-    <t>[5948, 9461, 12099, 15616, 16495, 8145, 3452]</t>
-  </si>
-  <si>
-    <t>[8584, 14733, 10779, 13422]</t>
-  </si>
-  <si>
-    <t>[11223, 14154]</t>
+    <t>['S024_043_055_042', 'S025_159_171_158', 'S026_086_999_085', 'S027_003_011_002', 'S028_022_032_021', 'S029_072_071_056', 'S030_102_117_101', 'S031_132_146_131', 'S032_999_999_172', 'S033_183_192_182']</t>
+  </si>
+  <si>
+    <t>['S034_004_012_999', 'S035_045_999_044', 'S036_073_087_999', 'S037_161_173_160', 'S038_184_193_999', 'S088_999_999_999']</t>
+  </si>
+  <si>
+    <t>['S039_034_033_023', 'S040_119_118_999', 'S041_148_147_133', 'S042_014_999_999', 'S043_024_999_013', 'S044_104_103_088']</t>
+  </si>
+  <si>
+    <t>['S045_059_058_046', 'S046_163_999_999', 'S047_999_999_174', 'S048_195_194_185', 'S049_006_015_005', 'S050_075_074_999', 'S051_999_134_120', 'S052_999_163_149']</t>
+  </si>
+  <si>
+    <t>['S053_036_047_035', 'S054_999_105_089', 'S055_176_175_164', 'S056_026_025_999', 'S057_136_135_121', 'S058_187_196_186', 'S091_999_999_999']</t>
+  </si>
+  <si>
+    <t>['S059_017_016_007', 'S060_061_076_060', 'S061_091_090_076', 'S062_151_165_150', 'S063_049_048_037', 'S064_062_999_999', 'S065_107_122_106']</t>
+  </si>
+  <si>
+    <t>['S066_018_999_008', 'S067_178_177_166', 'S068_198_197_188', 'S069_028_038_027', 'S070_999_063_999', 'S071_078_092_077', 'S072_138_137_123', 'S073_189_999_999']</t>
+  </si>
+  <si>
+    <t>['S074_153_999_152', 'S075_179_999_167', 'S076_051_050_039', 'S077_999_093_999', 'S078_109_124_108', 'S079_154_999_999', 'S080_168_999_999', 'S089_999_999_999']</t>
+  </si>
+  <si>
+    <t>['S081_065_079_064', 'S082_080_999_999', 'S083_140_155_139']</t>
+  </si>
+  <si>
+    <t>['S084_999_999_094', 'S085_126_999_125', 'S086_111_110_095', 'S090_999_999_999']</t>
+  </si>
+  <si>
+    <t>['722', '1007', '1007', '857']</t>
+  </si>
+  <si>
+    <t>['1292', '1578', '1579']</t>
+  </si>
+  <si>
+    <t>['1863', '1887', '1863', '2149', '2149', '2149', '2149', '2147', '1903']</t>
+  </si>
+  <si>
+    <t>['2434', '2434', '2720', '2720', '2743', '2719', '2720', '2719', '2720']</t>
+  </si>
+  <si>
+    <t>['3005', '3005', '3291', '3579', '3576', '3574', '3576', '3576', '3577', '3576']</t>
+  </si>
+  <si>
+    <t>['4147', '4147', '4147', '4147', '4147', '3767']</t>
+  </si>
+  <si>
+    <t>['4433', '4432', '4433', '4741', '4718', '4718']</t>
+  </si>
+  <si>
+    <t>['5003', '5027', '5003', '5004', '5289', '5289', '5288', '5290']</t>
+  </si>
+  <si>
+    <t>['5574', '5574', '5574', '5859', '5860', '5860', '5860']</t>
+  </si>
+  <si>
+    <t>['6145', '6145', '6146', '6145', '6431', '6454', '6431']</t>
+  </si>
+  <si>
+    <t>['6716', '6716', '6716', '7001', '7000', '7001', '7001', '7002']</t>
+  </si>
+  <si>
+    <t>['7286', '7287', '7571', '7572', '7572', '7596', '7572', '7437']</t>
+  </si>
+  <si>
+    <t>['7858', '8143', '8143']</t>
+  </si>
+  <si>
+    <t>['8429', '8428', '8715', '8485']</t>
+  </si>
+  <si>
+    <t>['4222', '3727', '4715', '3311']</t>
+  </si>
+  <si>
+    <t>['5540', '2738', '4715']</t>
+  </si>
+  <si>
+    <t>['3233', '5870', '6199', '2079', '3068', '3727', '5705', '7024', '6946']</t>
+  </si>
+  <si>
+    <t>['1585', '4551', '761', '1749', '3398', '3728', '4716', '5705', '7682']</t>
+  </si>
+  <si>
+    <t>['2573', '6529', '4057', '595', '1585', '3234', '4551', '5540', '7188', '7518']</t>
+  </si>
+  <si>
+    <t>['596', '2573', '3562', '6529', '7518', '423']</t>
+  </si>
+  <si>
+    <t>['1749', '4715', '5704', '926', '1255', '4221']</t>
+  </si>
+  <si>
+    <t>['2738', '6364', '7023', '7682', '596', '3232', '5209', '6199']</t>
+  </si>
+  <si>
+    <t>['2079', '4057', '6694', '1255', '5210', '7518', '8021']</t>
+  </si>
+  <si>
+    <t>['761', '3068', '3727', '6035', '2244', '2903', '4551']</t>
+  </si>
+  <si>
+    <t>['761', '6695', '7682', '1585', '2574', '3562', '5210', '7188']</t>
+  </si>
+  <si>
+    <t>['6035', '6694', '2244', '3562', '4551', '5870', '6199', '1333']</t>
+  </si>
+  <si>
+    <t>['3068', '3232', '5540']</t>
+  </si>
+  <si>
+    <t>['4057', '5046', '4221', '5299']</t>
+  </si>
+  <si>
+    <t>[127, 127, 127, 127]</t>
+  </si>
+  <si>
+    <t>[132, 131, 133]</t>
+  </si>
+  <si>
+    <t>[136, 135, 137, 137, 137, 137, 137, 140, 136]</t>
+  </si>
+  <si>
+    <t>[140, 140, 142, 141, 142, 143, 142, 142, 143]</t>
+  </si>
+  <si>
+    <t>[143, 144, 145, 145, 146, 149, 148, 148, 149, 149]</t>
+  </si>
+  <si>
+    <t>[150, 149, 151, 153, 150, 150]</t>
+  </si>
+  <si>
+    <t>[151, 153, 155, 152, 153, 154]</t>
+  </si>
+  <si>
+    <t>[155, 158, 159, 158, 155, 157, 162, 158]</t>
+  </si>
+  <si>
+    <t>[157, 160, 160, 158, 161, 161, 162]</t>
+  </si>
+  <si>
+    <t>[159, 162, 161, 161, 158, 162, 164]</t>
+  </si>
+  <si>
+    <t>[157, 166, 164, 163, 167, 166, 169, 165]</t>
+  </si>
+  <si>
+    <t>[169, 167, 167, 170, 168, 163, 169, 163]</t>
+  </si>
+  <si>
+    <t>[169, 170, 173]</t>
+  </si>
+  <si>
+    <t>[173, 174, 175, 174]</t>
+  </si>
+  <si>
+    <t>[145, 145, 144, 143]</t>
+  </si>
+  <si>
+    <t>[146, 145, 145]</t>
+  </si>
+  <si>
+    <t>[143, 145, 147, 145, 141, 142, 144, 144, 147]</t>
+  </si>
+  <si>
+    <t>[144, 146, 143, 145, 143, 144, 145, 144, 147]</t>
+  </si>
+  <si>
+    <t>[144, 145, 143, 144, 143, 143, 145, 145, 147, 146]</t>
+  </si>
+  <si>
+    <t>[143, 146, 145, 146, 145, 140]</t>
+  </si>
+  <si>
+    <t>[144, 145, 142, 144, 144, 145]</t>
+  </si>
+  <si>
+    <t>[144, 143, 146, 147, 139, 144, 147, 144]</t>
+  </si>
+  <si>
+    <t>[144, 144, 144, 144, 145, 146, 146]</t>
+  </si>
+  <si>
+    <t>[144, 143, 141, 140, 140, 144, 144]</t>
+  </si>
+  <si>
+    <t>[140, 144, 146, 145, 143, 144, 145, 146]</t>
+  </si>
+  <si>
+    <t>[144, 146, 145, 145, 145, 140, 146, 145]</t>
+  </si>
+  <si>
+    <t>[144, 145, 145]</t>
+  </si>
+  <si>
+    <t>[145, 144, 146, 144]</t>
+  </si>
+  <si>
+    <t>[140, 143, 143, 103]</t>
+  </si>
+  <si>
+    <t>[146, 146, 147]</t>
+  </si>
+  <si>
+    <t>[148, 150, 150, 147, 149, 149, 150, 151, 107]</t>
+  </si>
+  <si>
+    <t>[150, 148, 150, 150, 148, 151, 149, 152, 152]</t>
+  </si>
+  <si>
+    <t>[151, 152, 151, 147, 151, 152, 153, 153, 155, 154]</t>
+  </si>
+  <si>
+    <t>[153, 154, 152, 154, 157, 155]</t>
+  </si>
+  <si>
+    <t>[153, 153, 154, 152, 153, 155]</t>
+  </si>
+  <si>
+    <t>[155, 156, 157, 156, 153, 154, 157, 157]</t>
+  </si>
+  <si>
+    <t>[154, 157, 159, 154, 157, 156, 157]</t>
+  </si>
+  <si>
+    <t>[152, 157, 154, 158, 156, 155, 156]</t>
+  </si>
+  <si>
+    <t>[153, 159, 158, 155, 159, 157, 159, 158]</t>
+  </si>
+  <si>
+    <t>[158, 159, 156, 159, 159, 158, 157, 194]</t>
+  </si>
+  <si>
+    <t>[158, 153, 159]</t>
+  </si>
+  <si>
+    <t>[158, 161, 160, 201]</t>
+  </si>
+  <si>
+    <t>[142, 142, 143, 117]</t>
+  </si>
+  <si>
+    <t>[142, 142, 142]</t>
+  </si>
+  <si>
+    <t>[143, 142, 142, 141, 141, 141, 142, 144, 168]</t>
+  </si>
+  <si>
+    <t>[141, 139, 140, 141, 143, 141, 141, 141, 144]</t>
+  </si>
+  <si>
+    <t>[142, 143, 140, 141, 139, 140, 142, 141, 145, 144]</t>
+  </si>
+  <si>
+    <t>[139, 137, 141, 143, 144, 94]</t>
+  </si>
+  <si>
+    <t>[137, 141, 143, 139, 140, 140]</t>
+  </si>
+  <si>
+    <t>[140, 142, 144, 144, 138, 141, 143, 142]</t>
+  </si>
+  <si>
+    <t>[141, 141, 143, 140, 142, 143, 191]</t>
+  </si>
+  <si>
+    <t>[140, 141, 141, 142, 140, 141, 141]</t>
+  </si>
+  <si>
+    <t>[141, 142, 144, 139, 140, 141, 143, 145]</t>
+  </si>
+  <si>
+    <t>[142, 144, 142, 142, 142, 141, 141, 116]</t>
+  </si>
+  <si>
+    <t>[142, 141, 141]</t>
+  </si>
+  <si>
+    <t>[141, 141, 142, 163]</t>
+  </si>
+  <si>
+    <t>[709, 994, 994, 844]</t>
+  </si>
+  <si>
+    <t>[1284, 1569, 1572]</t>
+  </si>
+  <si>
+    <t>[1859, 1882, 1860, 2146, 2146, 2146, 2146, 2147, 1899]</t>
+  </si>
+  <si>
+    <t>[2434, 2434, 2722, 2721, 2745, 2722, 2722, 2721, 2723]</t>
+  </si>
+  <si>
+    <t>[3008, 3009, 3296, 3584, 3582, 3583, 3584, 3584, 3586, 3585]</t>
+  </si>
+  <si>
+    <t>[4157, 4156, 4158, 4160, 4157, 3777]</t>
+  </si>
+  <si>
+    <t>[4444, 4445, 4448, 4753, 4731, 4732]</t>
+  </si>
+  <si>
+    <t>[5018, 5045, 5022, 5022, 5304, 5306, 5310, 5308]</t>
+  </si>
+  <si>
+    <t>[5591, 5594, 5594, 5877, 5881, 5881, 5882]</t>
+  </si>
+  <si>
+    <t>[6164, 6167, 6167, 6166, 6449, 6476, 6455]</t>
+  </si>
+  <si>
+    <t>[6733, 6742, 6740, 7024, 7027, 7027, 7030, 7027]</t>
+  </si>
+  <si>
+    <t>[7315, 7314, 7598, 7602, 7600, 7619, 7601, 7460]</t>
+  </si>
+  <si>
+    <t>[7887, 8173, 8176]</t>
+  </si>
+  <si>
+    <t>[8462, 8462, 8750, 8519]</t>
+  </si>
+  <si>
+    <t>[4227, 3732, 4719, 3314]</t>
+  </si>
+  <si>
+    <t>[5546, 2743, 4720]</t>
+  </si>
+  <si>
+    <t>[3236, 5875, 6206, 2084, 3069, 3729, 5709, 7028, 6953]</t>
+  </si>
+  <si>
+    <t>[1589, 4557, 764, 1754, 3401, 3732, 4721, 5709, 7689]</t>
+  </si>
+  <si>
+    <t>[2577, 6534, 4060, 599, 1588, 3237, 4556, 5545, 7195, 7524]</t>
+  </si>
+  <si>
+    <t>[599, 2579, 3567, 6535, 7523, 423]</t>
+  </si>
+  <si>
+    <t>[1753, 4720, 5706, 930, 1259, 4226]</t>
+  </si>
+  <si>
+    <t>[2742, 6367, 7029, 7689, 595, 3236, 5216, 6203]</t>
+  </si>
+  <si>
+    <t>[2083, 4061, 6698, 1259, 5215, 7524, 8027]</t>
+  </si>
+  <si>
+    <t>[765, 3071, 3728, 6035, 2244, 2907, 4555]</t>
+  </si>
+  <si>
+    <t>[761, 6699, 7688, 1590, 2577, 3566, 5215, 7194]</t>
+  </si>
+  <si>
+    <t>[6039, 6700, 2249, 3567, 4556, 5870, 6205, 1338]</t>
+  </si>
+  <si>
+    <t>[3072, 3237, 5545]</t>
+  </si>
+  <si>
+    <t>[4062, 5050, 4227, 5303]</t>
+  </si>
+  <si>
+    <t>[722, 1010, 1010, 820]</t>
+  </si>
+  <si>
+    <t>[1298, 1584, 1586]</t>
+  </si>
+  <si>
+    <t>[1871, 1897, 1873, 2156, 2158, 2158, 2159, 2158, 1870]</t>
+  </si>
+  <si>
+    <t>[2444, 2442, 2730, 2730, 2751, 2730, 2729, 2731, 2732]</t>
+  </si>
+  <si>
+    <t>[3016, 3017, 3302, 3586, 3587, 3586, 3589, 3589, 3592, 3590]</t>
+  </si>
+  <si>
+    <t>[4160, 4161, 4159, 4161, 4164, 3782]</t>
+  </si>
+  <si>
+    <t>[4446, 4445, 4447, 4753, 4731, 4733]</t>
+  </si>
+  <si>
+    <t>[5018, 5043, 5020, 5020, 5302, 5303, 5305, 5307]</t>
+  </si>
+  <si>
+    <t>[5588, 5591, 5593, 5873, 5877, 5876, 5877]</t>
+  </si>
+  <si>
+    <t>[6157, 6162, 6160, 6163, 6447, 6469, 6447]</t>
+  </si>
+  <si>
+    <t>[6729, 6735, 6734, 7016, 7019, 7018, 7020, 7020]</t>
+  </si>
+  <si>
+    <t>[7304, 7306, 7587, 7591, 7591, 7614, 7589, 7491]</t>
+  </si>
+  <si>
+    <t>[7876, 8156, 8162]</t>
+  </si>
+  <si>
+    <t>[8447, 8449, 8735, 8546]</t>
+  </si>
+  <si>
+    <t>[4224, 3729, 4718, 3288]</t>
+  </si>
+  <si>
+    <t>[5542, 2740, 4717]</t>
+  </si>
+  <si>
+    <t>[3236, 5872, 6201, 2080, 3069, 3728, 5707, 7028, 6974]</t>
+  </si>
+  <si>
+    <t>[1586, 4550, 761, 1750, 3401, 3729, 4717, 5706, 7686]</t>
+  </si>
+  <si>
+    <t>[2575, 6532, 4057, 596, 1584, 3234, 4553, 5541, 7193, 7522]</t>
+  </si>
+  <si>
+    <t>[595, 2570, 3563, 6532, 7522, 377]</t>
+  </si>
+  <si>
+    <t>[1746, 4716, 5707, 925, 1255, 4221]</t>
+  </si>
+  <si>
+    <t>[2738, 6366, 7027, 7686, 594, 3233, 5212, 6201]</t>
+  </si>
+  <si>
+    <t>[2080, 4058, 6697, 1255, 5212, 7521, 8072]</t>
+  </si>
+  <si>
+    <t>[761, 3069, 3728, 6037, 2244, 2904, 4552]</t>
+  </si>
+  <si>
+    <t>[762, 6697, 7686, 1584, 2574, 3563, 5213, 7193]</t>
+  </si>
+  <si>
+    <t>[6037, 6698, 2246, 3564, 4553, 5871, 6200, 1309]</t>
+  </si>
+  <si>
+    <t>[3070, 3233, 5541]</t>
+  </si>
+  <si>
+    <t>[4058, 5047, 4223, 5322]</t>
   </si>
   <si>
     <t>[-86.0, -80.0, -80.0, -83.0]</t>
@@ -571,40 +538,37 @@
     <t>[-62.0, -61.0, -62.0, -56.0, -56.0, -56.0, -56.0, -56.0, -61.0]</t>
   </si>
   <si>
-    <t>[-50.0, -50.0, -44.0, -44.0, -43.0, -44.0, -44.0, -44.0, -43.0]</t>
-  </si>
-  <si>
-    <t>[-37.0, -37.0, -31.0]</t>
-  </si>
-  <si>
-    <t>[-25.0, -25.0, -25.0, -25.0, -25.0, -25.0, -25.0, -21.0]</t>
-  </si>
-  <si>
-    <t>[-13.0, -13.0, -13.0, -13.0, -13.0, -7.0, -7.0, -7.0]</t>
-  </si>
-  <si>
-    <t>[0.0, -1.0, -1.0, 5.0, 6.0, 5.0, 5.0]</t>
-  </si>
-  <si>
-    <t>[11.0, 11.0, 11.0, 11.0, 17.0, 17.0, 17.0]</t>
-  </si>
-  <si>
-    <t>[23.0, 23.0, 23.0, 29.0, 29.0, 29.0, 29.0, 23.0]</t>
-  </si>
-  <si>
-    <t>[35.0, 36.0, 36.0, 41.0, 42.0, 42.0]</t>
-  </si>
-  <si>
-    <t>[48.0, 48.0, 48.0, 48.0, 48.0, 54.0, 54.0]</t>
-  </si>
-  <si>
-    <t>[60.0, 60.0, 60.0, 60.0, 60.0, 66.0, 57.0]</t>
-  </si>
-  <si>
-    <t>[72.0, 72.0, 78.0, 78.0]</t>
-  </si>
-  <si>
-    <t>[84.0, 79.0]</t>
+    <t>[-50.0, -50.0, -43.0, -44.0, -43.0, -43.0, -43.0, -44.0, -43.0]</t>
+  </si>
+  <si>
+    <t>[-37.0, -37.0, -31.0, -25.0, -25.0, -25.0, -25.0, -25.0, -25.0, -25.0]</t>
+  </si>
+  <si>
+    <t>[-13.0, -13.0, -13.0, -13.0, -13.0, -21.0]</t>
+  </si>
+  <si>
+    <t>[-7.0, -7.0, -7.0, 0.0, -1.0, -1.0]</t>
+  </si>
+  <si>
+    <t>[5.0, 6.0, 5.0, 5.0, 11.0, 11.0, 11.0, 11.0]</t>
+  </si>
+  <si>
+    <t>[17.0, 17.0, 17.0, 23.0, 23.0, 23.0, 23.0]</t>
+  </si>
+  <si>
+    <t>[29.0, 29.0, 29.0, 29.0, 35.0, 36.0, 36.0]</t>
+  </si>
+  <si>
+    <t>[41.0, 42.0, 42.0, 48.0, 48.0, 48.0, 48.0, 48.0]</t>
+  </si>
+  <si>
+    <t>[54.0, 54.0, 60.0, 60.0, 60.0, 60.0, 60.0, 57.0]</t>
+  </si>
+  <si>
+    <t>[66.0, 72.0, 72.0]</t>
+  </si>
+  <si>
+    <t>[78.0, 78.0, 84.0, 79.0]</t>
   </si>
   <si>
     <t>[69.0, 59.0, 80.0, 50.0]</t>
@@ -619,172 +583,151 @@
     <t>[13.0, 76.0, -4.0, 17.0, 52.0, 59.0, 80.0, 101.0, 143.0]</t>
   </si>
   <si>
-    <t>[34.0, 118.0, 66.0]</t>
-  </si>
-  <si>
-    <t>[-8.0, 13.0, 48.0, 76.0, 97.0, 132.0, 139.0, -11.0]</t>
-  </si>
-  <si>
-    <t>[-7.0, 34.0, 55.0, 118.0, 139.0, 17.0, 80.0, 101.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 6.0, 69.0, 38.0, 115.0, 129.0, 143.0]</t>
-  </si>
-  <si>
-    <t>[-7.0, 48.0, 90.0, 111.0, 24.0, 66.0, 122.0]</t>
-  </si>
-  <si>
-    <t>[6.0, 90.0, 139.0, -4.0, 45.0, 59.0, 108.0, 150.0]</t>
-  </si>
-  <si>
-    <t>[27.0, 41.0, 76.0, -4.0, 122.0, 143.0]</t>
-  </si>
-  <si>
-    <t>[13.0, 34.0, 55.0, 90.0, 132.0, 108.0, 122.0]</t>
-  </si>
-  <si>
-    <t>[27.0, 55.0, 76.0, 104.0, 111.0, 45.0, 8.0]</t>
-  </si>
-  <si>
-    <t>[48.0, 97.0, 66.0, 87.0]</t>
-  </si>
-  <si>
-    <t>[69.0, 92.0]</t>
+    <t>[34.0, 118.0, 66.0, -8.0, 13.0, 48.0, 76.0, 97.0, 132.0, 139.0]</t>
+  </si>
+  <si>
+    <t>[-8.0, 34.0, 55.0, 118.0, 139.0, -11.0]</t>
+  </si>
+  <si>
+    <t>[17.0, 80.0, 101.0, 0.0, 6.0, 69.0]</t>
+  </si>
+  <si>
+    <t>[38.0, 115.0, 129.0, 143.0, -8.0, 48.0, 90.0, 111.0]</t>
+  </si>
+  <si>
+    <t>[24.0, 66.0, 122.0, 6.0, 90.0, 139.0, 150.0]</t>
+  </si>
+  <si>
+    <t>[-4.0, 45.0, 59.0, 108.0, 27.0, 41.0, 76.0]</t>
+  </si>
+  <si>
+    <t>[-4.0, 122.0, 143.0, 13.0, 34.0, 55.0, 90.0, 132.0]</t>
+  </si>
+  <si>
+    <t>[108.0, 122.0, 27.0, 55.0, 76.0, 104.0, 111.0, 8.0]</t>
+  </si>
+  <si>
+    <t>[45.0, 48.0, 97.0]</t>
+  </si>
+  <si>
+    <t>[66.0, 87.0, 69.0, 92.0]</t>
   </si>
   <si>
     <t>[-86.0, -80.0, -80.0, -84.0]</t>
   </si>
   <si>
-    <t>[-61.0, -61.0, -61.0, -55.0, -55.0, -55.0, -55.0, -55.0, -62.0]</t>
+    <t>[-62.0, -61.0, -61.0, -55.0, -55.0, -55.0, -55.0, -55.0, -62.0]</t>
   </si>
   <si>
     <t>[-49.0, -49.0, -43.0, -43.0, -43.0, -43.0, -43.0, -43.0, -43.0]</t>
   </si>
   <si>
-    <t>[35.0, 36.0, 35.0, 41.0, 41.0, 41.0]</t>
-  </si>
-  <si>
-    <t>[47.0, 48.0, 48.0, 48.0, 48.0, 54.0, 54.0]</t>
-  </si>
-  <si>
-    <t>[60.0, 60.0, 60.0, 60.0, 60.0, 66.0, 58.0]</t>
-  </si>
-  <si>
-    <t>[84.0, 80.0]</t>
+    <t>[29.0, 29.0, 29.0, 29.0, 35.0, 36.0, 35.0]</t>
+  </si>
+  <si>
+    <t>[41.0, 41.0, 41.0, 47.0, 47.0, 47.0, 47.0, 47.0]</t>
+  </si>
+  <si>
+    <t>[53.0, 54.0, 59.0, 60.0, 60.0, 60.0, 60.0, 57.0]</t>
+  </si>
+  <si>
+    <t>[78.0, 78.0, 84.0, 80.0]</t>
   </si>
   <si>
     <t>[69.0, 59.0, 80.0, 49.0]</t>
   </si>
   <si>
-    <t>[13.0, 76.0, -4.0, 17.0, 52.0, 59.0, 80.0, 101.0, 142.0]</t>
-  </si>
-  <si>
-    <t>[-8.0, 13.0, 48.0, 76.0, 97.0, 132.0, 139.0, -12.0]</t>
-  </si>
-  <si>
-    <t>[-8.0, 34.0, 55.0, 118.0, 139.0, 17.0, 80.0, 101.0]</t>
-  </si>
-  <si>
-    <t>[-1.0, 6.0, 69.0, 38.0, 115.0, 129.0, 142.0]</t>
-  </si>
-  <si>
-    <t>[-8.0, 48.0, 90.0, 111.0, 24.0, 66.0, 122.0]</t>
-  </si>
-  <si>
-    <t>[6.0, 90.0, 139.0, -4.0, 45.0, 59.0, 108.0, 151.0]</t>
-  </si>
-  <si>
-    <t>[69.0, 93.0]</t>
-  </si>
-  <si>
-    <t>[47.01063709417264, 43.104524124504614, 43.01162633521314, 99.82484660644363]</t>
-  </si>
-  <si>
-    <t>[47.265209192385896, 45.0111097397076, 45.044422518220834]</t>
-  </si>
-  <si>
-    <t>[41.30375285612676, 39.11521443121589, 46.17358552246078, 37.33630940518894, 44.40720662234904, 37.21558813185679, 39.319206502675, 33.13608305156178, 93.86160024205851]</t>
-  </si>
-  <si>
-    <t>[31.78049716414141, 36.6742416417845, 29.154759474226502, 28.442925306655784, 31.575306807693888, 33.13608305156178, 32.2490309931942, 33.37663853655727, 35.510561809129406]</t>
-  </si>
-  <si>
-    <t>[26.92582403567252, 27.892651361962706, 26.68332812825267]</t>
-  </si>
-  <si>
-    <t>[19.924858845171276, 20.248456731316587, 21.587033144922902, 23.40939982143925, 23.08679276123039, 23.40939982143925, 22.135943621178654, 135.36986370680884]</t>
-  </si>
-  <si>
-    <t>[14.317821063276353, 14.866068747318506, 16.64331697709324, 13.92838827718412, 15.652475842498529, 11.661903789690601, 14.422205101855956, 13.892443989449804]</t>
-  </si>
-  <si>
-    <t>[5.0990195135927845, 8.48528137423857, 11.661903789690601, 6.708203932499369, 146.37281168304446, 11.40175425099138, 10.0]</t>
-  </si>
-  <si>
-    <t>[3.1622776601683795, 6.0, 10.04987562112089, 7.211102550927978, 5.0, 7.211102550927978, 8.246211251235321]</t>
-  </si>
-  <si>
-    <t>[7.615773105863909, 6.708203932499369, 9.219544457292887, 9.433981132056603, 11.40175425099138, 10.770329614269007, 11.313708498984761, 118.06777714516353]</t>
-  </si>
-  <si>
-    <t>[12.041594578792296, 14.317821063276353, 14.422205101855956, 16.15549442140351, 17.88854381999832, 13.038404810405298]</t>
-  </si>
-  <si>
-    <t>[18.027756377319946, 18.027756377319946, 17.46424919657298, 20.396078054371138, 20.8806130178211, 19.697715603592208, 20.248456731316587]</t>
-  </si>
-  <si>
-    <t>[22.561028345356956, 26.476404589747453, 22.135943621178654, 25.495097567963924, 19.924858845171276, 25.179356624028344, 112.16059914247963]</t>
-  </si>
-  <si>
-    <t>[30.265491900843113, 28.160255680657446, 31.400636936215164, 26.30589287593181]</t>
-  </si>
-  <si>
-    <t>[33.13608305156178, 95.69221493935649]</t>
-  </si>
-  <si>
-    <t>[373.1469319349953, 342.14216023825537, 341.4047840357543, 792.3597199386463]</t>
-  </si>
-  <si>
-    <t>[375.167597964563, 357.2756835589291, 357.54010373837787]</t>
-  </si>
-  <si>
-    <t>[327.84853829550616, 310.47701454777615, 366.5028350845325, 296.3569559036872, 352.4822025648955, 295.3987307966133, 312.0962016149828, 263.0176592217716, 745.0264519213395]</t>
-  </si>
-  <si>
-    <t>[252.2576962403724, 291.10179303166444, 231.41590332667286, 225.76571962158027, 250.62899778607024, 263.0176592217716, 255.9766835084789, 264.92706838392337, 281.86508435996467]</t>
-  </si>
-  <si>
-    <t>[213.72372828315062, 221.39792018557898, 211.79891701800557]</t>
-  </si>
-  <si>
-    <t>[158.15356708354702, 160.7221253048254, 171.34707558782554, 185.81211108267405, 183.25141754226624, 185.81211108267405, 175.70405249310556, 1074.4982931727952]</t>
-  </si>
-  <si>
-    <t>[113.64770468975604, 117.99942068184063, 132.10632850567757, 110.55658195014894, 124.24152699983208, 92.56636133066915, 114.47625299598165, 110.27127416625783]</t>
-  </si>
-  <si>
-    <t>[40.473467389142726, 67.35192090801864, 92.56636133066915, 53.24636871421374, 1161.8341927341653, 90.50142436724407, 79.375]</t>
-  </si>
-  <si>
-    <t>[25.10057892758651, 47.625, 79.77088774264706, 57.23812649799083, 39.6875, 57.23812649799083, 65.45430180668036]</t>
-  </si>
-  <si>
-    <t>[60.45019902779478, 53.24636871421374, 73.1801341297623, 74.8822252356993, 90.50142436724407, 85.48949131326025, 89.80256121069155, 937.1629810897356]</t>
-  </si>
-  <si>
-    <t>[95.58015696916385, 113.64770468975604, 114.47625299598165, 128.23423696989036, 141.99031657123666, 103.49233818259205]</t>
-  </si>
-  <si>
-    <t>[143.09531624497708, 143.09531624497708, 138.622477997798, 161.8938695565709, 165.739865828955, 156.35061760351314, 160.7221253048254]</t>
-  </si>
-  <si>
-    <t>[179.07816249127086, 210.15646143112042, 175.70405249310556, 202.36733694571365, 158.15356708354702, 199.86114320322497, 890.2747556934321]</t>
-  </si>
-  <si>
-    <t>[240.2323419629422, 223.52202946521848, 249.24255568120785, 208.80302470270874]</t>
-  </si>
-  <si>
-    <t>[263.0176592217716, 759.5569560811422]</t>
+    <t>[-8.0, 34.0, 55.0, 118.0, 139.0, -12.0]</t>
+  </si>
+  <si>
+    <t>[17.0, 80.0, 101.0, -1.0, 6.0, 69.0]</t>
+  </si>
+  <si>
+    <t>[24.0, 66.0, 122.0, 6.0, 90.0, 139.0, 151.0]</t>
+  </si>
+  <si>
+    <t>[13.341664064126334, 16.278820596099706, 16.0312195418814, 35.38361202590826]</t>
+  </si>
+  <si>
+    <t>[14.560219778561036, 15.297058540778355, 14.317821063276353]</t>
+  </si>
+  <si>
+    <t>[12.0, 15.297058540778355, 13.92838827718412, 10.770329614269007, 12.0, 12.041594578792296, 13.152946437965905, 11.0, 35.805027579936315]</t>
+  </si>
+  <si>
+    <t>[10.44030650891055, 10.63014581273465, 8.54400374531753, 9.848857801796104, 6.0, 8.54400374531753, 8.06225774829855, 10.44030650891055, 9.486832980505138]</t>
+  </si>
+  <si>
+    <t>[8.246211251235321, 8.246211251235321, 6.708203932499369, 3.605551275463989, 6.4031242374328485, 4.242640687119285, 5.830951894845301, 6.4031242374328485, 6.324555320336759, 5.385164807134504]</t>
+  </si>
+  <si>
+    <t>[5.0, 10.295630140987, 4.123105625617661, 3.1622776601683795, 7.0710678118654755, 46.2709412050371]</t>
+  </si>
+  <si>
+    <t>[7.280109889280518, 4.0, 1.4142135623730951, 5.0, 4.0, 5.0990195135927845]</t>
+  </si>
+  <si>
+    <t>[4.0, 2.23606797749979, 2.8284271247461903, 3.605551275463989, 2.23606797749979, 4.242640687119285, 6.4031242374328485, 2.23606797749979]</t>
+  </si>
+  <si>
+    <t>[4.242640687119285, 4.242640687119285, 1.4142135623730951, 5.656854249492381, 5.0, 5.830951894845301, 45.27692569068709]</t>
+  </si>
+  <si>
+    <t>[8.06225774829855, 5.385164807134504, 7.0, 3.605551275463989, 2.0, 7.615773105863909, 8.54400374531753]</t>
+  </si>
+  <si>
+    <t>[4.123105625617661, 7.280109889280518, 6.324555320336759, 10.0, 8.54400374531753, 9.486832980505138, 10.198039027185569, 7.0710678118654755]</t>
+  </si>
+  <si>
+    <t>[11.180339887498949, 8.246211251235321, 11.40175425099138, 11.40175425099138, 9.486832980505138, 5.0990195135927845, 13.0, 42.44997055358225]</t>
+  </si>
+  <si>
+    <t>[11.180339887498949, 17.46424919657298, 14.560219778561036]</t>
+  </si>
+  <si>
+    <t>[15.524174696260024, 13.341664064126334, 15.524174696260024, 33.015148038438355]</t>
+  </si>
+  <si>
+    <t>[282.3985560240074, 344.5683692841104, 339.3274803031563, 748.9531212150582]</t>
+  </si>
+  <si>
+    <t>[308.1913186462086, 323.78773911314187, 303.06054583934946]</t>
+  </si>
+  <si>
+    <t>[254.0, 323.78773911314187, 294.81755186706386, 227.97197683536064, 254.0, 254.88041858443694, 278.404032936945, 232.83333333333334, 757.8730837753187]</t>
+  </si>
+  <si>
+    <t>[220.98648777194, 225.00475303621675, 180.84807927588773, 208.46749013801752, 127.0, 180.84807927588773, 170.65112233898594, 220.98648777194, 200.8046314206921]</t>
+  </si>
+  <si>
+    <t>[174.54480481781428, 174.54480481781428, 141.99031657123663, 76.3175019973211, 135.5327963589953, 89.80256121069152, 123.42181510755887, 135.5327963589953, 133.8697542804614, 113.98598841768032]</t>
+  </si>
+  <si>
+    <t>[105.83333333333333, 217.92417131755818, 87.27240240890714, 66.9348771402307, 149.67093535115256, 979.4015888399518]</t>
+  </si>
+  <si>
+    <t>[154.0956593231043, 84.66666666666667, 29.934187070230514, 105.83333333333333, 84.66666666666667, 107.92924637104727]</t>
+  </si>
+  <si>
+    <t>[84.66666666666667, 47.33010552374555, 59.86837414046103, 76.3175019973211, 47.33010552374555, 89.80256121069152, 135.5327963589953, 47.33010552374555]</t>
+  </si>
+  <si>
+    <t>[89.80256121069152, 89.80256121069152, 29.934187070230514, 119.73674828092206, 105.83333333333333, 123.42181510755887, 958.36159378621]</t>
+  </si>
+  <si>
+    <t>[170.65112233898594, 113.98598841768032, 148.16666666666666, 76.3175019973211, 42.333333333333336, 161.20053074078606, 180.84807927588773]</t>
+  </si>
+  <si>
+    <t>[87.27240240890714, 154.0956593231043, 133.8697542804614, 211.66666666666666, 180.84807927588773, 200.8046314206921, 215.85849274209454, 149.67093535115256]</t>
+  </si>
+  <si>
+    <t>[236.65052761872775, 174.54480481781428, 241.3371316459842, 241.3371316459842, 200.8046314206921, 107.92924637104727, 275.1666666666667, 898.524376717491]</t>
+  </si>
+  <si>
+    <t>[236.65052761872775, 369.65994132746135, 308.1913186462086]</t>
+  </si>
+  <si>
+    <t>[328.5950310708372, 282.3985560240074, 328.5950310708372, 698.8206334802785]</t>
   </si>
 </sst>
 </file>
@@ -1142,7 +1085,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1209,52 +1152,52 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="J2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="K2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="L2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="M2" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="N2" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="O2" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="P2" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="Q2" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="R2" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1265,52 +1208,52 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="J3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="K3" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="L3" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="M3" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="N3" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="O3" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="P3" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="Q3" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="R3" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1321,52 +1264,52 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="J4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="K4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="L4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="M4" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="N4" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="O4" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="P4" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="Q4" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="R4" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1377,52 +1320,52 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I5" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="J5" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="K5" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="L5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="M5" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="N5" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="O5" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P5" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="Q5" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="R5" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1433,52 +1376,52 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J6" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="K6" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="L6" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="M6" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="N6" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="O6" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="P6" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="Q6" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="R6" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1489,52 +1432,52 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="J7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="K7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="M7" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="N7" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="O7" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="P7" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="Q7" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="R7" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1545,52 +1488,52 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="I8" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="J8" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="K8" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="L8" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="M8" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="N8" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="O8" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="P8" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="Q8" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="R8" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1601,52 +1544,52 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I9" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="J9" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="K9" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="L9" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="M9" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="N9" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="O9" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="P9" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="Q9" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="R9" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1657,52 +1600,52 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I10" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="J10" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="K10" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L10" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="M10" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="N10" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="O10" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="P10" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="Q10" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="R10" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1713,52 +1656,52 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I11" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="J11" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="K11" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="L11" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="M11" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="N11" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="O11" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="P11" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="Q11" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="R11" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1769,52 +1712,52 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="J12" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="K12" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="M12" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="N12" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="O12" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="P12" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="Q12" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="R12" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1825,52 +1768,52 @@
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H13" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="J13" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="K13" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="L13" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="M13" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="N13" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="O13" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="P13" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="Q13" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="R13" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1881,52 +1824,52 @@
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G14" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H14" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I14" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="J14" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="L14" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="N14" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="O14" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="P14" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="Q14" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="R14" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1937,108 +1880,52 @@
         <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H15" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="J15" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="K15" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="L15" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="N15" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="O15" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="P15" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="Q15" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="R15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" t="s">
-        <v>106</v>
-      </c>
-      <c r="H16" t="s">
-        <v>121</v>
-      </c>
-      <c r="I16" t="s">
-        <v>136</v>
-      </c>
-      <c r="J16" t="s">
-        <v>151</v>
-      </c>
-      <c r="K16" t="s">
-        <v>166</v>
-      </c>
-      <c r="L16" t="s">
-        <v>181</v>
-      </c>
-      <c r="M16" t="s">
-        <v>196</v>
-      </c>
-      <c r="N16" t="s">
-        <v>211</v>
-      </c>
-      <c r="O16" t="s">
-        <v>218</v>
-      </c>
-      <c r="P16" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>241</v>
-      </c>
-      <c r="R16" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/outs/strips1.xlsx
+++ b/outs/strips1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="257">
   <si>
     <t>image</t>
   </si>
@@ -79,454 +79,487 @@
     <t>['S015_020_030_019', 'S016_999_999_099', 'S017_010_009_001', 'S018_031_999_999', 'S019_070_999_999', 'S020_999_999_069', 'S021_116_115_100', 'S022_045_144_130', 'S023_191_190_181']</t>
   </si>
   <si>
-    <t>['S024_043_055_042', 'S025_159_171_158', 'S026_086_999_085', 'S027_003_011_002', 'S028_022_032_021', 'S029_072_071_056', 'S030_102_117_101', 'S031_132_146_131', 'S032_999_999_172', 'S033_183_192_182']</t>
-  </si>
-  <si>
-    <t>['S034_004_012_999', 'S035_045_999_044', 'S036_073_087_999', 'S037_161_173_160', 'S038_184_193_999', 'S088_999_999_999']</t>
-  </si>
-  <si>
-    <t>['S039_034_033_023', 'S040_119_118_999', 'S041_148_147_133', 'S042_014_999_999', 'S043_024_999_013', 'S044_104_103_088']</t>
-  </si>
-  <si>
-    <t>['S045_059_058_046', 'S046_163_999_999', 'S047_999_999_174', 'S048_195_194_185', 'S049_006_015_005', 'S050_075_074_999', 'S051_999_134_120', 'S052_999_163_149']</t>
-  </si>
-  <si>
-    <t>['S053_036_047_035', 'S054_999_105_089', 'S055_176_175_164', 'S056_026_025_999', 'S057_136_135_121', 'S058_187_196_186', 'S091_999_999_999']</t>
-  </si>
-  <si>
-    <t>['S059_017_016_007', 'S060_061_076_060', 'S061_091_090_076', 'S062_151_165_150', 'S063_049_048_037', 'S064_062_999_999', 'S065_107_122_106']</t>
-  </si>
-  <si>
-    <t>['S066_018_999_008', 'S067_178_177_166', 'S068_198_197_188', 'S069_028_038_027', 'S070_999_063_999', 'S071_078_092_077', 'S072_138_137_123', 'S073_189_999_999']</t>
-  </si>
-  <si>
-    <t>['S074_153_999_152', 'S075_179_999_167', 'S076_051_050_039', 'S077_999_093_999', 'S078_109_124_108', 'S079_154_999_999', 'S080_168_999_999', 'S089_999_999_999']</t>
-  </si>
-  <si>
-    <t>['S081_065_079_064', 'S082_080_999_999', 'S083_140_155_139']</t>
-  </si>
-  <si>
-    <t>['S084_999_999_094', 'S085_126_999_125', 'S086_111_110_095', 'S090_999_999_999']</t>
-  </si>
-  <si>
-    <t>['722', '1007', '1007', '857']</t>
-  </si>
-  <si>
-    <t>['1292', '1578', '1579']</t>
-  </si>
-  <si>
-    <t>['1863', '1887', '1863', '2149', '2149', '2149', '2149', '2147', '1903']</t>
-  </si>
-  <si>
-    <t>['2434', '2434', '2720', '2720', '2743', '2719', '2720', '2719', '2720']</t>
-  </si>
-  <si>
-    <t>['3005', '3005', '3291', '3579', '3576', '3574', '3576', '3576', '3577', '3576']</t>
-  </si>
-  <si>
-    <t>['4147', '4147', '4147', '4147', '4147', '3767']</t>
-  </si>
-  <si>
-    <t>['4433', '4432', '4433', '4741', '4718', '4718']</t>
-  </si>
-  <si>
-    <t>['5003', '5027', '5003', '5004', '5289', '5289', '5288', '5290']</t>
-  </si>
-  <si>
-    <t>['5574', '5574', '5574', '5859', '5860', '5860', '5860']</t>
-  </si>
-  <si>
-    <t>['6145', '6145', '6146', '6145', '6431', '6454', '6431']</t>
-  </si>
-  <si>
-    <t>['6716', '6716', '6716', '7001', '7000', '7001', '7001', '7002']</t>
-  </si>
-  <si>
-    <t>['7286', '7287', '7571', '7572', '7572', '7596', '7572', '7437']</t>
-  </si>
-  <si>
-    <t>['7858', '8143', '8143']</t>
-  </si>
-  <si>
-    <t>['8429', '8428', '8715', '8485']</t>
-  </si>
-  <si>
-    <t>['4222', '3727', '4715', '3311']</t>
-  </si>
-  <si>
-    <t>['5540', '2738', '4715']</t>
-  </si>
-  <si>
-    <t>['3233', '5870', '6199', '2079', '3068', '3727', '5705', '7024', '6946']</t>
-  </si>
-  <si>
-    <t>['1585', '4551', '761', '1749', '3398', '3728', '4716', '5705', '7682']</t>
-  </si>
-  <si>
-    <t>['2573', '6529', '4057', '595', '1585', '3234', '4551', '5540', '7188', '7518']</t>
-  </si>
-  <si>
-    <t>['596', '2573', '3562', '6529', '7518', '423']</t>
-  </si>
-  <si>
-    <t>['1749', '4715', '5704', '926', '1255', '4221']</t>
-  </si>
-  <si>
-    <t>['2738', '6364', '7023', '7682', '596', '3232', '5209', '6199']</t>
-  </si>
-  <si>
-    <t>['2079', '4057', '6694', '1255', '5210', '7518', '8021']</t>
-  </si>
-  <si>
-    <t>['761', '3068', '3727', '6035', '2244', '2903', '4551']</t>
-  </si>
-  <si>
-    <t>['761', '6695', '7682', '1585', '2574', '3562', '5210', '7188']</t>
-  </si>
-  <si>
-    <t>['6035', '6694', '2244', '3562', '4551', '5870', '6199', '1333']</t>
-  </si>
-  <si>
-    <t>['3068', '3232', '5540']</t>
-  </si>
-  <si>
-    <t>['4057', '5046', '4221', '5299']</t>
-  </si>
-  <si>
-    <t>[127, 127, 127, 127]</t>
-  </si>
-  <si>
-    <t>[132, 131, 133]</t>
-  </si>
-  <si>
-    <t>[136, 135, 137, 137, 137, 137, 137, 140, 136]</t>
-  </si>
-  <si>
-    <t>[140, 140, 142, 141, 142, 143, 142, 142, 143]</t>
-  </si>
-  <si>
-    <t>[143, 144, 145, 145, 146, 149, 148, 148, 149, 149]</t>
-  </si>
-  <si>
-    <t>[150, 149, 151, 153, 150, 150]</t>
-  </si>
-  <si>
-    <t>[151, 153, 155, 152, 153, 154]</t>
-  </si>
-  <si>
-    <t>[155, 158, 159, 158, 155, 157, 162, 158]</t>
-  </si>
-  <si>
-    <t>[157, 160, 160, 158, 161, 161, 162]</t>
-  </si>
-  <si>
-    <t>[159, 162, 161, 161, 158, 162, 164]</t>
-  </si>
-  <si>
-    <t>[157, 166, 164, 163, 167, 166, 169, 165]</t>
-  </si>
-  <si>
-    <t>[169, 167, 167, 170, 168, 163, 169, 163]</t>
-  </si>
-  <si>
-    <t>[169, 170, 173]</t>
-  </si>
-  <si>
-    <t>[173, 174, 175, 174]</t>
-  </si>
-  <si>
-    <t>[145, 145, 144, 143]</t>
-  </si>
-  <si>
-    <t>[146, 145, 145]</t>
-  </si>
-  <si>
-    <t>[143, 145, 147, 145, 141, 142, 144, 144, 147]</t>
-  </si>
-  <si>
-    <t>[144, 146, 143, 145, 143, 144, 145, 144, 147]</t>
-  </si>
-  <si>
-    <t>[144, 145, 143, 144, 143, 143, 145, 145, 147, 146]</t>
-  </si>
-  <si>
-    <t>[143, 146, 145, 146, 145, 140]</t>
-  </si>
-  <si>
-    <t>[144, 145, 142, 144, 144, 145]</t>
-  </si>
-  <si>
-    <t>[144, 143, 146, 147, 139, 144, 147, 144]</t>
-  </si>
-  <si>
-    <t>[144, 144, 144, 144, 145, 146, 146]</t>
-  </si>
-  <si>
-    <t>[144, 143, 141, 140, 140, 144, 144]</t>
-  </si>
-  <si>
-    <t>[140, 144, 146, 145, 143, 144, 145, 146]</t>
-  </si>
-  <si>
-    <t>[144, 146, 145, 145, 145, 140, 146, 145]</t>
-  </si>
-  <si>
-    <t>[144, 145, 145]</t>
-  </si>
-  <si>
-    <t>[145, 144, 146, 144]</t>
-  </si>
-  <si>
-    <t>[140, 143, 143, 103]</t>
-  </si>
-  <si>
-    <t>[146, 146, 147]</t>
-  </si>
-  <si>
-    <t>[148, 150, 150, 147, 149, 149, 150, 151, 107]</t>
-  </si>
-  <si>
-    <t>[150, 148, 150, 150, 148, 151, 149, 152, 152]</t>
-  </si>
-  <si>
-    <t>[151, 152, 151, 147, 151, 152, 153, 153, 155, 154]</t>
-  </si>
-  <si>
-    <t>[153, 154, 152, 154, 157, 155]</t>
-  </si>
-  <si>
-    <t>[153, 153, 154, 152, 153, 155]</t>
-  </si>
-  <si>
-    <t>[155, 156, 157, 156, 153, 154, 157, 157]</t>
-  </si>
-  <si>
-    <t>[154, 157, 159, 154, 157, 156, 157]</t>
-  </si>
-  <si>
-    <t>[152, 157, 154, 158, 156, 155, 156]</t>
-  </si>
-  <si>
-    <t>[153, 159, 158, 155, 159, 157, 159, 158]</t>
-  </si>
-  <si>
-    <t>[158, 159, 156, 159, 159, 158, 157, 194]</t>
-  </si>
-  <si>
-    <t>[158, 153, 159]</t>
-  </si>
-  <si>
-    <t>[158, 161, 160, 201]</t>
-  </si>
-  <si>
-    <t>[142, 142, 143, 117]</t>
-  </si>
-  <si>
-    <t>[142, 142, 142]</t>
-  </si>
-  <si>
-    <t>[143, 142, 142, 141, 141, 141, 142, 144, 168]</t>
-  </si>
-  <si>
-    <t>[141, 139, 140, 141, 143, 141, 141, 141, 144]</t>
-  </si>
-  <si>
-    <t>[142, 143, 140, 141, 139, 140, 142, 141, 145, 144]</t>
-  </si>
-  <si>
-    <t>[139, 137, 141, 143, 144, 94]</t>
-  </si>
-  <si>
-    <t>[137, 141, 143, 139, 140, 140]</t>
-  </si>
-  <si>
-    <t>[140, 142, 144, 144, 138, 141, 143, 142]</t>
-  </si>
-  <si>
-    <t>[141, 141, 143, 140, 142, 143, 191]</t>
-  </si>
-  <si>
-    <t>[140, 141, 141, 142, 140, 141, 141]</t>
-  </si>
-  <si>
-    <t>[141, 142, 144, 139, 140, 141, 143, 145]</t>
-  </si>
-  <si>
-    <t>[142, 144, 142, 142, 142, 141, 141, 116]</t>
-  </si>
-  <si>
-    <t>[142, 141, 141]</t>
-  </si>
-  <si>
-    <t>[141, 141, 142, 163]</t>
-  </si>
-  <si>
-    <t>[709, 994, 994, 844]</t>
-  </si>
-  <si>
-    <t>[1284, 1569, 1572]</t>
-  </si>
-  <si>
-    <t>[1859, 1882, 1860, 2146, 2146, 2146, 2146, 2147, 1899]</t>
-  </si>
-  <si>
-    <t>[2434, 2434, 2722, 2721, 2745, 2722, 2722, 2721, 2723]</t>
-  </si>
-  <si>
-    <t>[3008, 3009, 3296, 3584, 3582, 3583, 3584, 3584, 3586, 3585]</t>
-  </si>
-  <si>
-    <t>[4157, 4156, 4158, 4160, 4157, 3777]</t>
-  </si>
-  <si>
-    <t>[4444, 4445, 4448, 4753, 4731, 4732]</t>
-  </si>
-  <si>
-    <t>[5018, 5045, 5022, 5022, 5304, 5306, 5310, 5308]</t>
-  </si>
-  <si>
-    <t>[5591, 5594, 5594, 5877, 5881, 5881, 5882]</t>
-  </si>
-  <si>
-    <t>[6164, 6167, 6167, 6166, 6449, 6476, 6455]</t>
-  </si>
-  <si>
-    <t>[6733, 6742, 6740, 7024, 7027, 7027, 7030, 7027]</t>
-  </si>
-  <si>
-    <t>[7315, 7314, 7598, 7602, 7600, 7619, 7601, 7460]</t>
-  </si>
-  <si>
-    <t>[7887, 8173, 8176]</t>
-  </si>
-  <si>
-    <t>[8462, 8462, 8750, 8519]</t>
-  </si>
-  <si>
-    <t>[4227, 3732, 4719, 3314]</t>
-  </si>
-  <si>
-    <t>[5546, 2743, 4720]</t>
-  </si>
-  <si>
-    <t>[3236, 5875, 6206, 2084, 3069, 3729, 5709, 7028, 6953]</t>
-  </si>
-  <si>
-    <t>[1589, 4557, 764, 1754, 3401, 3732, 4721, 5709, 7689]</t>
-  </si>
-  <si>
-    <t>[2577, 6534, 4060, 599, 1588, 3237, 4556, 5545, 7195, 7524]</t>
-  </si>
-  <si>
-    <t>[599, 2579, 3567, 6535, 7523, 423]</t>
-  </si>
-  <si>
-    <t>[1753, 4720, 5706, 930, 1259, 4226]</t>
-  </si>
-  <si>
-    <t>[2742, 6367, 7029, 7689, 595, 3236, 5216, 6203]</t>
-  </si>
-  <si>
-    <t>[2083, 4061, 6698, 1259, 5215, 7524, 8027]</t>
-  </si>
-  <si>
-    <t>[765, 3071, 3728, 6035, 2244, 2907, 4555]</t>
-  </si>
-  <si>
-    <t>[761, 6699, 7688, 1590, 2577, 3566, 5215, 7194]</t>
-  </si>
-  <si>
-    <t>[6039, 6700, 2249, 3567, 4556, 5870, 6205, 1338]</t>
-  </si>
-  <si>
-    <t>[3072, 3237, 5545]</t>
-  </si>
-  <si>
-    <t>[4062, 5050, 4227, 5303]</t>
-  </si>
-  <si>
-    <t>[722, 1010, 1010, 820]</t>
-  </si>
-  <si>
-    <t>[1298, 1584, 1586]</t>
-  </si>
-  <si>
-    <t>[1871, 1897, 1873, 2156, 2158, 2158, 2159, 2158, 1870]</t>
-  </si>
-  <si>
-    <t>[2444, 2442, 2730, 2730, 2751, 2730, 2729, 2731, 2732]</t>
-  </si>
-  <si>
-    <t>[3016, 3017, 3302, 3586, 3587, 3586, 3589, 3589, 3592, 3590]</t>
-  </si>
-  <si>
-    <t>[4160, 4161, 4159, 4161, 4164, 3782]</t>
-  </si>
-  <si>
-    <t>[4446, 4445, 4447, 4753, 4731, 4733]</t>
-  </si>
-  <si>
-    <t>[5018, 5043, 5020, 5020, 5302, 5303, 5305, 5307]</t>
-  </si>
-  <si>
-    <t>[5588, 5591, 5593, 5873, 5877, 5876, 5877]</t>
-  </si>
-  <si>
-    <t>[6157, 6162, 6160, 6163, 6447, 6469, 6447]</t>
-  </si>
-  <si>
-    <t>[6729, 6735, 6734, 7016, 7019, 7018, 7020, 7020]</t>
-  </si>
-  <si>
-    <t>[7304, 7306, 7587, 7591, 7591, 7614, 7589, 7491]</t>
-  </si>
-  <si>
-    <t>[7876, 8156, 8162]</t>
-  </si>
-  <si>
-    <t>[8447, 8449, 8735, 8546]</t>
-  </si>
-  <si>
-    <t>[4224, 3729, 4718, 3288]</t>
-  </si>
-  <si>
-    <t>[5542, 2740, 4717]</t>
-  </si>
-  <si>
-    <t>[3236, 5872, 6201, 2080, 3069, 3728, 5707, 7028, 6974]</t>
-  </si>
-  <si>
-    <t>[1586, 4550, 761, 1750, 3401, 3729, 4717, 5706, 7686]</t>
-  </si>
-  <si>
-    <t>[2575, 6532, 4057, 596, 1584, 3234, 4553, 5541, 7193, 7522]</t>
-  </si>
-  <si>
-    <t>[595, 2570, 3563, 6532, 7522, 377]</t>
-  </si>
-  <si>
-    <t>[1746, 4716, 5707, 925, 1255, 4221]</t>
-  </si>
-  <si>
-    <t>[2738, 6366, 7027, 7686, 594, 3233, 5212, 6201]</t>
-  </si>
-  <si>
-    <t>[2080, 4058, 6697, 1255, 5212, 7521, 8072]</t>
-  </si>
-  <si>
-    <t>[761, 3069, 3728, 6037, 2244, 2904, 4552]</t>
-  </si>
-  <si>
-    <t>[762, 6697, 7686, 1584, 2574, 3563, 5213, 7193]</t>
-  </si>
-  <si>
-    <t>[6037, 6698, 2246, 3564, 4553, 5871, 6200, 1309]</t>
-  </si>
-  <si>
-    <t>[3070, 3233, 5541]</t>
-  </si>
-  <si>
-    <t>[4058, 5047, 4223, 5322]</t>
+    <t>['S024_043_055_042', 'S025_159_171_158', 'S026_086_999_085']</t>
+  </si>
+  <si>
+    <t>['S027_003_011_002', 'S028_022_032_021', 'S029_072_071_056', 'S030_102_117_101', 'S031_132_146_131', 'S032_999_999_172', 'S033_183_192_182', 'S088_999_999_999']</t>
+  </si>
+  <si>
+    <t>['S034_004_012_999', 'S035_045_999_044', 'S036_073_087_999', 'S037_161_173_160', 'S038_184_193_999', 'S039_034_033_023', 'S040_119_118_999', 'S041_148_147_133']</t>
+  </si>
+  <si>
+    <t>['S042_014_999_999', 'S043_024_999_013', 'S044_104_103_088', 'S045_059_058_046', 'S046_163_999_999', 'S047_999_999_174', 'S048_195_194_185']</t>
+  </si>
+  <si>
+    <t>['S049_006_015_005', 'S050_075_074_999', 'S051_999_134_120', 'S052_999_163_149', 'S053_036_047_035', 'S054_999_105_089', 'S055_176_175_164']</t>
+  </si>
+  <si>
+    <t>['S056_026_025_999', 'S057_136_135_121', 'S058_187_196_186', 'S059_017_016_007', 'S060_061_076_060', 'S061_091_090_076', 'S062_151_165_150', 'S091_999_999_999']</t>
+  </si>
+  <si>
+    <t>['S063_049_048_037', 'S064_062_999_999', 'S065_107_122_106', 'S066_018_999_008', 'S067_178_177_166', 'S068_198_197_188']</t>
+  </si>
+  <si>
+    <t>['S069_028_038_027', 'S070_999_063_999', 'S071_078_092_077', 'S072_138_137_123', 'S073_189_999_999', 'S074_153_999_152', 'S075_179_999_167']</t>
+  </si>
+  <si>
+    <t>['S076_051_050_039', 'S077_999_093_999', 'S078_109_124_108', 'S079_154_999_999', 'S080_168_999_999', 'S081_065_079_064', 'S089_999_999_999']</t>
+  </si>
+  <si>
+    <t>['S082_080_999_999', 'S083_140_155_139', 'S084_999_999_094', 'S085_126_999_125']</t>
+  </si>
+  <si>
+    <t>['S086_111_110_095', 'S090_999_999_999']</t>
+  </si>
+  <si>
+    <t>['1895', '2656', '2655', '2257']</t>
+  </si>
+  <si>
+    <t>['3417', '4178', '4180']</t>
+  </si>
+  <si>
+    <t>['4940', '5002', '4940', '5701', '5701', '5700', '5700', '5697', '5044']</t>
+  </si>
+  <si>
+    <t>['6462', '6462', '7223', '7223', '7285', '7222', '7223', '7222', '7223']</t>
+  </si>
+  <si>
+    <t>['7984', '7984', '8746']</t>
+  </si>
+  <si>
+    <t>['9514', '9507', '9502', '9506', '9507', '9509', '9507', '10017']</t>
+  </si>
+  <si>
+    <t>['11029', '11029', '11029', '11029', '11028', '11791', '11789', '11793']</t>
+  </si>
+  <si>
+    <t>['12614', '12552', '12552', '13312', '13375', '13313', '13314']</t>
+  </si>
+  <si>
+    <t>['14074', '14074', '14071', '14076', '14835', '14835', '14835']</t>
+  </si>
+  <si>
+    <t>['15594', '15596', '15596', '16357', '16357', '16359', '16356', '15598']</t>
+  </si>
+  <si>
+    <t>['17119', '17181', '17119', '17880', '17881', '17881']</t>
+  </si>
+  <si>
+    <t>['18641', '18638', '18641', '18641', '18643', '19399', '19402']</t>
+  </si>
+  <si>
+    <t>['20161', '20163', '20163', '20226', '20163', '20925', '19802']</t>
+  </si>
+  <si>
+    <t>['21685', '21686', '22447', '22446']</t>
+  </si>
+  <si>
+    <t>['23210', '22596']</t>
+  </si>
+  <si>
+    <t>['11230', '9911', '12546', '8801']</t>
+  </si>
+  <si>
+    <t>['14745', '7274', '12546']</t>
+  </si>
+  <si>
+    <t>['8593', '15625', '16503', '5516', '8153', '9911', '15185', '18702', '18494']</t>
+  </si>
+  <si>
+    <t>['4198', '12108', '2000', '4637', '9032', '9913', '12548', '15185', '20458']</t>
+  </si>
+  <si>
+    <t>['6835', '17382', '10790']</t>
+  </si>
+  <si>
+    <t>['1560', '4198', '8597', '12109', '14745', '19141', '20019', '1099']</t>
+  </si>
+  <si>
+    <t>['1561', '6835', '9472', '17382', '20021', '4637', '12546', '15182']</t>
+  </si>
+  <si>
+    <t>['2440', '3319', '11229', '7274', '16943', '18701', '20458']</t>
+  </si>
+  <si>
+    <t>['1561', '8590', '13864', '16502', '5516', '10790', '17822']</t>
+  </si>
+  <si>
+    <t>['3318', '13866', '20019', '2000', '8153', '9912', '16065', '21361']</t>
+  </si>
+  <si>
+    <t>['5956', '7714', '12108', '2000', '17825', '20458']</t>
+  </si>
+  <si>
+    <t>['4198', '6837', '9472', '13866', '19141', '16065', '17822']</t>
+  </si>
+  <si>
+    <t>['5957', '9472', '12108', '15625', '16503', '8153', '3528']</t>
+  </si>
+  <si>
+    <t>['8590', '14745', '10790', '13429']</t>
+  </si>
+  <si>
+    <t>['11229', '14104']</t>
+  </si>
+  <si>
+    <t>[295, 303, 305, 302]</t>
+  </si>
+  <si>
+    <t>[310, 317, 319]</t>
+  </si>
+  <si>
+    <t>[324, 331, 325, 329, 328, 332, 335, 343, 329]</t>
+  </si>
+  <si>
+    <t>[335, 338, 340, 340, 343, 343, 344, 345, 350]</t>
+  </si>
+  <si>
+    <t>[348, 354, 353]</t>
+  </si>
+  <si>
+    <t>[349, 356, 361, 360, 361, 365, 366, 359]</t>
+  </si>
+  <si>
+    <t>[364, 364, 368, 374, 377, 369, 375, 374]</t>
+  </si>
+  <si>
+    <t>[373, 374, 377, 381, 388, 383, 387]</t>
+  </si>
+  <si>
+    <t>[380, 387, 393, 388, 388, 394, 394]</t>
+  </si>
+  <si>
+    <t>[389, 397, 399, 390, 399, 399, 404, 394]</t>
+  </si>
+  <si>
+    <t>[400, 405, 407, 395, 409, 406]</t>
+  </si>
+  <si>
+    <t>[404, 414, 413, 416, 412, 421, 416]</t>
+  </si>
+  <si>
+    <t>[417, 423, 424, 422, 421, 425, 409]</t>
+  </si>
+  <si>
+    <t>[428, 433, 440, 438]</t>
+  </si>
+  <si>
+    <t>[443, 440]</t>
+  </si>
+  <si>
+    <t>[355, 354, 358, 358]</t>
+  </si>
+  <si>
+    <t>[359, 358, 360]</t>
+  </si>
+  <si>
+    <t>[360, 360, 363, 359, 360, 355, 361, 360, 364]</t>
+  </si>
+  <si>
+    <t>[361, 363, 360, 358, 360, 357, 361, 362, 366]</t>
+  </si>
+  <si>
+    <t>[361, 367, 359]</t>
+  </si>
+  <si>
+    <t>[363, 360, 357, 362, 361, 365, 365, 360]</t>
+  </si>
+  <si>
+    <t>[363, 362, 361, 366, 364, 362, 366, 366]</t>
+  </si>
+  <si>
+    <t>[365, 364, 363, 366, 368, 368, 368]</t>
+  </si>
+  <si>
+    <t>[365, 368, 368, 367, 364, 363, 370]</t>
+  </si>
+  <si>
+    <t>[366, 367, 368, 369, 368, 363, 367, 370]</t>
+  </si>
+  <si>
+    <t>[368, 368, 369, 370, 372, 371]</t>
+  </si>
+  <si>
+    <t>[367, 367, 367, 368, 371, 370, 373]</t>
+  </si>
+  <si>
+    <t>[369, 367, 371, 369, 371, 368, 369]</t>
+  </si>
+  <si>
+    <t>[371, 369, 367, 370]</t>
+  </si>
+  <si>
+    <t>[370, 369]</t>
+  </si>
+  <si>
+    <t>[342, 346, 348, 228]</t>
+  </si>
+  <si>
+    <t>[357, 362, 364]</t>
+  </si>
+  <si>
+    <t>[365, 370, 371, 366, 372, 369, 374, 376, 256]</t>
+  </si>
+  <si>
+    <t>[366, 374, 369, 368, 374, 376, 376, 378, 385]</t>
+  </si>
+  <si>
+    <t>[374, 381, 379]</t>
+  </si>
+  <si>
+    <t>[368, 375, 382, 382, 383, 387, 387, 369]</t>
+  </si>
+  <si>
+    <t>[377, 378, 382, 387, 391, 379, 387, 386]</t>
+  </si>
+  <si>
+    <t>[374, 380, 387, 384, 491, 392, 393]</t>
+  </si>
+  <si>
+    <t>[379, 387, 394, 392, 385, 390, 392]</t>
+  </si>
+  <si>
+    <t>[382, 394, 392, 382, 390, 389, 396, 390]</t>
+  </si>
+  <si>
+    <t>[391, 391, 395, 380, 393, 395]</t>
+  </si>
+  <si>
+    <t>[386, 397, 397, 396, 392, 403, 397]</t>
+  </si>
+  <si>
+    <t>[395, 397, 403, 397, 402, 400, 495]</t>
+  </si>
+  <si>
+    <t>[398, 406, 409, 412]</t>
+  </si>
+  <si>
+    <t>[410, 519]</t>
+  </si>
+  <si>
+    <t>[354, 351, 357, 291]</t>
+  </si>
+  <si>
+    <t>[354, 357, 358]</t>
+  </si>
+  <si>
+    <t>[355, 357, 359, 354, 354, 351, 356, 357, 423]</t>
+  </si>
+  <si>
+    <t>[354, 356, 357, 353, 354, 354, 357, 357, 360]</t>
+  </si>
+  <si>
+    <t>[354, 360, 353]</t>
+  </si>
+  <si>
+    <t>[357, 353, 352, 354, 354, 357, 358, 225]</t>
+  </si>
+  <si>
+    <t>[357, 357, 352, 361, 357, 356, 358, 359]</t>
+  </si>
+  <si>
+    <t>[360, 358, 357, 360, 472, 361, 360]</t>
+  </si>
+  <si>
+    <t>[362, 362, 358, 361, 360, 357, 362]</t>
+  </si>
+  <si>
+    <t>[363, 361, 362, 364, 361, 359, 359, 488]</t>
+  </si>
+  <si>
+    <t>[360, 365, 361, 364, 364, 364]</t>
+  </si>
+  <si>
+    <t>[366, 361, 360, 364, 365, 362, 366]</t>
+  </si>
+  <si>
+    <t>[364, 362, 364, 364, 365, 365, 297]</t>
+  </si>
+  <si>
+    <t>[367, 361, 362, 366]</t>
+  </si>
+  <si>
+    <t>[367, 423]</t>
+  </si>
+  <si>
+    <t>[1817, 2586, 2587, 2186]</t>
+  </si>
+  <si>
+    <t>[3354, 4122, 4126]</t>
+  </si>
+  <si>
+    <t>[4891, 4960, 4892, 5657, 5656, 5659, 5662, 5667, 5000]</t>
+  </si>
+  <si>
+    <t>[6424, 6427, 7190, 7190, 7255, 7192, 7194, 7194, 7200]</t>
+  </si>
+  <si>
+    <t>[7959, 7965, 8726]</t>
+  </si>
+  <si>
+    <t>[9490, 9490, 9490, 9493, 9495, 9501, 9500, 10003]</t>
+  </si>
+  <si>
+    <t>[11020, 11020, 11024, 11030, 11032, 11787, 11791, 11794]</t>
+  </si>
+  <si>
+    <t>[12614, 12553, 12556, 13320, 13390, 13323, 13328]</t>
+  </si>
+  <si>
+    <t>[14081, 14088, 14091, 14091, 14850, 14856, 14856]</t>
+  </si>
+  <si>
+    <t>[15610, 15620, 15622, 16374, 16383, 16385, 16387, 15619]</t>
+  </si>
+  <si>
+    <t>[17146, 17213, 17153, 17902, 17917, 17914]</t>
+  </si>
+  <si>
+    <t>[18672, 18679, 18681, 18684, 18682, 19447, 19445]</t>
+  </si>
+  <si>
+    <t>[20205, 20213, 20214, 20275, 20211, 20977, 19838]</t>
+  </si>
+  <si>
+    <t>[21740, 21746, 22514, 22511]</t>
+  </si>
+  <si>
+    <t>[23280, 22663]</t>
+  </si>
+  <si>
+    <t>[11212, 9892, 12531, 8786]</t>
+  </si>
+  <si>
+    <t>[14731, 7259, 12533]</t>
+  </si>
+  <si>
+    <t>[8580, 15612, 16493, 5502, 8140, 9893, 15173, 18689, 18485]</t>
+  </si>
+  <si>
+    <t>[4186, 12098, 1987, 4622, 9019, 9897, 12536, 15174, 20451]</t>
+  </si>
+  <si>
+    <t>[6823, 17376, 10776]</t>
+  </si>
+  <si>
+    <t>[1550, 4185, 8581, 12098, 14733, 19133, 20011, 1086]</t>
+  </si>
+  <si>
+    <t>[1551, 6824, 9460, 17375, 20012, 4626, 12539, 15175]</t>
+  </si>
+  <si>
+    <t>[2432, 3310, 11219, 7267, 16938, 18696, 20453]</t>
+  </si>
+  <si>
+    <t>[1553, 8585, 13859, 16496, 5507, 10780, 17819]</t>
+  </si>
+  <si>
+    <t>[3311, 13860, 20014, 1996, 8148, 9902, 16059, 21358]</t>
+  </si>
+  <si>
+    <t>[5951, 7709, 12104, 1997, 17824, 20456]</t>
+  </si>
+  <si>
+    <t>[4192, 6831, 9466, 13861, 19139, 16062, 17822]</t>
+  </si>
+  <si>
+    <t>[5953, 9466, 12106, 15621, 16501, 8148, 3524]</t>
+  </si>
+  <si>
+    <t>[8588, 14741, 10784, 13426]</t>
+  </si>
+  <si>
+    <t>[11226, 14100]</t>
+  </si>
+  <si>
+    <t>[1864, 2629, 2630, 2112]</t>
+  </si>
+  <si>
+    <t>[3401, 4167, 4171]</t>
+  </si>
+  <si>
+    <t>[4932, 4999, 4938, 5694, 5700, 5696, 5701, 5700, 4927]</t>
+  </si>
+  <si>
+    <t>[6455, 6463, 7219, 7218, 7286, 7225, 7226, 7227, 7235]</t>
+  </si>
+  <si>
+    <t>[7985, 7992, 8752]</t>
+  </si>
+  <si>
+    <t>[9509, 9509, 9511, 9515, 9517, 9523, 9521, 10013]</t>
+  </si>
+  <si>
+    <t>[11033, 11034, 11038, 11043, 11046, 11797, 11803, 11806]</t>
+  </si>
+  <si>
+    <t>[12615, 12559, 12566, 13323, 13493, 13332, 13334]</t>
+  </si>
+  <si>
+    <t>[14080, 14088, 14092, 14095, 14847, 14852, 14854]</t>
+  </si>
+  <si>
+    <t>[15603, 15617, 15615, 16366, 16374, 16375, 16379, 15615]</t>
+  </si>
+  <si>
+    <t>[17137, 17199, 17141, 17887, 17901, 17903]</t>
+  </si>
+  <si>
+    <t>[18654, 18662, 18665, 18664, 18662, 19429, 19426]</t>
+  </si>
+  <si>
+    <t>[20183, 20187, 20193, 20250, 20192, 20952, 19924]</t>
+  </si>
+  <si>
+    <t>[21710, 21719, 22483, 22485]</t>
+  </si>
+  <si>
+    <t>[23247, 22742]</t>
+  </si>
+  <si>
+    <t>[11211, 9889, 12530, 8719]</t>
+  </si>
+  <si>
+    <t>[14726, 7258, 12531]</t>
+  </si>
+  <si>
+    <t>[8575, 15609, 16489, 5497, 8134, 9889, 15168, 18686, 18544]</t>
+  </si>
+  <si>
+    <t>[4179, 12091, 1984, 4617, 9013, 9894, 12532, 15169, 20445]</t>
+  </si>
+  <si>
+    <t>[6816, 17369, 10770]</t>
+  </si>
+  <si>
+    <t>[1544, 4178, 8576, 12090, 14726, 19125, 20004, 951]</t>
+  </si>
+  <si>
+    <t>[1545, 6819, 9451, 17370, 20005, 4620, 12531, 15168]</t>
+  </si>
+  <si>
+    <t>[2427, 3304, 11213, 7261, 17042, 18689, 20445]</t>
+  </si>
+  <si>
+    <t>[1550, 8579, 13849, 16490, 5503, 10774, 17811]</t>
+  </si>
+  <si>
+    <t>[3308, 13854, 20008, 1991, 8141, 9898, 16051, 21476]</t>
+  </si>
+  <si>
+    <t>[5943, 7706, 12096, 1991, 17816, 20449]</t>
+  </si>
+  <si>
+    <t>[4191, 6825, 9459, 13857, 19133, 16054, 17815]</t>
+  </si>
+  <si>
+    <t>[5948, 9461, 12099, 15616, 16495, 8145, 3452]</t>
+  </si>
+  <si>
+    <t>[8584, 14733, 10779, 13422]</t>
+  </si>
+  <si>
+    <t>[11223, 14154]</t>
   </si>
   <si>
     <t>[-86.0, -80.0, -80.0, -83.0]</t>
@@ -538,37 +571,40 @@
     <t>[-62.0, -61.0, -62.0, -56.0, -56.0, -56.0, -56.0, -56.0, -61.0]</t>
   </si>
   <si>
-    <t>[-50.0, -50.0, -43.0, -44.0, -43.0, -43.0, -43.0, -44.0, -43.0]</t>
-  </si>
-  <si>
-    <t>[-37.0, -37.0, -31.0, -25.0, -25.0, -25.0, -25.0, -25.0, -25.0, -25.0]</t>
-  </si>
-  <si>
-    <t>[-13.0, -13.0, -13.0, -13.0, -13.0, -21.0]</t>
-  </si>
-  <si>
-    <t>[-7.0, -7.0, -7.0, 0.0, -1.0, -1.0]</t>
-  </si>
-  <si>
-    <t>[5.0, 6.0, 5.0, 5.0, 11.0, 11.0, 11.0, 11.0]</t>
-  </si>
-  <si>
-    <t>[17.0, 17.0, 17.0, 23.0, 23.0, 23.0, 23.0]</t>
-  </si>
-  <si>
-    <t>[29.0, 29.0, 29.0, 29.0, 35.0, 36.0, 36.0]</t>
-  </si>
-  <si>
-    <t>[41.0, 42.0, 42.0, 48.0, 48.0, 48.0, 48.0, 48.0]</t>
-  </si>
-  <si>
-    <t>[54.0, 54.0, 60.0, 60.0, 60.0, 60.0, 60.0, 57.0]</t>
-  </si>
-  <si>
-    <t>[66.0, 72.0, 72.0]</t>
-  </si>
-  <si>
-    <t>[78.0, 78.0, 84.0, 79.0]</t>
+    <t>[-50.0, -50.0, -44.0, -44.0, -43.0, -44.0, -44.0, -44.0, -43.0]</t>
+  </si>
+  <si>
+    <t>[-37.0, -37.0, -31.0]</t>
+  </si>
+  <si>
+    <t>[-25.0, -25.0, -25.0, -25.0, -25.0, -25.0, -25.0, -21.0]</t>
+  </si>
+  <si>
+    <t>[-13.0, -13.0, -13.0, -13.0, -13.0, -7.0, -7.0, -7.0]</t>
+  </si>
+  <si>
+    <t>[0.0, -1.0, -1.0, 5.0, 6.0, 5.0, 5.0]</t>
+  </si>
+  <si>
+    <t>[11.0, 11.0, 11.0, 11.0, 17.0, 17.0, 17.0]</t>
+  </si>
+  <si>
+    <t>[23.0, 23.0, 23.0, 29.0, 29.0, 29.0, 29.0, 23.0]</t>
+  </si>
+  <si>
+    <t>[35.0, 36.0, 36.0, 41.0, 42.0, 42.0]</t>
+  </si>
+  <si>
+    <t>[48.0, 48.0, 48.0, 48.0, 48.0, 54.0, 54.0]</t>
+  </si>
+  <si>
+    <t>[60.0, 60.0, 60.0, 60.0, 60.0, 66.0, 57.0]</t>
+  </si>
+  <si>
+    <t>[72.0, 72.0, 78.0, 78.0]</t>
+  </si>
+  <si>
+    <t>[84.0, 79.0]</t>
   </si>
   <si>
     <t>[69.0, 59.0, 80.0, 50.0]</t>
@@ -583,151 +619,172 @@
     <t>[13.0, 76.0, -4.0, 17.0, 52.0, 59.0, 80.0, 101.0, 143.0]</t>
   </si>
   <si>
-    <t>[34.0, 118.0, 66.0, -8.0, 13.0, 48.0, 76.0, 97.0, 132.0, 139.0]</t>
-  </si>
-  <si>
-    <t>[-8.0, 34.0, 55.0, 118.0, 139.0, -11.0]</t>
-  </si>
-  <si>
-    <t>[17.0, 80.0, 101.0, 0.0, 6.0, 69.0]</t>
-  </si>
-  <si>
-    <t>[38.0, 115.0, 129.0, 143.0, -8.0, 48.0, 90.0, 111.0]</t>
-  </si>
-  <si>
-    <t>[24.0, 66.0, 122.0, 6.0, 90.0, 139.0, 150.0]</t>
-  </si>
-  <si>
-    <t>[-4.0, 45.0, 59.0, 108.0, 27.0, 41.0, 76.0]</t>
-  </si>
-  <si>
-    <t>[-4.0, 122.0, 143.0, 13.0, 34.0, 55.0, 90.0, 132.0]</t>
-  </si>
-  <si>
-    <t>[108.0, 122.0, 27.0, 55.0, 76.0, 104.0, 111.0, 8.0]</t>
-  </si>
-  <si>
-    <t>[45.0, 48.0, 97.0]</t>
-  </si>
-  <si>
-    <t>[66.0, 87.0, 69.0, 92.0]</t>
+    <t>[34.0, 118.0, 66.0]</t>
+  </si>
+  <si>
+    <t>[-8.0, 13.0, 48.0, 76.0, 97.0, 132.0, 139.0, -11.0]</t>
+  </si>
+  <si>
+    <t>[-7.0, 34.0, 55.0, 118.0, 139.0, 17.0, 80.0, 101.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 6.0, 69.0, 38.0, 115.0, 129.0, 143.0]</t>
+  </si>
+  <si>
+    <t>[-7.0, 48.0, 90.0, 111.0, 24.0, 66.0, 122.0]</t>
+  </si>
+  <si>
+    <t>[6.0, 90.0, 139.0, -4.0, 45.0, 59.0, 108.0, 150.0]</t>
+  </si>
+  <si>
+    <t>[27.0, 41.0, 76.0, -4.0, 122.0, 143.0]</t>
+  </si>
+  <si>
+    <t>[13.0, 34.0, 55.0, 90.0, 132.0, 108.0, 122.0]</t>
+  </si>
+  <si>
+    <t>[27.0, 55.0, 76.0, 104.0, 111.0, 45.0, 8.0]</t>
+  </si>
+  <si>
+    <t>[48.0, 97.0, 66.0, 87.0]</t>
+  </si>
+  <si>
+    <t>[69.0, 92.0]</t>
   </si>
   <si>
     <t>[-86.0, -80.0, -80.0, -84.0]</t>
   </si>
   <si>
-    <t>[-62.0, -61.0, -61.0, -55.0, -55.0, -55.0, -55.0, -55.0, -62.0]</t>
+    <t>[-61.0, -61.0, -61.0, -55.0, -55.0, -55.0, -55.0, -55.0, -62.0]</t>
   </si>
   <si>
     <t>[-49.0, -49.0, -43.0, -43.0, -43.0, -43.0, -43.0, -43.0, -43.0]</t>
   </si>
   <si>
-    <t>[29.0, 29.0, 29.0, 29.0, 35.0, 36.0, 35.0]</t>
-  </si>
-  <si>
-    <t>[41.0, 41.0, 41.0, 47.0, 47.0, 47.0, 47.0, 47.0]</t>
-  </si>
-  <si>
-    <t>[53.0, 54.0, 59.0, 60.0, 60.0, 60.0, 60.0, 57.0]</t>
-  </si>
-  <si>
-    <t>[78.0, 78.0, 84.0, 80.0]</t>
+    <t>[35.0, 36.0, 35.0, 41.0, 41.0, 41.0]</t>
+  </si>
+  <si>
+    <t>[47.0, 48.0, 48.0, 48.0, 48.0, 54.0, 54.0]</t>
+  </si>
+  <si>
+    <t>[60.0, 60.0, 60.0, 60.0, 60.0, 66.0, 58.0]</t>
+  </si>
+  <si>
+    <t>[84.0, 80.0]</t>
   </si>
   <si>
     <t>[69.0, 59.0, 80.0, 49.0]</t>
   </si>
   <si>
-    <t>[-8.0, 34.0, 55.0, 118.0, 139.0, -12.0]</t>
-  </si>
-  <si>
-    <t>[17.0, 80.0, 101.0, -1.0, 6.0, 69.0]</t>
-  </si>
-  <si>
-    <t>[24.0, 66.0, 122.0, 6.0, 90.0, 139.0, 151.0]</t>
-  </si>
-  <si>
-    <t>[13.341664064126334, 16.278820596099706, 16.0312195418814, 35.38361202590826]</t>
-  </si>
-  <si>
-    <t>[14.560219778561036, 15.297058540778355, 14.317821063276353]</t>
-  </si>
-  <si>
-    <t>[12.0, 15.297058540778355, 13.92838827718412, 10.770329614269007, 12.0, 12.041594578792296, 13.152946437965905, 11.0, 35.805027579936315]</t>
-  </si>
-  <si>
-    <t>[10.44030650891055, 10.63014581273465, 8.54400374531753, 9.848857801796104, 6.0, 8.54400374531753, 8.06225774829855, 10.44030650891055, 9.486832980505138]</t>
-  </si>
-  <si>
-    <t>[8.246211251235321, 8.246211251235321, 6.708203932499369, 3.605551275463989, 6.4031242374328485, 4.242640687119285, 5.830951894845301, 6.4031242374328485, 6.324555320336759, 5.385164807134504]</t>
-  </si>
-  <si>
-    <t>[5.0, 10.295630140987, 4.123105625617661, 3.1622776601683795, 7.0710678118654755, 46.2709412050371]</t>
-  </si>
-  <si>
-    <t>[7.280109889280518, 4.0, 1.4142135623730951, 5.0, 4.0, 5.0990195135927845]</t>
-  </si>
-  <si>
-    <t>[4.0, 2.23606797749979, 2.8284271247461903, 3.605551275463989, 2.23606797749979, 4.242640687119285, 6.4031242374328485, 2.23606797749979]</t>
-  </si>
-  <si>
-    <t>[4.242640687119285, 4.242640687119285, 1.4142135623730951, 5.656854249492381, 5.0, 5.830951894845301, 45.27692569068709]</t>
-  </si>
-  <si>
-    <t>[8.06225774829855, 5.385164807134504, 7.0, 3.605551275463989, 2.0, 7.615773105863909, 8.54400374531753]</t>
-  </si>
-  <si>
-    <t>[4.123105625617661, 7.280109889280518, 6.324555320336759, 10.0, 8.54400374531753, 9.486832980505138, 10.198039027185569, 7.0710678118654755]</t>
-  </si>
-  <si>
-    <t>[11.180339887498949, 8.246211251235321, 11.40175425099138, 11.40175425099138, 9.486832980505138, 5.0990195135927845, 13.0, 42.44997055358225]</t>
-  </si>
-  <si>
-    <t>[11.180339887498949, 17.46424919657298, 14.560219778561036]</t>
-  </si>
-  <si>
-    <t>[15.524174696260024, 13.341664064126334, 15.524174696260024, 33.015148038438355]</t>
-  </si>
-  <si>
-    <t>[282.3985560240074, 344.5683692841104, 339.3274803031563, 748.9531212150582]</t>
-  </si>
-  <si>
-    <t>[308.1913186462086, 323.78773911314187, 303.06054583934946]</t>
-  </si>
-  <si>
-    <t>[254.0, 323.78773911314187, 294.81755186706386, 227.97197683536064, 254.0, 254.88041858443694, 278.404032936945, 232.83333333333334, 757.8730837753187]</t>
-  </si>
-  <si>
-    <t>[220.98648777194, 225.00475303621675, 180.84807927588773, 208.46749013801752, 127.0, 180.84807927588773, 170.65112233898594, 220.98648777194, 200.8046314206921]</t>
-  </si>
-  <si>
-    <t>[174.54480481781428, 174.54480481781428, 141.99031657123663, 76.3175019973211, 135.5327963589953, 89.80256121069152, 123.42181510755887, 135.5327963589953, 133.8697542804614, 113.98598841768032]</t>
-  </si>
-  <si>
-    <t>[105.83333333333333, 217.92417131755818, 87.27240240890714, 66.9348771402307, 149.67093535115256, 979.4015888399518]</t>
-  </si>
-  <si>
-    <t>[154.0956593231043, 84.66666666666667, 29.934187070230514, 105.83333333333333, 84.66666666666667, 107.92924637104727]</t>
-  </si>
-  <si>
-    <t>[84.66666666666667, 47.33010552374555, 59.86837414046103, 76.3175019973211, 47.33010552374555, 89.80256121069152, 135.5327963589953, 47.33010552374555]</t>
-  </si>
-  <si>
-    <t>[89.80256121069152, 89.80256121069152, 29.934187070230514, 119.73674828092206, 105.83333333333333, 123.42181510755887, 958.36159378621]</t>
-  </si>
-  <si>
-    <t>[170.65112233898594, 113.98598841768032, 148.16666666666666, 76.3175019973211, 42.333333333333336, 161.20053074078606, 180.84807927588773]</t>
-  </si>
-  <si>
-    <t>[87.27240240890714, 154.0956593231043, 133.8697542804614, 211.66666666666666, 180.84807927588773, 200.8046314206921, 215.85849274209454, 149.67093535115256]</t>
-  </si>
-  <si>
-    <t>[236.65052761872775, 174.54480481781428, 241.3371316459842, 241.3371316459842, 200.8046314206921, 107.92924637104727, 275.1666666666667, 898.524376717491]</t>
-  </si>
-  <si>
-    <t>[236.65052761872775, 369.65994132746135, 308.1913186462086]</t>
-  </si>
-  <si>
-    <t>[328.5950310708372, 282.3985560240074, 328.5950310708372, 698.8206334802785]</t>
+    <t>[13.0, 76.0, -4.0, 17.0, 52.0, 59.0, 80.0, 101.0, 142.0]</t>
+  </si>
+  <si>
+    <t>[-8.0, 13.0, 48.0, 76.0, 97.0, 132.0, 139.0, -12.0]</t>
+  </si>
+  <si>
+    <t>[-8.0, 34.0, 55.0, 118.0, 139.0, 17.0, 80.0, 101.0]</t>
+  </si>
+  <si>
+    <t>[-1.0, 6.0, 69.0, 38.0, 115.0, 129.0, 142.0]</t>
+  </si>
+  <si>
+    <t>[-8.0, 48.0, 90.0, 111.0, 24.0, 66.0, 122.0]</t>
+  </si>
+  <si>
+    <t>[6.0, 90.0, 139.0, -4.0, 45.0, 59.0, 108.0, 151.0]</t>
+  </si>
+  <si>
+    <t>[69.0, 93.0]</t>
+  </si>
+  <si>
+    <t>[47.01063709417264, 43.104524124504614, 43.01162633521314, 99.82484660644363]</t>
+  </si>
+  <si>
+    <t>[47.265209192385896, 45.0111097397076, 45.044422518220834]</t>
+  </si>
+  <si>
+    <t>[41.30375285612676, 39.11521443121589, 46.17358552246078, 37.33630940518894, 44.40720662234904, 37.21558813185679, 39.319206502675, 33.13608305156178, 93.86160024205851]</t>
+  </si>
+  <si>
+    <t>[31.78049716414141, 36.6742416417845, 29.154759474226502, 28.442925306655784, 31.575306807693888, 33.13608305156178, 32.2490309931942, 33.37663853655727, 35.510561809129406]</t>
+  </si>
+  <si>
+    <t>[26.92582403567252, 27.892651361962706, 26.68332812825267]</t>
+  </si>
+  <si>
+    <t>[19.924858845171276, 20.248456731316587, 21.587033144922902, 23.40939982143925, 23.08679276123039, 23.40939982143925, 22.135943621178654, 135.36986370680884]</t>
+  </si>
+  <si>
+    <t>[14.317821063276353, 14.866068747318506, 16.64331697709324, 13.92838827718412, 15.652475842498529, 11.661903789690601, 14.422205101855956, 13.892443989449804]</t>
+  </si>
+  <si>
+    <t>[5.0990195135927845, 8.48528137423857, 11.661903789690601, 6.708203932499369, 146.37281168304446, 11.40175425099138, 10.0]</t>
+  </si>
+  <si>
+    <t>[3.1622776601683795, 6.0, 10.04987562112089, 7.211102550927978, 5.0, 7.211102550927978, 8.246211251235321]</t>
+  </si>
+  <si>
+    <t>[7.615773105863909, 6.708203932499369, 9.219544457292887, 9.433981132056603, 11.40175425099138, 10.770329614269007, 11.313708498984761, 118.06777714516353]</t>
+  </si>
+  <si>
+    <t>[12.041594578792296, 14.317821063276353, 14.422205101855956, 16.15549442140351, 17.88854381999832, 13.038404810405298]</t>
+  </si>
+  <si>
+    <t>[18.027756377319946, 18.027756377319946, 17.46424919657298, 20.396078054371138, 20.8806130178211, 19.697715603592208, 20.248456731316587]</t>
+  </si>
+  <si>
+    <t>[22.561028345356956, 26.476404589747453, 22.135943621178654, 25.495097567963924, 19.924858845171276, 25.179356624028344, 112.16059914247963]</t>
+  </si>
+  <si>
+    <t>[30.265491900843113, 28.160255680657446, 31.400636936215164, 26.30589287593181]</t>
+  </si>
+  <si>
+    <t>[33.13608305156178, 95.69221493935649]</t>
+  </si>
+  <si>
+    <t>[373.1469319349953, 342.14216023825537, 341.4047840357543, 792.3597199386463]</t>
+  </si>
+  <si>
+    <t>[375.167597964563, 357.2756835589291, 357.54010373837787]</t>
+  </si>
+  <si>
+    <t>[327.84853829550616, 310.47701454777615, 366.5028350845325, 296.3569559036872, 352.4822025648955, 295.3987307966133, 312.0962016149828, 263.0176592217716, 745.0264519213395]</t>
+  </si>
+  <si>
+    <t>[252.2576962403724, 291.10179303166444, 231.41590332667286, 225.76571962158027, 250.62899778607024, 263.0176592217716, 255.9766835084789, 264.92706838392337, 281.86508435996467]</t>
+  </si>
+  <si>
+    <t>[213.72372828315062, 221.39792018557898, 211.79891701800557]</t>
+  </si>
+  <si>
+    <t>[158.15356708354702, 160.7221253048254, 171.34707558782554, 185.81211108267405, 183.25141754226624, 185.81211108267405, 175.70405249310556, 1074.4982931727952]</t>
+  </si>
+  <si>
+    <t>[113.64770468975604, 117.99942068184063, 132.10632850567757, 110.55658195014894, 124.24152699983208, 92.56636133066915, 114.47625299598165, 110.27127416625783]</t>
+  </si>
+  <si>
+    <t>[40.473467389142726, 67.35192090801864, 92.56636133066915, 53.24636871421374, 1161.8341927341653, 90.50142436724407, 79.375]</t>
+  </si>
+  <si>
+    <t>[25.10057892758651, 47.625, 79.77088774264706, 57.23812649799083, 39.6875, 57.23812649799083, 65.45430180668036]</t>
+  </si>
+  <si>
+    <t>[60.45019902779478, 53.24636871421374, 73.1801341297623, 74.8822252356993, 90.50142436724407, 85.48949131326025, 89.80256121069155, 937.1629810897356]</t>
+  </si>
+  <si>
+    <t>[95.58015696916385, 113.64770468975604, 114.47625299598165, 128.23423696989036, 141.99031657123666, 103.49233818259205]</t>
+  </si>
+  <si>
+    <t>[143.09531624497708, 143.09531624497708, 138.622477997798, 161.8938695565709, 165.739865828955, 156.35061760351314, 160.7221253048254]</t>
+  </si>
+  <si>
+    <t>[179.07816249127086, 210.15646143112042, 175.70405249310556, 202.36733694571365, 158.15356708354702, 199.86114320322497, 890.2747556934321]</t>
+  </si>
+  <si>
+    <t>[240.2323419629422, 223.52202946521848, 249.24255568120785, 208.80302470270874]</t>
+  </si>
+  <si>
+    <t>[263.0176592217716, 759.5569560811422]</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1142,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1152,52 +1209,52 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="J2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="K2" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="L2" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="M2" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="N2" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="O2" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="P2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="Q2" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="R2" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1208,52 +1265,52 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="I3" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J3" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="K3" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="L3" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="M3" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="N3" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="O3" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="P3" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="Q3" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="R3" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1264,52 +1321,52 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="I4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="J4" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="K4" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="L4" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="M4" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="N4" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="O4" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="P4" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="Q4" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="R4" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1320,52 +1377,52 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H5" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="I5" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="J5" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="K5" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="L5" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="M5" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="N5" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="O5" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="P5" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="Q5" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="R5" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1376,52 +1433,52 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H6" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="I6" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="J6" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="K6" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="L6" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="M6" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="N6" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="O6" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="P6" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="Q6" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="R6" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1432,52 +1489,52 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="J7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="K7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="L7" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="M7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="N7" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="O7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="P7" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="Q7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="R7" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1488,52 +1545,52 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H8" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="I8" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="J8" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="K8" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="L8" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="M8" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="N8" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="O8" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="P8" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="Q8" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="R8" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1544,52 +1601,52 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G9" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="I9" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="J9" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="K9" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="L9" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="M9" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="N9" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="O9" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="P9" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="Q9" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="R9" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1600,52 +1657,52 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H10" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I10" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="J10" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="K10" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L10" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="M10" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="N10" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="O10" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="P10" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="Q10" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="R10" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1656,52 +1713,52 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="H11" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="I11" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="K11" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L11" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="M11" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="N11" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="O11" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="P11" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="Q11" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="R11" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1712,52 +1769,52 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H12" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="I12" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="J12" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="K12" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="L12" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="M12" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="N12" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="O12" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="P12" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="Q12" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="R12" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1768,52 +1825,52 @@
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H13" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="I13" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="K13" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="L13" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="M13" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="N13" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="O13" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="P13" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="Q13" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="R13" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1824,52 +1881,52 @@
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H14" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="J14" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="K14" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="M14" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="N14" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="O14" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="P14" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="Q14" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="R14" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1880,52 +1937,108 @@
         <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G15" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H15" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="I15" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="J15" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K15" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="N15" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="O15" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="P15" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="Q15" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="R15" t="s">
-        <v>237</v>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" t="s">
+        <v>121</v>
+      </c>
+      <c r="I16" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" t="s">
+        <v>151</v>
+      </c>
+      <c r="K16" t="s">
+        <v>166</v>
+      </c>
+      <c r="L16" t="s">
+        <v>181</v>
+      </c>
+      <c r="M16" t="s">
+        <v>196</v>
+      </c>
+      <c r="N16" t="s">
+        <v>211</v>
+      </c>
+      <c r="O16" t="s">
+        <v>218</v>
+      </c>
+      <c r="P16" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>241</v>
+      </c>
+      <c r="R16" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
